--- a/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -719,25 +719,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>223900</v>
+        <v>234500</v>
       </c>
       <c r="E8" s="3">
-        <v>132000</v>
+        <v>138300</v>
       </c>
       <c r="F8" s="3">
-        <v>69500</v>
+        <v>72800</v>
       </c>
       <c r="G8" s="3">
-        <v>67600</v>
+        <v>70800</v>
       </c>
       <c r="H8" s="3">
-        <v>35000</v>
+        <v>36600</v>
       </c>
       <c r="I8" s="3">
-        <v>17600</v>
+        <v>18500</v>
       </c>
       <c r="J8" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -748,25 +748,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>174000</v>
+        <v>182300</v>
       </c>
       <c r="E9" s="3">
-        <v>121600</v>
+        <v>127400</v>
       </c>
       <c r="F9" s="3">
-        <v>81100</v>
+        <v>84900</v>
       </c>
       <c r="G9" s="3">
-        <v>84100</v>
+        <v>88100</v>
       </c>
       <c r="H9" s="3">
-        <v>47100</v>
+        <v>49300</v>
       </c>
       <c r="I9" s="3">
-        <v>25500</v>
+        <v>26700</v>
       </c>
       <c r="J9" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -777,25 +777,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>49800</v>
+        <v>52200</v>
       </c>
       <c r="E10" s="3">
-        <v>10400</v>
+        <v>10900</v>
       </c>
       <c r="F10" s="3">
-        <v>-11600</v>
+        <v>-12100</v>
       </c>
       <c r="G10" s="3">
-        <v>-16500</v>
+        <v>-17300</v>
       </c>
       <c r="H10" s="3">
-        <v>-12100</v>
+        <v>-12700</v>
       </c>
       <c r="I10" s="3">
-        <v>-7900</v>
+        <v>-8200</v>
       </c>
       <c r="J10" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -906,22 +906,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>15800</v>
+        <v>16500</v>
       </c>
       <c r="E15" s="3">
-        <v>12900</v>
+        <v>13500</v>
       </c>
       <c r="F15" s="3">
-        <v>12200</v>
+        <v>12800</v>
       </c>
       <c r="G15" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="H15" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="I15" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J15" s="3">
         <v>600</v>
@@ -945,25 +945,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>309700</v>
+        <v>324400</v>
       </c>
       <c r="E17" s="3">
-        <v>232200</v>
+        <v>243200</v>
       </c>
       <c r="F17" s="3">
-        <v>146000</v>
+        <v>153000</v>
       </c>
       <c r="G17" s="3">
-        <v>161100</v>
+        <v>168700</v>
       </c>
       <c r="H17" s="3">
-        <v>105500</v>
+        <v>110500</v>
       </c>
       <c r="I17" s="3">
-        <v>67500</v>
+        <v>70700</v>
       </c>
       <c r="J17" s="3">
-        <v>20100</v>
+        <v>21000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -974,25 +974,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-85800</v>
+        <v>-89900</v>
       </c>
       <c r="E18" s="3">
-        <v>-100200</v>
+        <v>-104900</v>
       </c>
       <c r="F18" s="3">
-        <v>-76600</v>
+        <v>-80200</v>
       </c>
       <c r="G18" s="3">
-        <v>-93500</v>
+        <v>-97900</v>
       </c>
       <c r="H18" s="3">
-        <v>-70500</v>
+        <v>-73900</v>
       </c>
       <c r="I18" s="3">
-        <v>-49900</v>
+        <v>-52200</v>
       </c>
       <c r="J18" s="3">
-        <v>-18200</v>
+        <v>-19000</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1016,25 +1016,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="E20" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F20" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="G20" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="H20" s="3">
         <v>1200</v>
       </c>
       <c r="I20" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J20" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1045,13 +1045,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-73200</v>
+        <v>-76700</v>
       </c>
       <c r="E21" s="3">
-        <v>-97100</v>
+        <v>-101700</v>
       </c>
       <c r="F21" s="3">
-        <v>-66800</v>
+        <v>-70000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1063,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>-18600</v>
+        <v>-19500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1074,10 +1074,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E22" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F22" s="3">
         <v>1200</v>
@@ -1103,25 +1103,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-77200</v>
+        <v>-80900</v>
       </c>
       <c r="E23" s="3">
-        <v>-98900</v>
+        <v>-103600</v>
       </c>
       <c r="F23" s="3">
-        <v>-80100</v>
+        <v>-83900</v>
       </c>
       <c r="G23" s="3">
-        <v>-97200</v>
+        <v>-101800</v>
       </c>
       <c r="H23" s="3">
-        <v>-70400</v>
+        <v>-73800</v>
       </c>
       <c r="I23" s="3">
-        <v>-48400</v>
+        <v>-50700</v>
       </c>
       <c r="J23" s="3">
-        <v>-19200</v>
+        <v>-20100</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1190,25 +1190,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-77200</v>
+        <v>-80900</v>
       </c>
       <c r="E26" s="3">
-        <v>-98900</v>
+        <v>-103600</v>
       </c>
       <c r="F26" s="3">
-        <v>-80100</v>
+        <v>-83900</v>
       </c>
       <c r="G26" s="3">
-        <v>-97200</v>
+        <v>-101800</v>
       </c>
       <c r="H26" s="3">
-        <v>-70400</v>
+        <v>-73800</v>
       </c>
       <c r="I26" s="3">
-        <v>-48400</v>
+        <v>-50700</v>
       </c>
       <c r="J26" s="3">
-        <v>-19200</v>
+        <v>-20100</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1219,25 +1219,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-77200</v>
+        <v>-80900</v>
       </c>
       <c r="E27" s="3">
-        <v>-176400</v>
+        <v>-184700</v>
       </c>
       <c r="F27" s="3">
-        <v>-83200</v>
+        <v>-87100</v>
       </c>
       <c r="G27" s="3">
-        <v>-210000</v>
+        <v>-220000</v>
       </c>
       <c r="H27" s="3">
-        <v>-70400</v>
+        <v>-73800</v>
       </c>
       <c r="I27" s="3">
-        <v>-163700</v>
+        <v>-171400</v>
       </c>
       <c r="J27" s="3">
-        <v>-19200</v>
+        <v>-20100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9700</v>
+        <v>-10100</v>
       </c>
       <c r="E32" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F32" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G32" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H32" s="3">
         <v>-1200</v>
       </c>
       <c r="I32" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="J32" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1393,25 +1393,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-77200</v>
+        <v>-80900</v>
       </c>
       <c r="E33" s="3">
-        <v>-176400</v>
+        <v>-184700</v>
       </c>
       <c r="F33" s="3">
-        <v>-83200</v>
+        <v>-87100</v>
       </c>
       <c r="G33" s="3">
-        <v>-210000</v>
+        <v>-220000</v>
       </c>
       <c r="H33" s="3">
-        <v>-70400</v>
+        <v>-73800</v>
       </c>
       <c r="I33" s="3">
-        <v>-163700</v>
+        <v>-171400</v>
       </c>
       <c r="J33" s="3">
-        <v>-19200</v>
+        <v>-20100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1451,25 +1451,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-77200</v>
+        <v>-80900</v>
       </c>
       <c r="E35" s="3">
-        <v>-176400</v>
+        <v>-184700</v>
       </c>
       <c r="F35" s="3">
-        <v>-83200</v>
+        <v>-87100</v>
       </c>
       <c r="G35" s="3">
-        <v>-210000</v>
+        <v>-220000</v>
       </c>
       <c r="H35" s="3">
-        <v>-70400</v>
+        <v>-73800</v>
       </c>
       <c r="I35" s="3">
-        <v>-163700</v>
+        <v>-171400</v>
       </c>
       <c r="J35" s="3">
-        <v>-19200</v>
+        <v>-20100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1540,16 +1540,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>655600</v>
+        <v>686700</v>
       </c>
       <c r="E41" s="3">
-        <v>579300</v>
+        <v>606800</v>
       </c>
       <c r="F41" s="3">
-        <v>168300</v>
+        <v>176300</v>
       </c>
       <c r="G41" s="3">
-        <v>236900</v>
+        <v>248100</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1569,16 +1569,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>149600</v>
+        <v>156700</v>
       </c>
       <c r="E42" s="3">
-        <v>299500</v>
+        <v>313700</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>18900</v>
+        <v>19800</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E43" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F43" s="3">
-        <v>36000</v>
+        <v>37700</v>
       </c>
       <c r="G43" s="3">
-        <v>49500</v>
+        <v>51800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>31000</v>
+        <v>32400</v>
       </c>
       <c r="E44" s="3">
-        <v>33600</v>
+        <v>35200</v>
       </c>
       <c r="F44" s="3">
-        <v>27400</v>
+        <v>28700</v>
       </c>
       <c r="G44" s="3">
-        <v>21800</v>
+        <v>22800</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1656,16 +1656,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>83500</v>
+        <v>87500</v>
       </c>
       <c r="E45" s="3">
-        <v>74100</v>
+        <v>77600</v>
       </c>
       <c r="F45" s="3">
-        <v>27100</v>
+        <v>28400</v>
       </c>
       <c r="G45" s="3">
-        <v>25700</v>
+        <v>26900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1685,16 +1685,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>922900</v>
+        <v>966600</v>
       </c>
       <c r="E46" s="3">
-        <v>987600</v>
+        <v>1034400</v>
       </c>
       <c r="F46" s="3">
-        <v>258900</v>
+        <v>271100</v>
       </c>
       <c r="G46" s="3">
-        <v>352700</v>
+        <v>369500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1743,16 +1743,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>179800</v>
+        <v>188400</v>
       </c>
       <c r="E48" s="3">
-        <v>154500</v>
+        <v>161900</v>
       </c>
       <c r="F48" s="3">
-        <v>140300</v>
+        <v>147000</v>
       </c>
       <c r="G48" s="3">
-        <v>131400</v>
+        <v>137700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1859,16 +1859,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>63400</v>
+        <v>66400</v>
       </c>
       <c r="E52" s="3">
-        <v>43100</v>
+        <v>45100</v>
       </c>
       <c r="F52" s="3">
-        <v>22100</v>
+        <v>23200</v>
       </c>
       <c r="G52" s="3">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1166100</v>
+        <v>1221400</v>
       </c>
       <c r="E54" s="3">
-        <v>1185200</v>
+        <v>1241400</v>
       </c>
       <c r="F54" s="3">
-        <v>421300</v>
+        <v>441300</v>
       </c>
       <c r="G54" s="3">
-        <v>506100</v>
+        <v>530100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1972,16 +1972,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>51100</v>
+        <v>53500</v>
       </c>
       <c r="E57" s="3">
-        <v>37600</v>
+        <v>39400</v>
       </c>
       <c r="F57" s="3">
-        <v>51900</v>
+        <v>54300</v>
       </c>
       <c r="G57" s="3">
-        <v>61000</v>
+        <v>63900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2001,16 +2001,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>38700</v>
+        <v>40600</v>
       </c>
       <c r="E58" s="3">
-        <v>51100</v>
+        <v>53500</v>
       </c>
       <c r="F58" s="3">
-        <v>46800</v>
+        <v>49100</v>
       </c>
       <c r="G58" s="3">
-        <v>27500</v>
+        <v>28800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2030,16 +2030,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>128300</v>
+        <v>134400</v>
       </c>
       <c r="E59" s="3">
-        <v>86900</v>
+        <v>91100</v>
       </c>
       <c r="F59" s="3">
-        <v>24500</v>
+        <v>25700</v>
       </c>
       <c r="G59" s="3">
-        <v>24900</v>
+        <v>26100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2059,16 +2059,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>218100</v>
+        <v>228500</v>
       </c>
       <c r="E60" s="3">
-        <v>175600</v>
+        <v>184000</v>
       </c>
       <c r="F60" s="3">
-        <v>123200</v>
+        <v>129000</v>
       </c>
       <c r="G60" s="3">
-        <v>113400</v>
+        <v>118800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2091,13 +2091,13 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>11200</v>
+        <v>11700</v>
       </c>
       <c r="F61" s="3">
-        <v>22200</v>
+        <v>23200</v>
       </c>
       <c r="G61" s="3">
-        <v>33000</v>
+        <v>34500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2117,16 +2117,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13500</v>
+        <v>14100</v>
       </c>
       <c r="E62" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="F62" s="3">
-        <v>11400</v>
+        <v>12000</v>
       </c>
       <c r="G62" s="3">
-        <v>18400</v>
+        <v>19200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2233,16 +2233,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>231700</v>
+        <v>242600</v>
       </c>
       <c r="E66" s="3">
-        <v>194400</v>
+        <v>203700</v>
       </c>
       <c r="F66" s="3">
-        <v>156800</v>
+        <v>164300</v>
       </c>
       <c r="G66" s="3">
-        <v>164700</v>
+        <v>172600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2339,10 +2339,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>629300</v>
+        <v>659200</v>
       </c>
       <c r="G70" s="3">
-        <v>621300</v>
+        <v>650800</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2391,16 +2391,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-808300</v>
+        <v>-846700</v>
       </c>
       <c r="E72" s="3">
-        <v>-731100</v>
+        <v>-765800</v>
       </c>
       <c r="F72" s="3">
-        <v>-554700</v>
+        <v>-581000</v>
       </c>
       <c r="G72" s="3">
-        <v>-471500</v>
+        <v>-493900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2507,16 +2507,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>934400</v>
+        <v>978700</v>
       </c>
       <c r="E76" s="3">
-        <v>990700</v>
+        <v>1037800</v>
       </c>
       <c r="F76" s="3">
-        <v>-364900</v>
+        <v>-382200</v>
       </c>
       <c r="G76" s="3">
-        <v>-279900</v>
+        <v>-293200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2599,25 +2599,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-77200</v>
+        <v>-80900</v>
       </c>
       <c r="E81" s="3">
-        <v>-176400</v>
+        <v>-184700</v>
       </c>
       <c r="F81" s="3">
-        <v>-83200</v>
+        <v>-87100</v>
       </c>
       <c r="G81" s="3">
-        <v>-210000</v>
+        <v>-220000</v>
       </c>
       <c r="H81" s="3">
-        <v>-70400</v>
+        <v>-73800</v>
       </c>
       <c r="I81" s="3">
-        <v>-163700</v>
+        <v>-171400</v>
       </c>
       <c r="J81" s="3">
-        <v>-19200</v>
+        <v>-20100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2647,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="F83" s="3">
-        <v>12200</v>
+        <v>12800</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2815,25 +2815,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-17800</v>
+        <v>-18700</v>
       </c>
       <c r="E89" s="3">
-        <v>-54500</v>
+        <v>-57100</v>
       </c>
       <c r="F89" s="3">
-        <v>-91200</v>
+        <v>-95500</v>
       </c>
       <c r="G89" s="3">
-        <v>-39400</v>
+        <v>-41300</v>
       </c>
       <c r="H89" s="3">
-        <v>-104500</v>
+        <v>-109500</v>
       </c>
       <c r="I89" s="3">
-        <v>-28500</v>
+        <v>-29800</v>
       </c>
       <c r="J89" s="3">
-        <v>-18000</v>
+        <v>-18800</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -2863,7 +2863,7 @@
         <v>3</v>
       </c>
       <c r="F91" s="3">
-        <v>-29100</v>
+        <v>-30500</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2875,7 +2875,7 @@
         <v>3</v>
       </c>
       <c r="J91" s="3">
-        <v>-24300</v>
+        <v>-25500</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -2944,25 +2944,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>99100</v>
+        <v>103800</v>
       </c>
       <c r="E94" s="3">
-        <v>-343500</v>
+        <v>-359800</v>
       </c>
       <c r="F94" s="3">
-        <v>11100</v>
+        <v>11700</v>
       </c>
       <c r="G94" s="3">
-        <v>47400</v>
+        <v>49700</v>
       </c>
       <c r="H94" s="3">
-        <v>-188400</v>
+        <v>-197300</v>
       </c>
       <c r="I94" s="3">
-        <v>-21100</v>
+        <v>-22100</v>
       </c>
       <c r="J94" s="3">
-        <v>-24300</v>
+        <v>-25500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3102,25 +3102,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-23200</v>
+        <v>-24300</v>
       </c>
       <c r="E100" s="3">
-        <v>808200</v>
+        <v>846600</v>
       </c>
       <c r="F100" s="3">
-        <v>12500</v>
+        <v>13100</v>
       </c>
       <c r="G100" s="3">
-        <v>207600</v>
+        <v>217500</v>
       </c>
       <c r="H100" s="3">
-        <v>154900</v>
+        <v>162300</v>
       </c>
       <c r="I100" s="3">
-        <v>190900</v>
+        <v>199900</v>
       </c>
       <c r="J100" s="3">
-        <v>25800</v>
+        <v>27000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3131,7 +3131,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>18200</v>
+        <v>19000</v>
       </c>
       <c r="E101" s="3">
         <v>700</v>
@@ -3143,13 +3143,13 @@
         <v>-200</v>
       </c>
       <c r="H101" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J101" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3160,25 +3160,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>76300</v>
+        <v>79900</v>
       </c>
       <c r="E102" s="3">
-        <v>411000</v>
+        <v>430500</v>
       </c>
       <c r="F102" s="3">
-        <v>-68600</v>
+        <v>-71800</v>
       </c>
       <c r="G102" s="3">
-        <v>215400</v>
+        <v>225600</v>
       </c>
       <c r="H102" s="3">
-        <v>-136600</v>
+        <v>-143000</v>
       </c>
       <c r="I102" s="3">
-        <v>143400</v>
+        <v>150200</v>
       </c>
       <c r="J102" s="3">
-        <v>-17200</v>
+        <v>-18000</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>LKNCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>234500</v>
+        <v>498300</v>
       </c>
       <c r="E8" s="3">
-        <v>138300</v>
+        <v>15000</v>
       </c>
       <c r="F8" s="3">
-        <v>72800</v>
+        <v>241400</v>
       </c>
       <c r="G8" s="3">
-        <v>70800</v>
+        <v>142300</v>
       </c>
       <c r="H8" s="3">
-        <v>36600</v>
+        <v>74900</v>
       </c>
       <c r="I8" s="3">
+        <v>72900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>37700</v>
+      </c>
+      <c r="K8" s="3">
         <v>18500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>182300</v>
+        <v>342500</v>
       </c>
       <c r="E9" s="3">
-        <v>127400</v>
+        <v>98100</v>
       </c>
       <c r="F9" s="3">
-        <v>84900</v>
+        <v>187600</v>
       </c>
       <c r="G9" s="3">
-        <v>88100</v>
+        <v>131100</v>
       </c>
       <c r="H9" s="3">
-        <v>49300</v>
+        <v>87400</v>
       </c>
       <c r="I9" s="3">
+        <v>90600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>50800</v>
+      </c>
+      <c r="K9" s="3">
         <v>26700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>52200</v>
+        <v>155800</v>
       </c>
       <c r="E10" s="3">
-        <v>10900</v>
+        <v>-83100</v>
       </c>
       <c r="F10" s="3">
-        <v>-12100</v>
+        <v>53700</v>
       </c>
       <c r="G10" s="3">
-        <v>-17300</v>
+        <v>11200</v>
       </c>
       <c r="H10" s="3">
-        <v>-12700</v>
+        <v>-12500</v>
       </c>
       <c r="I10" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K10" s="3">
         <v>-8200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-2500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,66 +904,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>24200</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>32800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>16500</v>
+        <v>35800</v>
       </c>
       <c r="E15" s="3">
-        <v>13500</v>
+        <v>20500</v>
       </c>
       <c r="F15" s="3">
-        <v>12800</v>
+        <v>17000</v>
       </c>
       <c r="G15" s="3">
-        <v>9000</v>
+        <v>13900</v>
       </c>
       <c r="H15" s="3">
-        <v>4400</v>
+        <v>13100</v>
       </c>
       <c r="I15" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K15" s="3">
         <v>2300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>324400</v>
+        <v>562700</v>
       </c>
       <c r="E17" s="3">
-        <v>243200</v>
+        <v>234900</v>
       </c>
       <c r="F17" s="3">
-        <v>153000</v>
+        <v>333900</v>
       </c>
       <c r="G17" s="3">
-        <v>168700</v>
+        <v>250300</v>
       </c>
       <c r="H17" s="3">
-        <v>110500</v>
+        <v>157400</v>
       </c>
       <c r="I17" s="3">
+        <v>173700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>113700</v>
+      </c>
+      <c r="K17" s="3">
         <v>70700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>21000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-89900</v>
+        <v>-64400</v>
       </c>
       <c r="E18" s="3">
-        <v>-104900</v>
+        <v>-219900</v>
       </c>
       <c r="F18" s="3">
-        <v>-80200</v>
+        <v>-92500</v>
       </c>
       <c r="G18" s="3">
-        <v>-97900</v>
+        <v>-108000</v>
       </c>
       <c r="H18" s="3">
-        <v>-73900</v>
+        <v>-82500</v>
       </c>
       <c r="I18" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-52200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-19000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,135 +1075,161 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10100</v>
+        <v>27800</v>
       </c>
       <c r="E20" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="F20" s="3">
-        <v>-2500</v>
+        <v>10400</v>
       </c>
       <c r="G20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
-        <v>1200</v>
-      </c>
       <c r="I20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-76700</v>
+        <v>-800</v>
       </c>
       <c r="E21" s="3">
-        <v>-101700</v>
+        <v>-169600</v>
       </c>
       <c r="F21" s="3">
-        <v>-70000</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-78900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-104600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-72000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-19500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1300</v>
       </c>
       <c r="F22" s="3">
         <v>1200</v>
       </c>
       <c r="G22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
-        <v>1100</v>
-      </c>
       <c r="I22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-80900</v>
+        <v>-39500</v>
       </c>
       <c r="E23" s="3">
-        <v>-103600</v>
+        <v>-218300</v>
       </c>
       <c r="F23" s="3">
-        <v>-83900</v>
+        <v>-83300</v>
       </c>
       <c r="G23" s="3">
-        <v>-101800</v>
+        <v>-106700</v>
       </c>
       <c r="H23" s="3">
-        <v>-73800</v>
+        <v>-86400</v>
       </c>
       <c r="I23" s="3">
+        <v>-104700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-50700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-20100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-6400</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1155,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-80900</v>
+        <v>-33100</v>
       </c>
       <c r="E26" s="3">
-        <v>-103600</v>
+        <v>-218500</v>
       </c>
       <c r="F26" s="3">
-        <v>-83900</v>
+        <v>-83300</v>
       </c>
       <c r="G26" s="3">
-        <v>-101800</v>
+        <v>-106700</v>
       </c>
       <c r="H26" s="3">
-        <v>-73800</v>
+        <v>-86400</v>
       </c>
       <c r="I26" s="3">
+        <v>-104700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-50700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-20100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-80900</v>
+        <v>-33100</v>
       </c>
       <c r="E27" s="3">
-        <v>-184700</v>
+        <v>-218200</v>
       </c>
       <c r="F27" s="3">
-        <v>-87100</v>
+        <v>-83300</v>
       </c>
       <c r="G27" s="3">
-        <v>-220000</v>
+        <v>-190100</v>
       </c>
       <c r="H27" s="3">
-        <v>-73800</v>
+        <v>-89700</v>
       </c>
       <c r="I27" s="3">
+        <v>-226400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-171400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-20100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10100</v>
+        <v>-27800</v>
       </c>
       <c r="E32" s="3">
-        <v>-2600</v>
+        <v>-2800</v>
       </c>
       <c r="F32" s="3">
-        <v>2500</v>
+        <v>-10400</v>
       </c>
       <c r="G32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1200</v>
-      </c>
       <c r="I32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-80900</v>
+        <v>-33100</v>
       </c>
       <c r="E33" s="3">
-        <v>-184700</v>
+        <v>-218200</v>
       </c>
       <c r="F33" s="3">
-        <v>-87100</v>
+        <v>-83300</v>
       </c>
       <c r="G33" s="3">
-        <v>-220000</v>
+        <v>-190100</v>
       </c>
       <c r="H33" s="3">
-        <v>-73800</v>
+        <v>-89700</v>
       </c>
       <c r="I33" s="3">
+        <v>-226400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-171400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-20100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-80900</v>
+        <v>-33100</v>
       </c>
       <c r="E35" s="3">
-        <v>-184700</v>
+        <v>-218200</v>
       </c>
       <c r="F35" s="3">
-        <v>-87100</v>
+        <v>-83300</v>
       </c>
       <c r="G35" s="3">
-        <v>-220000</v>
+        <v>-190100</v>
       </c>
       <c r="H35" s="3">
-        <v>-73800</v>
+        <v>-89700</v>
       </c>
       <c r="I35" s="3">
+        <v>-226400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-171400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-20100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,28 +1705,30 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>686700</v>
+        <v>795800</v>
       </c>
       <c r="E41" s="3">
-        <v>606800</v>
+        <v>761800</v>
       </c>
       <c r="F41" s="3">
-        <v>176300</v>
+        <v>706700</v>
       </c>
       <c r="G41" s="3">
-        <v>248100</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>624500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>181400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>255300</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1563,28 +1736,34 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>156700</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>313700</v>
+        <v>78300</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>161300</v>
       </c>
       <c r="G42" s="3">
-        <v>19800</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>322900</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>20400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1592,28 +1771,34 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3400</v>
+        <v>8700</v>
       </c>
       <c r="E43" s="3">
+        <v>83900</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
-        <v>37700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>51800</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>38800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>53300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1621,28 +1806,34 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>32400</v>
+        <v>66300</v>
       </c>
       <c r="E44" s="3">
-        <v>35200</v>
+        <v>60400</v>
       </c>
       <c r="F44" s="3">
-        <v>28700</v>
+        <v>33400</v>
       </c>
       <c r="G44" s="3">
-        <v>22800</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+        <v>36300</v>
+      </c>
+      <c r="H44" s="3">
+        <v>29600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>23500</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1650,28 +1841,34 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>87500</v>
+        <v>156200</v>
       </c>
       <c r="E45" s="3">
-        <v>77600</v>
+        <v>198100</v>
       </c>
       <c r="F45" s="3">
-        <v>28400</v>
+        <v>90000</v>
       </c>
       <c r="G45" s="3">
-        <v>26900</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>79900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>29200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>27700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1679,28 +1876,34 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>966600</v>
+        <v>1027000</v>
       </c>
       <c r="E46" s="3">
-        <v>1034400</v>
+        <v>1182400</v>
       </c>
       <c r="F46" s="3">
-        <v>271100</v>
+        <v>994900</v>
       </c>
       <c r="G46" s="3">
-        <v>369500</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>1064600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>279100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>380200</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1708,8 +1911,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,28 +1946,34 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>188400</v>
+        <v>302300</v>
       </c>
       <c r="E48" s="3">
-        <v>161900</v>
+        <v>303500</v>
       </c>
       <c r="F48" s="3">
-        <v>147000</v>
+        <v>193800</v>
       </c>
       <c r="G48" s="3">
-        <v>137700</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>166600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>151200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>141700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1766,8 +1981,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,28 +2086,34 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>66400</v>
+        <v>131100</v>
       </c>
       <c r="E52" s="3">
-        <v>45100</v>
+        <v>42500</v>
       </c>
       <c r="F52" s="3">
-        <v>23200</v>
+        <v>68300</v>
       </c>
       <c r="G52" s="3">
-        <v>23000</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>46500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>23800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>23700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,28 +2156,34 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1221400</v>
+        <v>1460400</v>
       </c>
       <c r="E54" s="3">
-        <v>1241400</v>
+        <v>1528400</v>
       </c>
       <c r="F54" s="3">
-        <v>441300</v>
+        <v>1257000</v>
       </c>
       <c r="G54" s="3">
-        <v>530100</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>1277700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>454100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>545600</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1940,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,28 +2225,30 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>53500</v>
+        <v>70300</v>
       </c>
       <c r="E57" s="3">
-        <v>39400</v>
+        <v>157600</v>
       </c>
       <c r="F57" s="3">
-        <v>54300</v>
+        <v>55100</v>
       </c>
       <c r="G57" s="3">
-        <v>63900</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>40500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>55900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>65700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -1995,28 +2256,34 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>40600</v>
+        <v>465000</v>
       </c>
       <c r="E58" s="3">
-        <v>53500</v>
+        <v>57700</v>
       </c>
       <c r="F58" s="3">
-        <v>49100</v>
+        <v>41800</v>
       </c>
       <c r="G58" s="3">
-        <v>28800</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>55100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>50500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>29700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2024,28 +2291,34 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>134400</v>
+        <v>350900</v>
       </c>
       <c r="E59" s="3">
-        <v>91100</v>
+        <v>459400</v>
       </c>
       <c r="F59" s="3">
-        <v>25700</v>
+        <v>138400</v>
       </c>
       <c r="G59" s="3">
-        <v>26100</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>93700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>26400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>26900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2053,28 +2326,34 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>228500</v>
+        <v>886200</v>
       </c>
       <c r="E60" s="3">
-        <v>184000</v>
+        <v>674700</v>
       </c>
       <c r="F60" s="3">
-        <v>129000</v>
+        <v>235200</v>
       </c>
       <c r="G60" s="3">
-        <v>118800</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>189300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>132800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>122300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2082,8 +2361,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2091,19 +2376,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>11700</v>
+        <v>48600</v>
       </c>
       <c r="F61" s="3">
-        <v>23200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>34500</v>
+        <v>12100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>23900</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>35500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2111,28 +2396,34 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14100</v>
+        <v>182000</v>
       </c>
       <c r="E62" s="3">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>12000</v>
+        <v>14600</v>
       </c>
       <c r="G62" s="3">
-        <v>19200</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>8200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>12300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>19800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,28 +2536,34 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>242600</v>
+        <v>1068100</v>
       </c>
       <c r="E66" s="3">
-        <v>203700</v>
+        <v>736200</v>
       </c>
       <c r="F66" s="3">
-        <v>164300</v>
+        <v>249700</v>
       </c>
       <c r="G66" s="3">
-        <v>172600</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>209600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>169100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>177600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2339,16 +2674,16 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>659200</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>650800</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>678400</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>669800</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,28 +2726,34 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-846700</v>
+        <v>-1982600</v>
       </c>
       <c r="E72" s="3">
-        <v>-765800</v>
+        <v>-1074500</v>
       </c>
       <c r="F72" s="3">
-        <v>-581000</v>
+        <v>-871400</v>
       </c>
       <c r="G72" s="3">
-        <v>-493900</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-788100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-598000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-508300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2414,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,28 +2866,34 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>978700</v>
+        <v>392300</v>
       </c>
       <c r="E76" s="3">
-        <v>1037800</v>
+        <v>792200</v>
       </c>
       <c r="F76" s="3">
-        <v>-382200</v>
+        <v>1007300</v>
       </c>
       <c r="G76" s="3">
-        <v>-293200</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>1068000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-393300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-301800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2530,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-80900</v>
+        <v>-33100</v>
       </c>
       <c r="E81" s="3">
-        <v>-184700</v>
+        <v>-218200</v>
       </c>
       <c r="F81" s="3">
-        <v>-87100</v>
+        <v>-83300</v>
       </c>
       <c r="G81" s="3">
-        <v>-220000</v>
+        <v>-190100</v>
       </c>
       <c r="H81" s="3">
-        <v>-73800</v>
+        <v>-89700</v>
       </c>
       <c r="I81" s="3">
+        <v>-226400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-171400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-20100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2646,26 +3043,32 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
-        <v>12800</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>13100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-18700</v>
+        <v>20300</v>
       </c>
       <c r="E89" s="3">
-        <v>-57100</v>
+        <v>-163000</v>
       </c>
       <c r="F89" s="3">
-        <v>-95500</v>
+        <v>-19200</v>
       </c>
       <c r="G89" s="3">
-        <v>-41300</v>
+        <v>-58700</v>
       </c>
       <c r="H89" s="3">
-        <v>-109500</v>
+        <v>-98300</v>
       </c>
       <c r="I89" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-112700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-29800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-18800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2862,26 +3303,32 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
-        <v>-30500</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>-31400</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-25500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>103800</v>
+        <v>13500</v>
       </c>
       <c r="E94" s="3">
-        <v>-359800</v>
+        <v>-32900</v>
       </c>
       <c r="F94" s="3">
-        <v>11700</v>
+        <v>106900</v>
       </c>
       <c r="G94" s="3">
-        <v>49700</v>
+        <v>-370300</v>
       </c>
       <c r="H94" s="3">
-        <v>-197300</v>
+        <v>12000</v>
       </c>
       <c r="I94" s="3">
+        <v>51100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-203100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-22100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-25500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-24300</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>846600</v>
+        <v>273800</v>
       </c>
       <c r="F100" s="3">
-        <v>13100</v>
+        <v>-25000</v>
       </c>
       <c r="G100" s="3">
-        <v>217500</v>
+        <v>871300</v>
       </c>
       <c r="H100" s="3">
-        <v>162300</v>
+        <v>13500</v>
       </c>
       <c r="I100" s="3">
+        <v>223800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>167000</v>
+      </c>
+      <c r="K100" s="3">
         <v>199900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>27000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19000</v>
+        <v>-2200</v>
       </c>
       <c r="E101" s="3">
-        <v>700</v>
+        <v>-4700</v>
       </c>
       <c r="F101" s="3">
-        <v>-1100</v>
+        <v>19600</v>
       </c>
       <c r="G101" s="3">
+        <v>800</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>79900</v>
+        <v>31700</v>
       </c>
       <c r="E102" s="3">
-        <v>430500</v>
+        <v>73200</v>
       </c>
       <c r="F102" s="3">
-        <v>-71800</v>
+        <v>82200</v>
       </c>
       <c r="G102" s="3">
-        <v>225600</v>
+        <v>443100</v>
       </c>
       <c r="H102" s="3">
-        <v>-143000</v>
+        <v>-73900</v>
       </c>
       <c r="I102" s="3">
+        <v>232200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-147200</v>
+      </c>
+      <c r="K102" s="3">
         <v>150200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-18000</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>LKNCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>498300</v>
+        <v>370800</v>
       </c>
       <c r="E8" s="3">
-        <v>15000</v>
+        <v>502100</v>
       </c>
       <c r="F8" s="3">
-        <v>241400</v>
+        <v>15100</v>
       </c>
       <c r="G8" s="3">
-        <v>142300</v>
+        <v>243200</v>
       </c>
       <c r="H8" s="3">
-        <v>74900</v>
+        <v>143400</v>
       </c>
       <c r="I8" s="3">
-        <v>72900</v>
+        <v>75500</v>
       </c>
       <c r="J8" s="3">
+        <v>73400</v>
+      </c>
+      <c r="K8" s="3">
         <v>37700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>342500</v>
+        <v>226500</v>
       </c>
       <c r="E9" s="3">
-        <v>98100</v>
+        <v>345100</v>
       </c>
       <c r="F9" s="3">
-        <v>187600</v>
+        <v>98800</v>
       </c>
       <c r="G9" s="3">
-        <v>131100</v>
+        <v>189100</v>
       </c>
       <c r="H9" s="3">
-        <v>87400</v>
+        <v>132100</v>
       </c>
       <c r="I9" s="3">
-        <v>90600</v>
+        <v>88100</v>
       </c>
       <c r="J9" s="3">
+        <v>91300</v>
+      </c>
+      <c r="K9" s="3">
         <v>50800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>155800</v>
+        <v>144300</v>
       </c>
       <c r="E10" s="3">
-        <v>-83100</v>
+        <v>157000</v>
       </c>
       <c r="F10" s="3">
-        <v>53700</v>
+        <v>-83700</v>
       </c>
       <c r="G10" s="3">
-        <v>11200</v>
+        <v>54100</v>
       </c>
       <c r="H10" s="3">
-        <v>-12500</v>
+        <v>11300</v>
       </c>
       <c r="I10" s="3">
-        <v>-17800</v>
+        <v>-12600</v>
       </c>
       <c r="J10" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K10" s="3">
         <v>-13100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-8200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-2500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,19 +927,22 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24200</v>
+        <v>14900</v>
       </c>
       <c r="E14" s="3">
-        <v>32800</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>24400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>33000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -936,8 +956,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -945,43 +965,49 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>35800</v>
+        <v>21500</v>
       </c>
       <c r="E15" s="3">
-        <v>20500</v>
+        <v>36100</v>
       </c>
       <c r="F15" s="3">
-        <v>17000</v>
+        <v>20700</v>
       </c>
       <c r="G15" s="3">
-        <v>13900</v>
+        <v>17100</v>
       </c>
       <c r="H15" s="3">
-        <v>13100</v>
+        <v>14000</v>
       </c>
       <c r="I15" s="3">
-        <v>9200</v>
+        <v>13200</v>
       </c>
       <c r="J15" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K15" s="3">
         <v>4500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>600</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>562700</v>
+        <v>371800</v>
       </c>
       <c r="E17" s="3">
-        <v>234900</v>
+        <v>567000</v>
       </c>
       <c r="F17" s="3">
-        <v>333900</v>
+        <v>236700</v>
       </c>
       <c r="G17" s="3">
-        <v>250300</v>
+        <v>336400</v>
       </c>
       <c r="H17" s="3">
-        <v>157400</v>
+        <v>252200</v>
       </c>
       <c r="I17" s="3">
-        <v>173700</v>
+        <v>158600</v>
       </c>
       <c r="J17" s="3">
+        <v>175000</v>
+      </c>
+      <c r="K17" s="3">
         <v>113700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>70700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-64400</v>
+        <v>-1100</v>
       </c>
       <c r="E18" s="3">
-        <v>-219900</v>
+        <v>-64900</v>
       </c>
       <c r="F18" s="3">
-        <v>-92500</v>
+        <v>-221600</v>
       </c>
       <c r="G18" s="3">
-        <v>-108000</v>
+        <v>-93200</v>
       </c>
       <c r="H18" s="3">
-        <v>-82500</v>
+        <v>-108800</v>
       </c>
       <c r="I18" s="3">
-        <v>-100800</v>
+        <v>-83200</v>
       </c>
       <c r="J18" s="3">
+        <v>-101600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-76000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-52200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,63 +1110,67 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>27800</v>
+        <v>2300</v>
       </c>
       <c r="E20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F20" s="3">
         <v>2800</v>
       </c>
-      <c r="F20" s="3">
-        <v>10400</v>
-      </c>
       <c r="G20" s="3">
+        <v>10500</v>
+      </c>
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
-        <v>-169600</v>
-      </c>
       <c r="F21" s="3">
-        <v>-78900</v>
+        <v>-170900</v>
       </c>
       <c r="G21" s="3">
-        <v>-104600</v>
+        <v>-79500</v>
       </c>
       <c r="H21" s="3">
-        <v>-72000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-105400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-72500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1141,98 +1178,107 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-19500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="3">
-        <v>1200</v>
+        <v>2900</v>
       </c>
       <c r="F22" s="3">
         <v>1200</v>
       </c>
       <c r="G22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H22" s="3">
         <v>1300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1200</v>
       </c>
       <c r="I22" s="3">
         <v>1300</v>
       </c>
       <c r="J22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-39500</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-218300</v>
+        <v>-39800</v>
       </c>
       <c r="F23" s="3">
-        <v>-83300</v>
+        <v>-219900</v>
       </c>
       <c r="G23" s="3">
-        <v>-106700</v>
+        <v>-83900</v>
       </c>
       <c r="H23" s="3">
-        <v>-86400</v>
+        <v>-107500</v>
       </c>
       <c r="I23" s="3">
-        <v>-104700</v>
+        <v>-87000</v>
       </c>
       <c r="J23" s="3">
+        <v>-105500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-75900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-50700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-33100</v>
+        <v>-3700</v>
       </c>
       <c r="E26" s="3">
-        <v>-218500</v>
+        <v>-33400</v>
       </c>
       <c r="F26" s="3">
-        <v>-83300</v>
+        <v>-220200</v>
       </c>
       <c r="G26" s="3">
-        <v>-106700</v>
+        <v>-83900</v>
       </c>
       <c r="H26" s="3">
-        <v>-86400</v>
+        <v>-107500</v>
       </c>
       <c r="I26" s="3">
-        <v>-104700</v>
+        <v>-87000</v>
       </c>
       <c r="J26" s="3">
+        <v>-105500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-75900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-50700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-20100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-33100</v>
+        <v>-3700</v>
       </c>
       <c r="E27" s="3">
-        <v>-218200</v>
+        <v>-33400</v>
       </c>
       <c r="F27" s="3">
-        <v>-83300</v>
+        <v>-219800</v>
       </c>
       <c r="G27" s="3">
-        <v>-190100</v>
+        <v>-83900</v>
       </c>
       <c r="H27" s="3">
-        <v>-89700</v>
+        <v>-191600</v>
       </c>
       <c r="I27" s="3">
-        <v>-226400</v>
+        <v>-90400</v>
       </c>
       <c r="J27" s="3">
+        <v>-228200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-75900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-171400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-20100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-27800</v>
+        <v>-2300</v>
       </c>
       <c r="E32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2800</v>
       </c>
-      <c r="F32" s="3">
-        <v>-10400</v>
-      </c>
       <c r="G32" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33100</v>
+        <v>-3700</v>
       </c>
       <c r="E33" s="3">
-        <v>-218200</v>
+        <v>-33400</v>
       </c>
       <c r="F33" s="3">
-        <v>-83300</v>
+        <v>-219800</v>
       </c>
       <c r="G33" s="3">
-        <v>-190100</v>
+        <v>-83900</v>
       </c>
       <c r="H33" s="3">
-        <v>-89700</v>
+        <v>-191600</v>
       </c>
       <c r="I33" s="3">
-        <v>-226400</v>
+        <v>-90400</v>
       </c>
       <c r="J33" s="3">
+        <v>-228200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-75900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-171400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-20100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33100</v>
+        <v>-3700</v>
       </c>
       <c r="E35" s="3">
-        <v>-218200</v>
+        <v>-33400</v>
       </c>
       <c r="F35" s="3">
-        <v>-83300</v>
+        <v>-219800</v>
       </c>
       <c r="G35" s="3">
-        <v>-190100</v>
+        <v>-83900</v>
       </c>
       <c r="H35" s="3">
-        <v>-89700</v>
+        <v>-191600</v>
       </c>
       <c r="I35" s="3">
-        <v>-226400</v>
+        <v>-90400</v>
       </c>
       <c r="J35" s="3">
+        <v>-228200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-75900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-171400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-20100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,31 +1793,32 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>795800</v>
+        <v>793900</v>
       </c>
       <c r="E41" s="3">
-        <v>761800</v>
+        <v>801900</v>
       </c>
       <c r="F41" s="3">
-        <v>706700</v>
+        <v>767600</v>
       </c>
       <c r="G41" s="3">
-        <v>624500</v>
+        <v>712100</v>
       </c>
       <c r="H41" s="3">
-        <v>181400</v>
+        <v>629300</v>
       </c>
       <c r="I41" s="3">
-        <v>255300</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>182800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>257300</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1742,8 +1829,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1751,22 +1841,22 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>78300</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>161300</v>
+        <v>78900</v>
       </c>
       <c r="G42" s="3">
-        <v>322900</v>
+        <v>162500</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>325400</v>
       </c>
       <c r="I42" s="3">
-        <v>20400</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>20500</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1777,31 +1867,34 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8700</v>
+        <v>11700</v>
       </c>
       <c r="E43" s="3">
-        <v>83900</v>
+        <v>8800</v>
       </c>
       <c r="F43" s="3">
+        <v>84500</v>
+      </c>
+      <c r="G43" s="3">
         <v>3500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1100</v>
       </c>
-      <c r="H43" s="3">
-        <v>38800</v>
-      </c>
       <c r="I43" s="3">
-        <v>53300</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>39100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>53800</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1812,31 +1905,34 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>66300</v>
+        <v>68100</v>
       </c>
       <c r="E44" s="3">
-        <v>60400</v>
+        <v>66800</v>
       </c>
       <c r="F44" s="3">
-        <v>33400</v>
+        <v>60800</v>
       </c>
       <c r="G44" s="3">
-        <v>36300</v>
+        <v>33600</v>
       </c>
       <c r="H44" s="3">
-        <v>29600</v>
+        <v>36500</v>
       </c>
       <c r="I44" s="3">
-        <v>23500</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+        <v>29800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>23700</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1847,31 +1943,34 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>156200</v>
+        <v>185500</v>
       </c>
       <c r="E45" s="3">
-        <v>198100</v>
+        <v>157400</v>
       </c>
       <c r="F45" s="3">
-        <v>90000</v>
+        <v>199600</v>
       </c>
       <c r="G45" s="3">
-        <v>79900</v>
+        <v>90700</v>
       </c>
       <c r="H45" s="3">
-        <v>29200</v>
+        <v>80500</v>
       </c>
       <c r="I45" s="3">
-        <v>27700</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>29400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>27900</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1882,31 +1981,34 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1027000</v>
+        <v>1059100</v>
       </c>
       <c r="E46" s="3">
-        <v>1182400</v>
+        <v>1034900</v>
       </c>
       <c r="F46" s="3">
-        <v>994900</v>
+        <v>1191500</v>
       </c>
       <c r="G46" s="3">
-        <v>1064600</v>
+        <v>1002500</v>
       </c>
       <c r="H46" s="3">
-        <v>279100</v>
+        <v>1072800</v>
       </c>
       <c r="I46" s="3">
-        <v>380200</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>281200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>383100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,31 +2057,34 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>302300</v>
+        <v>286800</v>
       </c>
       <c r="E48" s="3">
-        <v>303500</v>
+        <v>304600</v>
       </c>
       <c r="F48" s="3">
-        <v>193800</v>
+        <v>305800</v>
       </c>
       <c r="G48" s="3">
-        <v>166600</v>
+        <v>195300</v>
       </c>
       <c r="H48" s="3">
-        <v>151200</v>
+        <v>167900</v>
       </c>
       <c r="I48" s="3">
-        <v>141700</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>152400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>142800</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,31 +2209,34 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>131100</v>
+        <v>126100</v>
       </c>
       <c r="E52" s="3">
-        <v>42500</v>
+        <v>132100</v>
       </c>
       <c r="F52" s="3">
-        <v>68300</v>
+        <v>42800</v>
       </c>
       <c r="G52" s="3">
-        <v>46500</v>
+        <v>68800</v>
       </c>
       <c r="H52" s="3">
-        <v>23800</v>
+        <v>46800</v>
       </c>
       <c r="I52" s="3">
-        <v>23700</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>24000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>23900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,31 +2285,34 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1460400</v>
+        <v>1472000</v>
       </c>
       <c r="E54" s="3">
-        <v>1528400</v>
+        <v>1471600</v>
       </c>
       <c r="F54" s="3">
-        <v>1257000</v>
+        <v>1540100</v>
       </c>
       <c r="G54" s="3">
-        <v>1277700</v>
+        <v>1266700</v>
       </c>
       <c r="H54" s="3">
-        <v>454100</v>
+        <v>1287400</v>
       </c>
       <c r="I54" s="3">
-        <v>545600</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>457600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>549800</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,31 +2357,32 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>70300</v>
+        <v>47100</v>
       </c>
       <c r="E57" s="3">
-        <v>157600</v>
+        <v>70800</v>
       </c>
       <c r="F57" s="3">
-        <v>55100</v>
+        <v>158800</v>
       </c>
       <c r="G57" s="3">
-        <v>40500</v>
+        <v>55500</v>
       </c>
       <c r="H57" s="3">
-        <v>55900</v>
+        <v>40800</v>
       </c>
       <c r="I57" s="3">
-        <v>65700</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>56300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>66200</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2262,31 +2393,34 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>465000</v>
+        <v>467600</v>
       </c>
       <c r="E58" s="3">
-        <v>57700</v>
+        <v>468600</v>
       </c>
       <c r="F58" s="3">
-        <v>41800</v>
+        <v>58100</v>
       </c>
       <c r="G58" s="3">
-        <v>55100</v>
+        <v>42100</v>
       </c>
       <c r="H58" s="3">
-        <v>50500</v>
+        <v>55500</v>
       </c>
       <c r="I58" s="3">
-        <v>29700</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>50900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>29900</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2297,31 +2431,34 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>350900</v>
+        <v>369200</v>
       </c>
       <c r="E59" s="3">
-        <v>459400</v>
+        <v>353600</v>
       </c>
       <c r="F59" s="3">
-        <v>138400</v>
+        <v>463000</v>
       </c>
       <c r="G59" s="3">
-        <v>93700</v>
+        <v>139400</v>
       </c>
       <c r="H59" s="3">
-        <v>26400</v>
+        <v>94400</v>
       </c>
       <c r="I59" s="3">
-        <v>26900</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>26600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>27100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2332,31 +2469,34 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>886200</v>
+        <v>883900</v>
       </c>
       <c r="E60" s="3">
-        <v>674700</v>
+        <v>893000</v>
       </c>
       <c r="F60" s="3">
-        <v>235200</v>
+        <v>679800</v>
       </c>
       <c r="G60" s="3">
-        <v>189300</v>
+        <v>237000</v>
       </c>
       <c r="H60" s="3">
-        <v>132800</v>
+        <v>190800</v>
       </c>
       <c r="I60" s="3">
-        <v>122300</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>133800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>123200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2367,8 +2507,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2376,22 +2519,22 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>48600</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>49000</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>12100</v>
       </c>
-      <c r="H61" s="3">
-        <v>23900</v>
-      </c>
       <c r="I61" s="3">
-        <v>35500</v>
+        <v>24100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>35800</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2402,31 +2545,34 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>182000</v>
+        <v>183000</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>183300</v>
       </c>
       <c r="F62" s="3">
-        <v>14600</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>8200</v>
+        <v>14700</v>
       </c>
       <c r="H62" s="3">
-        <v>12300</v>
+        <v>8300</v>
       </c>
       <c r="I62" s="3">
-        <v>19800</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>12400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>20000</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,31 +2697,34 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1068100</v>
+        <v>1066800</v>
       </c>
       <c r="E66" s="3">
-        <v>736200</v>
+        <v>1076300</v>
       </c>
       <c r="F66" s="3">
-        <v>249700</v>
+        <v>741800</v>
       </c>
       <c r="G66" s="3">
-        <v>209600</v>
+        <v>251600</v>
       </c>
       <c r="H66" s="3">
-        <v>169100</v>
+        <v>211200</v>
       </c>
       <c r="I66" s="3">
-        <v>177600</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>170400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>179000</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2680,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>678400</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>669800</v>
+        <v>683600</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>675000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,31 +2903,34 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1982600</v>
+        <v>-2001600</v>
       </c>
       <c r="E72" s="3">
-        <v>-1074500</v>
+        <v>-1997800</v>
       </c>
       <c r="F72" s="3">
-        <v>-871400</v>
+        <v>-1082700</v>
       </c>
       <c r="G72" s="3">
-        <v>-788100</v>
+        <v>-878100</v>
       </c>
       <c r="H72" s="3">
-        <v>-598000</v>
+        <v>-794200</v>
       </c>
       <c r="I72" s="3">
-        <v>-508300</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-602600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-512200</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,31 +3055,34 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>392300</v>
+        <v>405100</v>
       </c>
       <c r="E76" s="3">
-        <v>792200</v>
+        <v>395300</v>
       </c>
       <c r="F76" s="3">
-        <v>1007300</v>
+        <v>798300</v>
       </c>
       <c r="G76" s="3">
-        <v>1068000</v>
+        <v>1015000</v>
       </c>
       <c r="H76" s="3">
-        <v>-393300</v>
+        <v>1076200</v>
       </c>
       <c r="I76" s="3">
-        <v>-301800</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>-396300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-304100</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33100</v>
+        <v>-3700</v>
       </c>
       <c r="E81" s="3">
-        <v>-218200</v>
+        <v>-33400</v>
       </c>
       <c r="F81" s="3">
-        <v>-83300</v>
+        <v>-219800</v>
       </c>
       <c r="G81" s="3">
-        <v>-190100</v>
+        <v>-83900</v>
       </c>
       <c r="H81" s="3">
-        <v>-89700</v>
+        <v>-191600</v>
       </c>
       <c r="I81" s="3">
-        <v>-226400</v>
+        <v>-90400</v>
       </c>
       <c r="J81" s="3">
+        <v>-228200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-75900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-171400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-20100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3049,11 +3248,11 @@
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
-        <v>13100</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
+        <v>13200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3061,14 +3260,17 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20300</v>
+        <v>1300</v>
       </c>
       <c r="E89" s="3">
-        <v>-163000</v>
+        <v>20400</v>
       </c>
       <c r="F89" s="3">
-        <v>-19200</v>
+        <v>-164300</v>
       </c>
       <c r="G89" s="3">
-        <v>-58700</v>
+        <v>-19400</v>
       </c>
       <c r="H89" s="3">
-        <v>-98300</v>
+        <v>-59200</v>
       </c>
       <c r="I89" s="3">
-        <v>-42500</v>
+        <v>-99000</v>
       </c>
       <c r="J89" s="3">
+        <v>-42800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-112700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-29800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-18800</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3309,11 +3530,11 @@
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
-        <v>-31400</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-31600</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3321,14 +3542,17 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>-25500</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>13500</v>
+        <v>-5700</v>
       </c>
       <c r="E94" s="3">
-        <v>-32900</v>
+        <v>13700</v>
       </c>
       <c r="F94" s="3">
-        <v>106900</v>
+        <v>-33200</v>
       </c>
       <c r="G94" s="3">
-        <v>-370300</v>
+        <v>107700</v>
       </c>
       <c r="H94" s="3">
-        <v>12000</v>
+        <v>-373100</v>
       </c>
       <c r="I94" s="3">
-        <v>51100</v>
+        <v>12100</v>
       </c>
       <c r="J94" s="3">
+        <v>51500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-203100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3830,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3596,100 +3842,109 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>273800</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-25000</v>
+        <v>275900</v>
       </c>
       <c r="G100" s="3">
-        <v>871300</v>
+        <v>-25200</v>
       </c>
       <c r="H100" s="3">
-        <v>13500</v>
+        <v>878000</v>
       </c>
       <c r="I100" s="3">
-        <v>223800</v>
+        <v>13600</v>
       </c>
       <c r="J100" s="3">
+        <v>225500</v>
+      </c>
+      <c r="K100" s="3">
         <v>167000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>199900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>27000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4700</v>
       </c>
-      <c r="F101" s="3">
-        <v>19600</v>
-      </c>
       <c r="G101" s="3">
+        <v>19700</v>
+      </c>
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>31700</v>
+        <v>-4700</v>
       </c>
       <c r="E102" s="3">
-        <v>73200</v>
+        <v>31900</v>
       </c>
       <c r="F102" s="3">
-        <v>82200</v>
+        <v>73800</v>
       </c>
       <c r="G102" s="3">
-        <v>443100</v>
+        <v>82800</v>
       </c>
       <c r="H102" s="3">
-        <v>-73900</v>
+        <v>446400</v>
       </c>
       <c r="I102" s="3">
-        <v>232200</v>
+        <v>-74500</v>
       </c>
       <c r="J102" s="3">
+        <v>234000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-147200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>150200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18000</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>LKNCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>370800</v>
+        <v>358500</v>
       </c>
       <c r="E8" s="3">
-        <v>502100</v>
+        <v>346300</v>
       </c>
       <c r="F8" s="3">
-        <v>15100</v>
+        <v>469000</v>
       </c>
       <c r="G8" s="3">
-        <v>243200</v>
+        <v>14100</v>
       </c>
       <c r="H8" s="3">
-        <v>143400</v>
+        <v>227200</v>
       </c>
       <c r="I8" s="3">
-        <v>75500</v>
+        <v>134000</v>
       </c>
       <c r="J8" s="3">
+        <v>70500</v>
+      </c>
+      <c r="K8" s="3">
         <v>73400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>226500</v>
+        <v>237600</v>
       </c>
       <c r="E9" s="3">
-        <v>345100</v>
+        <v>211500</v>
       </c>
       <c r="F9" s="3">
-        <v>98800</v>
+        <v>322400</v>
       </c>
       <c r="G9" s="3">
-        <v>189100</v>
+        <v>92300</v>
       </c>
       <c r="H9" s="3">
-        <v>132100</v>
+        <v>176600</v>
       </c>
       <c r="I9" s="3">
-        <v>88100</v>
+        <v>123400</v>
       </c>
       <c r="J9" s="3">
+        <v>82300</v>
+      </c>
+      <c r="K9" s="3">
         <v>91300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>50800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>26700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4500</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>144300</v>
+        <v>120900</v>
       </c>
       <c r="E10" s="3">
-        <v>157000</v>
+        <v>134800</v>
       </c>
       <c r="F10" s="3">
-        <v>-83700</v>
+        <v>146600</v>
       </c>
       <c r="G10" s="3">
-        <v>54100</v>
+        <v>-78200</v>
       </c>
       <c r="H10" s="3">
-        <v>11300</v>
+        <v>50600</v>
       </c>
       <c r="I10" s="3">
-        <v>-12600</v>
+        <v>10600</v>
       </c>
       <c r="J10" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K10" s="3">
         <v>-17900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-13100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-8200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-2500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,22 +946,25 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>14900</v>
+        <v>16500</v>
       </c>
       <c r="E14" s="3">
-        <v>24400</v>
+        <v>13900</v>
       </c>
       <c r="F14" s="3">
-        <v>33000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>22800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>30800</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -959,8 +978,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -968,46 +987,52 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>21500</v>
+        <v>14800</v>
       </c>
       <c r="E15" s="3">
-        <v>36100</v>
+        <v>20000</v>
       </c>
       <c r="F15" s="3">
-        <v>20700</v>
+        <v>33700</v>
       </c>
       <c r="G15" s="3">
-        <v>17100</v>
+        <v>19300</v>
       </c>
       <c r="H15" s="3">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="I15" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="J15" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K15" s="3">
         <v>9300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>600</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>371800</v>
+        <v>376300</v>
       </c>
       <c r="E17" s="3">
-        <v>567000</v>
+        <v>347300</v>
       </c>
       <c r="F17" s="3">
-        <v>236700</v>
+        <v>529600</v>
       </c>
       <c r="G17" s="3">
-        <v>336400</v>
+        <v>221100</v>
       </c>
       <c r="H17" s="3">
-        <v>252200</v>
+        <v>314200</v>
       </c>
       <c r="I17" s="3">
-        <v>158600</v>
+        <v>235600</v>
       </c>
       <c r="J17" s="3">
+        <v>148200</v>
+      </c>
+      <c r="K17" s="3">
         <v>175000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>113700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>70700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1100</v>
+        <v>-17800</v>
       </c>
       <c r="E18" s="3">
-        <v>-64900</v>
+        <v>-1000</v>
       </c>
       <c r="F18" s="3">
-        <v>-221600</v>
+        <v>-60600</v>
       </c>
       <c r="G18" s="3">
-        <v>-93200</v>
+        <v>-207000</v>
       </c>
       <c r="H18" s="3">
-        <v>-108800</v>
+        <v>-87100</v>
       </c>
       <c r="I18" s="3">
-        <v>-83200</v>
+        <v>-101600</v>
       </c>
       <c r="J18" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-101600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-76000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-52200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,69 +1143,73 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2300</v>
+        <v>148100</v>
       </c>
       <c r="E20" s="3">
-        <v>28000</v>
+        <v>2100</v>
       </c>
       <c r="F20" s="3">
-        <v>2800</v>
+        <v>26200</v>
       </c>
       <c r="G20" s="3">
-        <v>10500</v>
+        <v>2600</v>
       </c>
       <c r="H20" s="3">
-        <v>2700</v>
+        <v>9800</v>
       </c>
       <c r="I20" s="3">
-        <v>-2600</v>
+        <v>2500</v>
       </c>
       <c r="J20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-13400</v>
+        <v>125000</v>
       </c>
       <c r="E21" s="3">
-        <v>-800</v>
+        <v>-12600</v>
       </c>
       <c r="F21" s="3">
-        <v>-170900</v>
+        <v>-700</v>
       </c>
       <c r="G21" s="3">
-        <v>-79500</v>
+        <v>-159600</v>
       </c>
       <c r="H21" s="3">
-        <v>-105400</v>
+        <v>-74300</v>
       </c>
       <c r="I21" s="3">
-        <v>-72500</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-98500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-67800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1181,107 +1217,116 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-19500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="E22" s="3">
-        <v>2900</v>
+        <v>1400</v>
       </c>
       <c r="F22" s="3">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="G22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H22" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="I22" s="3">
         <v>1300</v>
       </c>
       <c r="J22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>129100</v>
       </c>
       <c r="E23" s="3">
-        <v>-39800</v>
+        <v>-200</v>
       </c>
       <c r="F23" s="3">
-        <v>-219900</v>
+        <v>-37200</v>
       </c>
       <c r="G23" s="3">
-        <v>-83900</v>
+        <v>-205400</v>
       </c>
       <c r="H23" s="3">
-        <v>-107500</v>
+        <v>-78400</v>
       </c>
       <c r="I23" s="3">
-        <v>-87000</v>
+        <v>-100400</v>
       </c>
       <c r="J23" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-105500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-75900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-50700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3400</v>
+        <v>-6600</v>
       </c>
       <c r="E24" s="3">
-        <v>-6400</v>
+        <v>3200</v>
       </c>
       <c r="F24" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1301,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3700</v>
+        <v>135800</v>
       </c>
       <c r="E26" s="3">
-        <v>-33400</v>
+        <v>-3500</v>
       </c>
       <c r="F26" s="3">
-        <v>-220200</v>
+        <v>-31200</v>
       </c>
       <c r="G26" s="3">
-        <v>-83900</v>
+        <v>-205700</v>
       </c>
       <c r="H26" s="3">
-        <v>-107500</v>
+        <v>-78400</v>
       </c>
       <c r="I26" s="3">
-        <v>-87000</v>
+        <v>-100400</v>
       </c>
       <c r="J26" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-105500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-75900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-50700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3700</v>
+        <v>135800</v>
       </c>
       <c r="E27" s="3">
-        <v>-33400</v>
+        <v>-3500</v>
       </c>
       <c r="F27" s="3">
-        <v>-219800</v>
+        <v>-31200</v>
       </c>
       <c r="G27" s="3">
-        <v>-83900</v>
+        <v>-205300</v>
       </c>
       <c r="H27" s="3">
-        <v>-191600</v>
+        <v>-78400</v>
       </c>
       <c r="I27" s="3">
-        <v>-90400</v>
+        <v>-179000</v>
       </c>
       <c r="J27" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-228200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-75900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-171400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2300</v>
+        <v>-148100</v>
       </c>
       <c r="E32" s="3">
-        <v>-28000</v>
+        <v>-2100</v>
       </c>
       <c r="F32" s="3">
-        <v>-2800</v>
+        <v>-26200</v>
       </c>
       <c r="G32" s="3">
-        <v>-10500</v>
+        <v>-2600</v>
       </c>
       <c r="H32" s="3">
-        <v>-2700</v>
+        <v>-9800</v>
       </c>
       <c r="I32" s="3">
-        <v>2600</v>
+        <v>-2500</v>
       </c>
       <c r="J32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K32" s="3">
         <v>2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3700</v>
+        <v>135800</v>
       </c>
       <c r="E33" s="3">
-        <v>-33400</v>
+        <v>-3500</v>
       </c>
       <c r="F33" s="3">
-        <v>-219800</v>
+        <v>-31200</v>
       </c>
       <c r="G33" s="3">
-        <v>-83900</v>
+        <v>-205300</v>
       </c>
       <c r="H33" s="3">
-        <v>-191600</v>
+        <v>-78400</v>
       </c>
       <c r="I33" s="3">
-        <v>-90400</v>
+        <v>-179000</v>
       </c>
       <c r="J33" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-228200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-75900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-171400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3700</v>
+        <v>135800</v>
       </c>
       <c r="E35" s="3">
-        <v>-33400</v>
+        <v>-3500</v>
       </c>
       <c r="F35" s="3">
-        <v>-219800</v>
+        <v>-31200</v>
       </c>
       <c r="G35" s="3">
-        <v>-83900</v>
+        <v>-205300</v>
       </c>
       <c r="H35" s="3">
-        <v>-191600</v>
+        <v>-78400</v>
       </c>
       <c r="I35" s="3">
-        <v>-90400</v>
+        <v>-179000</v>
       </c>
       <c r="J35" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-228200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-75900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-171400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,35 +1879,36 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>793900</v>
+        <v>954500</v>
       </c>
       <c r="E41" s="3">
-        <v>801900</v>
+        <v>741500</v>
       </c>
       <c r="F41" s="3">
-        <v>767600</v>
+        <v>749000</v>
       </c>
       <c r="G41" s="3">
-        <v>712100</v>
+        <v>717000</v>
       </c>
       <c r="H41" s="3">
-        <v>629300</v>
+        <v>665200</v>
       </c>
       <c r="I41" s="3">
-        <v>182800</v>
+        <v>587800</v>
       </c>
       <c r="J41" s="3">
+        <v>170800</v>
+      </c>
+      <c r="K41" s="3">
         <v>257300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1832,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1844,23 +1933,23 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>78900</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>162500</v>
+        <v>73700</v>
       </c>
       <c r="H42" s="3">
-        <v>325400</v>
+        <v>151800</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>303900</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>20500</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,35 +1959,38 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11700</v>
+        <v>125500</v>
       </c>
       <c r="E43" s="3">
-        <v>8800</v>
+        <v>10900</v>
       </c>
       <c r="F43" s="3">
-        <v>84500</v>
+        <v>8200</v>
       </c>
       <c r="G43" s="3">
-        <v>3500</v>
+        <v>79000</v>
       </c>
       <c r="H43" s="3">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="I43" s="3">
-        <v>39100</v>
+        <v>1000</v>
       </c>
       <c r="J43" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K43" s="3">
         <v>53800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,35 +2000,38 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>68100</v>
+        <v>87400</v>
       </c>
       <c r="E44" s="3">
-        <v>66800</v>
+        <v>63600</v>
       </c>
       <c r="F44" s="3">
-        <v>60800</v>
+        <v>62400</v>
       </c>
       <c r="G44" s="3">
-        <v>33600</v>
+        <v>56800</v>
       </c>
       <c r="H44" s="3">
-        <v>36500</v>
+        <v>31400</v>
       </c>
       <c r="I44" s="3">
-        <v>29800</v>
+        <v>34100</v>
       </c>
       <c r="J44" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K44" s="3">
         <v>23700</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1946,35 +2041,38 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>185500</v>
+        <v>67900</v>
       </c>
       <c r="E45" s="3">
-        <v>157400</v>
+        <v>173300</v>
       </c>
       <c r="F45" s="3">
-        <v>199600</v>
+        <v>147000</v>
       </c>
       <c r="G45" s="3">
-        <v>90700</v>
+        <v>186400</v>
       </c>
       <c r="H45" s="3">
-        <v>80500</v>
+        <v>84700</v>
       </c>
       <c r="I45" s="3">
-        <v>29400</v>
+        <v>75200</v>
       </c>
       <c r="J45" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K45" s="3">
         <v>27900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,35 +2082,38 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1059100</v>
+        <v>1235400</v>
       </c>
       <c r="E46" s="3">
-        <v>1034900</v>
+        <v>989300</v>
       </c>
       <c r="F46" s="3">
-        <v>1191500</v>
+        <v>966700</v>
       </c>
       <c r="G46" s="3">
-        <v>1002500</v>
+        <v>1112900</v>
       </c>
       <c r="H46" s="3">
-        <v>1072800</v>
+        <v>936400</v>
       </c>
       <c r="I46" s="3">
-        <v>281200</v>
+        <v>1002100</v>
       </c>
       <c r="J46" s="3">
+        <v>262700</v>
+      </c>
+      <c r="K46" s="3">
         <v>383100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,35 +2164,38 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>286800</v>
+        <v>448400</v>
       </c>
       <c r="E48" s="3">
-        <v>304600</v>
+        <v>267900</v>
       </c>
       <c r="F48" s="3">
-        <v>305800</v>
+        <v>284500</v>
       </c>
       <c r="G48" s="3">
-        <v>195300</v>
+        <v>285600</v>
       </c>
       <c r="H48" s="3">
-        <v>167900</v>
+        <v>182500</v>
       </c>
       <c r="I48" s="3">
-        <v>152400</v>
+        <v>156800</v>
       </c>
       <c r="J48" s="3">
+        <v>142400</v>
+      </c>
+      <c r="K48" s="3">
         <v>142800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,35 +2328,38 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>126100</v>
+        <v>130600</v>
       </c>
       <c r="E52" s="3">
-        <v>132100</v>
+        <v>117800</v>
       </c>
       <c r="F52" s="3">
-        <v>42800</v>
+        <v>123400</v>
       </c>
       <c r="G52" s="3">
-        <v>68800</v>
+        <v>40000</v>
       </c>
       <c r="H52" s="3">
-        <v>46800</v>
+        <v>64300</v>
       </c>
       <c r="I52" s="3">
-        <v>24000</v>
+        <v>43700</v>
       </c>
       <c r="J52" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K52" s="3">
         <v>23900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,35 +2410,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1472000</v>
+        <v>1814400</v>
       </c>
       <c r="E54" s="3">
-        <v>1471600</v>
+        <v>1374900</v>
       </c>
       <c r="F54" s="3">
-        <v>1540100</v>
+        <v>1374600</v>
       </c>
       <c r="G54" s="3">
-        <v>1266700</v>
+        <v>1438600</v>
       </c>
       <c r="H54" s="3">
-        <v>1287400</v>
+        <v>1183200</v>
       </c>
       <c r="I54" s="3">
-        <v>457600</v>
+        <v>1202600</v>
       </c>
       <c r="J54" s="3">
+        <v>427400</v>
+      </c>
+      <c r="K54" s="3">
         <v>549800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,35 +2487,36 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>47100</v>
+        <v>43300</v>
       </c>
       <c r="E57" s="3">
-        <v>70800</v>
+        <v>44000</v>
       </c>
       <c r="F57" s="3">
-        <v>158800</v>
+        <v>66100</v>
       </c>
       <c r="G57" s="3">
-        <v>55500</v>
+        <v>148300</v>
       </c>
       <c r="H57" s="3">
-        <v>40800</v>
+        <v>51800</v>
       </c>
       <c r="I57" s="3">
-        <v>56300</v>
+        <v>38200</v>
       </c>
       <c r="J57" s="3">
+        <v>52600</v>
+      </c>
+      <c r="K57" s="3">
         <v>66200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2396,35 +2526,38 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>467600</v>
+        <v>432000</v>
       </c>
       <c r="E58" s="3">
-        <v>468600</v>
+        <v>436800</v>
       </c>
       <c r="F58" s="3">
-        <v>58100</v>
+        <v>437700</v>
       </c>
       <c r="G58" s="3">
-        <v>42100</v>
+        <v>54300</v>
       </c>
       <c r="H58" s="3">
-        <v>55500</v>
+        <v>39300</v>
       </c>
       <c r="I58" s="3">
-        <v>50900</v>
+        <v>51800</v>
       </c>
       <c r="J58" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K58" s="3">
         <v>29900</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,35 +2567,38 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>369200</v>
+        <v>496100</v>
       </c>
       <c r="E59" s="3">
-        <v>353600</v>
+        <v>344900</v>
       </c>
       <c r="F59" s="3">
-        <v>463000</v>
+        <v>330300</v>
       </c>
       <c r="G59" s="3">
-        <v>139400</v>
+        <v>432400</v>
       </c>
       <c r="H59" s="3">
-        <v>94400</v>
+        <v>130200</v>
       </c>
       <c r="I59" s="3">
-        <v>26600</v>
+        <v>88200</v>
       </c>
       <c r="J59" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K59" s="3">
         <v>27100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,35 +2608,38 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>883900</v>
+        <v>971300</v>
       </c>
       <c r="E60" s="3">
-        <v>893000</v>
+        <v>825600</v>
       </c>
       <c r="F60" s="3">
-        <v>679800</v>
+        <v>834100</v>
       </c>
       <c r="G60" s="3">
-        <v>237000</v>
+        <v>635000</v>
       </c>
       <c r="H60" s="3">
-        <v>190800</v>
+        <v>221300</v>
       </c>
       <c r="I60" s="3">
-        <v>133800</v>
+        <v>178200</v>
       </c>
       <c r="J60" s="3">
+        <v>125000</v>
+      </c>
+      <c r="K60" s="3">
         <v>123200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2510,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2522,23 +2664,23 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>45700</v>
       </c>
       <c r="H61" s="3">
-        <v>12100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>24100</v>
+        <v>11300</v>
       </c>
       <c r="J61" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K61" s="3">
         <v>35800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2548,35 +2690,38 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>183000</v>
+        <v>84700</v>
       </c>
       <c r="E62" s="3">
-        <v>183300</v>
+        <v>170900</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>171300</v>
       </c>
       <c r="G62" s="3">
-        <v>14700</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>8300</v>
+        <v>13700</v>
       </c>
       <c r="I62" s="3">
-        <v>12400</v>
+        <v>7700</v>
       </c>
       <c r="J62" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K62" s="3">
         <v>20000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,35 +2854,38 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1066800</v>
+        <v>1056100</v>
       </c>
       <c r="E66" s="3">
-        <v>1076300</v>
+        <v>996500</v>
       </c>
       <c r="F66" s="3">
-        <v>741800</v>
+        <v>1005400</v>
       </c>
       <c r="G66" s="3">
-        <v>251600</v>
+        <v>692900</v>
       </c>
       <c r="H66" s="3">
-        <v>211200</v>
+        <v>235100</v>
       </c>
       <c r="I66" s="3">
-        <v>170400</v>
+        <v>197300</v>
       </c>
       <c r="J66" s="3">
+        <v>159100</v>
+      </c>
+      <c r="K66" s="3">
         <v>179000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,13 +2994,16 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>223200</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2851,14 +3018,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>683600</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>638500</v>
+      </c>
+      <c r="K70" s="3">
         <v>675000</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,35 +3076,38 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2001600</v>
+        <v>-1733800</v>
       </c>
       <c r="E72" s="3">
-        <v>-1997800</v>
+        <v>-1869600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1082700</v>
+        <v>-1866100</v>
       </c>
       <c r="G72" s="3">
-        <v>-878100</v>
+        <v>-1011400</v>
       </c>
       <c r="H72" s="3">
-        <v>-794200</v>
+        <v>-820200</v>
       </c>
       <c r="I72" s="3">
-        <v>-602600</v>
+        <v>-741800</v>
       </c>
       <c r="J72" s="3">
+        <v>-562800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-512200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,35 +3240,38 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>405100</v>
+        <v>535100</v>
       </c>
       <c r="E76" s="3">
-        <v>395300</v>
+        <v>378400</v>
       </c>
       <c r="F76" s="3">
-        <v>798300</v>
+        <v>369200</v>
       </c>
       <c r="G76" s="3">
-        <v>1015000</v>
+        <v>745700</v>
       </c>
       <c r="H76" s="3">
-        <v>1076200</v>
+        <v>948100</v>
       </c>
       <c r="I76" s="3">
-        <v>-396300</v>
+        <v>1005300</v>
       </c>
       <c r="J76" s="3">
+        <v>-370200</v>
+      </c>
+      <c r="K76" s="3">
         <v>-304100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3700</v>
+        <v>135800</v>
       </c>
       <c r="E81" s="3">
-        <v>-33400</v>
+        <v>-3500</v>
       </c>
       <c r="F81" s="3">
-        <v>-219800</v>
+        <v>-31200</v>
       </c>
       <c r="G81" s="3">
-        <v>-83900</v>
+        <v>-205300</v>
       </c>
       <c r="H81" s="3">
-        <v>-191600</v>
+        <v>-78400</v>
       </c>
       <c r="I81" s="3">
-        <v>-90400</v>
+        <v>-179000</v>
       </c>
       <c r="J81" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-228200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-75900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-171400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3251,11 +3449,11 @@
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
-        <v>13200</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
+        <v>12400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3263,14 +3461,17 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>600</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1300</v>
+        <v>-2100</v>
       </c>
       <c r="E89" s="3">
-        <v>20400</v>
+        <v>1200</v>
       </c>
       <c r="F89" s="3">
-        <v>-164300</v>
+        <v>19100</v>
       </c>
       <c r="G89" s="3">
-        <v>-19400</v>
+        <v>-153400</v>
       </c>
       <c r="H89" s="3">
-        <v>-59200</v>
+        <v>-18100</v>
       </c>
       <c r="I89" s="3">
-        <v>-99000</v>
+        <v>-55300</v>
       </c>
       <c r="J89" s="3">
+        <v>-92500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-42800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-112700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-29800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-18800</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3533,11 +3753,11 @@
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
-        <v>-31600</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-29500</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3545,14 +3765,17 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-25500</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5700</v>
+        <v>-7400</v>
       </c>
       <c r="E94" s="3">
-        <v>13700</v>
+        <v>-5300</v>
       </c>
       <c r="F94" s="3">
-        <v>-33200</v>
+        <v>12800</v>
       </c>
       <c r="G94" s="3">
-        <v>107700</v>
+        <v>-31000</v>
       </c>
       <c r="H94" s="3">
-        <v>-373100</v>
+        <v>100600</v>
       </c>
       <c r="I94" s="3">
-        <v>12100</v>
+        <v>-348500</v>
       </c>
       <c r="J94" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K94" s="3">
         <v>51500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-203100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>223200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>275900</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-25200</v>
+        <v>257700</v>
       </c>
       <c r="H100" s="3">
-        <v>878000</v>
+        <v>-23500</v>
       </c>
       <c r="I100" s="3">
-        <v>13600</v>
+        <v>820100</v>
       </c>
       <c r="J100" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K100" s="3">
         <v>225500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>167000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>199900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>27000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-300</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
-        <v>-2200</v>
+        <v>-200</v>
       </c>
       <c r="F101" s="3">
-        <v>-4700</v>
+        <v>-2000</v>
       </c>
       <c r="G101" s="3">
-        <v>19700</v>
+        <v>-4400</v>
       </c>
       <c r="H101" s="3">
-        <v>800</v>
+        <v>18400</v>
       </c>
       <c r="I101" s="3">
-        <v>-1200</v>
+        <v>700</v>
       </c>
       <c r="J101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4700</v>
+        <v>212700</v>
       </c>
       <c r="E102" s="3">
-        <v>31900</v>
+        <v>-4400</v>
       </c>
       <c r="F102" s="3">
-        <v>73800</v>
+        <v>29800</v>
       </c>
       <c r="G102" s="3">
-        <v>82800</v>
+        <v>68900</v>
       </c>
       <c r="H102" s="3">
-        <v>446400</v>
+        <v>77400</v>
       </c>
       <c r="I102" s="3">
-        <v>-74500</v>
+        <v>417000</v>
       </c>
       <c r="J102" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="K102" s="3">
         <v>234000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-147200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>150200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18000</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>LKNCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,219 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>358500</v>
+        <v>481700</v>
       </c>
       <c r="E8" s="3">
-        <v>346300</v>
+        <v>351100</v>
       </c>
       <c r="F8" s="3">
-        <v>469000</v>
+        <v>355200</v>
       </c>
       <c r="G8" s="3">
-        <v>14100</v>
+        <v>343200</v>
       </c>
       <c r="H8" s="3">
-        <v>227200</v>
+        <v>464700</v>
       </c>
       <c r="I8" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>225100</v>
+      </c>
+      <c r="K8" s="3">
         <v>134000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>70500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>73400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>37700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>18500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>237600</v>
+        <v>281000</v>
       </c>
       <c r="E9" s="3">
-        <v>211500</v>
+        <v>229100</v>
       </c>
       <c r="F9" s="3">
-        <v>322400</v>
+        <v>235500</v>
       </c>
       <c r="G9" s="3">
-        <v>92300</v>
+        <v>209600</v>
       </c>
       <c r="H9" s="3">
-        <v>176600</v>
+        <v>319400</v>
       </c>
       <c r="I9" s="3">
+        <v>91500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>175000</v>
+      </c>
+      <c r="K9" s="3">
         <v>123400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>82300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>91300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>50800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>26700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4500</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>120900</v>
+        <v>200700</v>
       </c>
       <c r="E10" s="3">
-        <v>134800</v>
+        <v>122000</v>
       </c>
       <c r="F10" s="3">
-        <v>146600</v>
+        <v>119800</v>
       </c>
       <c r="G10" s="3">
-        <v>-78200</v>
+        <v>133600</v>
       </c>
       <c r="H10" s="3">
-        <v>50600</v>
+        <v>145300</v>
       </c>
       <c r="I10" s="3">
+        <v>-77500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K10" s="3">
         <v>10600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-11700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-17900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-13100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-8200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-2500</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,28 +983,34 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>16500</v>
+        <v>35400</v>
       </c>
       <c r="E14" s="3">
-        <v>13900</v>
+        <v>5500</v>
       </c>
       <c r="F14" s="3">
-        <v>22800</v>
+        <v>16300</v>
       </c>
       <c r="G14" s="3">
-        <v>30800</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>13800</v>
+      </c>
+      <c r="H14" s="3">
+        <v>22600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>30600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -981,58 +1021,70 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14800</v>
+        <v>14200</v>
       </c>
       <c r="E15" s="3">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="F15" s="3">
-        <v>33700</v>
+        <v>14700</v>
       </c>
       <c r="G15" s="3">
-        <v>19300</v>
+        <v>19900</v>
       </c>
       <c r="H15" s="3">
-        <v>16000</v>
+        <v>33400</v>
       </c>
       <c r="I15" s="3">
+        <v>19100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K15" s="3">
         <v>13000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>12400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>9300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>4500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>2300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>600</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>376300</v>
+        <v>446400</v>
       </c>
       <c r="E17" s="3">
-        <v>347300</v>
+        <v>348800</v>
       </c>
       <c r="F17" s="3">
-        <v>529600</v>
+        <v>372900</v>
       </c>
       <c r="G17" s="3">
-        <v>221100</v>
+        <v>344200</v>
       </c>
       <c r="H17" s="3">
-        <v>314200</v>
+        <v>524800</v>
       </c>
       <c r="I17" s="3">
+        <v>219100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>311400</v>
+      </c>
+      <c r="K17" s="3">
         <v>235600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>148200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>175000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>113700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>70700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>21000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-17800</v>
+        <v>35300</v>
       </c>
       <c r="E18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
-        <v>-60600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-207000</v>
-      </c>
       <c r="H18" s="3">
-        <v>-87100</v>
+        <v>-60100</v>
       </c>
       <c r="I18" s="3">
-        <v>-101600</v>
+        <v>-205100</v>
       </c>
       <c r="J18" s="3">
-        <v>-77700</v>
+        <v>-86300</v>
       </c>
       <c r="K18" s="3">
         <v>-101600</v>
       </c>
       <c r="L18" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-101600</v>
+      </c>
+      <c r="N18" s="3">
         <v>-76000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-52200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-19000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,90 +1210,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>148100</v>
+        <v>-36000</v>
       </c>
       <c r="E20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>146800</v>
+      </c>
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
-        <v>26200</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>25900</v>
+      </c>
+      <c r="I20" s="3">
         <v>2600</v>
       </c>
-      <c r="H20" s="3">
-        <v>9800</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>125000</v>
+        <v>-500</v>
       </c>
       <c r="E21" s="3">
-        <v>-12600</v>
+        <v>23400</v>
       </c>
       <c r="F21" s="3">
+        <v>123900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-159600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-74300</v>
-      </c>
       <c r="I21" s="3">
+        <v>-158200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-73600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-98500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-67800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-19500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1235,22 +1315,22 @@
         <v>1200</v>
       </c>
       <c r="E22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1200</v>
       </c>
       <c r="K22" s="3">
         <v>1300</v>
@@ -1259,80 +1339,92 @@
         <v>1200</v>
       </c>
       <c r="M22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>129100</v>
+        <v>-1900</v>
       </c>
       <c r="E23" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>128000</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-37200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-205400</v>
-      </c>
       <c r="H23" s="3">
-        <v>-78400</v>
+        <v>-36800</v>
       </c>
       <c r="I23" s="3">
+        <v>-203600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-81300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-105500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-75900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-50700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-20100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F24" s="3">
         <v>-6600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3200</v>
       </c>
-      <c r="F24" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1349,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>135800</v>
+        <v>-16800</v>
       </c>
       <c r="E26" s="3">
-        <v>-3500</v>
+        <v>2900</v>
       </c>
       <c r="F26" s="3">
-        <v>-31200</v>
+        <v>134500</v>
       </c>
       <c r="G26" s="3">
-        <v>-205700</v>
+        <v>-3400</v>
       </c>
       <c r="H26" s="3">
-        <v>-78400</v>
+        <v>-30900</v>
       </c>
       <c r="I26" s="3">
+        <v>-203800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-81300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-105500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-75900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-50700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-20100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>135800</v>
+        <v>-16800</v>
       </c>
       <c r="E27" s="3">
-        <v>-3500</v>
+        <v>2900</v>
       </c>
       <c r="F27" s="3">
-        <v>-31200</v>
+        <v>134500</v>
       </c>
       <c r="G27" s="3">
-        <v>-205300</v>
+        <v>-3400</v>
       </c>
       <c r="H27" s="3">
-        <v>-78400</v>
+        <v>-30900</v>
       </c>
       <c r="I27" s="3">
+        <v>-203500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-179000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-84400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-228200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-75900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-171400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-20100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-148100</v>
+        <v>36000</v>
       </c>
       <c r="E32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-146800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-26200</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>135800</v>
+        <v>-16800</v>
       </c>
       <c r="E33" s="3">
-        <v>-3500</v>
+        <v>2900</v>
       </c>
       <c r="F33" s="3">
-        <v>-31200</v>
+        <v>134500</v>
       </c>
       <c r="G33" s="3">
-        <v>-205300</v>
+        <v>-3400</v>
       </c>
       <c r="H33" s="3">
-        <v>-78400</v>
+        <v>-30900</v>
       </c>
       <c r="I33" s="3">
+        <v>-203500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-179000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-84400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-228200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-75900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-171400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-20100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>135800</v>
+        <v>-16800</v>
       </c>
       <c r="E35" s="3">
-        <v>-3500</v>
+        <v>2900</v>
       </c>
       <c r="F35" s="3">
-        <v>-31200</v>
+        <v>134500</v>
       </c>
       <c r="G35" s="3">
-        <v>-205300</v>
+        <v>-3400</v>
       </c>
       <c r="H35" s="3">
-        <v>-78400</v>
+        <v>-30900</v>
       </c>
       <c r="I35" s="3">
+        <v>-203500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-179000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-84400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-228200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-75900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-171400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-20100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,254 +2052,292 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>954500</v>
+        <v>642100</v>
       </c>
       <c r="E41" s="3">
-        <v>741500</v>
+        <v>721600</v>
       </c>
       <c r="F41" s="3">
-        <v>749000</v>
+        <v>945900</v>
       </c>
       <c r="G41" s="3">
-        <v>717000</v>
+        <v>734800</v>
       </c>
       <c r="H41" s="3">
-        <v>665200</v>
+        <v>742300</v>
       </c>
       <c r="I41" s="3">
+        <v>710600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>659200</v>
+      </c>
+      <c r="K41" s="3">
         <v>587800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>170800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>257300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>73700</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>151800</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>73000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K42" s="3">
         <v>303900</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>20500</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>125500</v>
+        <v>32300</v>
       </c>
       <c r="E43" s="3">
-        <v>10900</v>
+        <v>26700</v>
       </c>
       <c r="F43" s="3">
-        <v>8200</v>
+        <v>124300</v>
       </c>
       <c r="G43" s="3">
-        <v>79000</v>
+        <v>10800</v>
       </c>
       <c r="H43" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>78300</v>
+      </c>
+      <c r="J43" s="3">
         <v>3300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>36600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>53800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>87400</v>
+        <v>114100</v>
       </c>
       <c r="E44" s="3">
-        <v>63600</v>
+        <v>95900</v>
       </c>
       <c r="F44" s="3">
-        <v>62400</v>
+        <v>86600</v>
       </c>
       <c r="G44" s="3">
-        <v>56800</v>
+        <v>63000</v>
       </c>
       <c r="H44" s="3">
-        <v>31400</v>
+        <v>61900</v>
       </c>
       <c r="I44" s="3">
+        <v>56300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K44" s="3">
         <v>34100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>27800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>23700</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>67900</v>
+        <v>176100</v>
       </c>
       <c r="E45" s="3">
-        <v>173300</v>
+        <v>168100</v>
       </c>
       <c r="F45" s="3">
-        <v>147000</v>
+        <v>67300</v>
       </c>
       <c r="G45" s="3">
-        <v>186400</v>
+        <v>171700</v>
       </c>
       <c r="H45" s="3">
-        <v>84700</v>
+        <v>145700</v>
       </c>
       <c r="I45" s="3">
+        <v>184700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>83900</v>
+      </c>
+      <c r="K45" s="3">
         <v>75200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>27500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>27900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1235400</v>
+        <v>964600</v>
       </c>
       <c r="E46" s="3">
-        <v>989300</v>
+        <v>1012400</v>
       </c>
       <c r="F46" s="3">
-        <v>966700</v>
+        <v>1224200</v>
       </c>
       <c r="G46" s="3">
-        <v>1112900</v>
+        <v>980300</v>
       </c>
       <c r="H46" s="3">
-        <v>936400</v>
+        <v>958000</v>
       </c>
       <c r="I46" s="3">
+        <v>1102900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>927900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1002100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>262700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>383100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,49 +2377,61 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>448400</v>
+        <v>447700</v>
       </c>
       <c r="E48" s="3">
-        <v>267900</v>
+        <v>452200</v>
       </c>
       <c r="F48" s="3">
-        <v>284500</v>
+        <v>444300</v>
       </c>
       <c r="G48" s="3">
-        <v>285600</v>
+        <v>265500</v>
       </c>
       <c r="H48" s="3">
-        <v>182500</v>
+        <v>282000</v>
       </c>
       <c r="I48" s="3">
+        <v>283100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>180800</v>
+      </c>
+      <c r="K48" s="3">
         <v>156800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>142400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>142800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2565,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>130600</v>
+        <v>120900</v>
       </c>
       <c r="E52" s="3">
-        <v>117800</v>
+        <v>130100</v>
       </c>
       <c r="F52" s="3">
-        <v>123400</v>
+        <v>129400</v>
       </c>
       <c r="G52" s="3">
-        <v>40000</v>
+        <v>116700</v>
       </c>
       <c r="H52" s="3">
-        <v>64300</v>
+        <v>122200</v>
       </c>
       <c r="I52" s="3">
+        <v>39600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>63700</v>
+      </c>
+      <c r="K52" s="3">
         <v>43700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>22400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>23900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1814400</v>
+        <v>1533200</v>
       </c>
       <c r="E54" s="3">
-        <v>1374900</v>
+        <v>1594700</v>
       </c>
       <c r="F54" s="3">
-        <v>1374600</v>
+        <v>1798000</v>
       </c>
       <c r="G54" s="3">
-        <v>1438600</v>
+        <v>1362500</v>
       </c>
       <c r="H54" s="3">
-        <v>1183200</v>
+        <v>1362200</v>
       </c>
       <c r="I54" s="3">
+        <v>1425600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1172500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1202600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>427400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>549800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,254 +2748,292 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>43300</v>
+        <v>76600</v>
       </c>
       <c r="E57" s="3">
-        <v>44000</v>
+        <v>68500</v>
       </c>
       <c r="F57" s="3">
-        <v>66100</v>
+        <v>42900</v>
       </c>
       <c r="G57" s="3">
-        <v>148300</v>
+        <v>43600</v>
       </c>
       <c r="H57" s="3">
-        <v>51800</v>
+        <v>65500</v>
       </c>
       <c r="I57" s="3">
+        <v>147000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>51300</v>
+      </c>
+      <c r="K57" s="3">
         <v>38200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>52600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>66200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>432000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>436800</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>437700</v>
+        <v>428100</v>
       </c>
       <c r="G58" s="3">
-        <v>54300</v>
+        <v>432800</v>
       </c>
       <c r="H58" s="3">
-        <v>39300</v>
+        <v>433700</v>
       </c>
       <c r="I58" s="3">
+        <v>53800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>39000</v>
+      </c>
+      <c r="K58" s="3">
         <v>51800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>47500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>29900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>496100</v>
+        <v>378900</v>
       </c>
       <c r="E59" s="3">
-        <v>344900</v>
+        <v>460400</v>
       </c>
       <c r="F59" s="3">
-        <v>330300</v>
+        <v>491600</v>
       </c>
       <c r="G59" s="3">
-        <v>432400</v>
+        <v>341800</v>
       </c>
       <c r="H59" s="3">
-        <v>130200</v>
+        <v>327300</v>
       </c>
       <c r="I59" s="3">
+        <v>428500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>129000</v>
+      </c>
+      <c r="K59" s="3">
         <v>88200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>24900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>27100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>971300</v>
+        <v>455500</v>
       </c>
       <c r="E60" s="3">
-        <v>825600</v>
+        <v>528900</v>
       </c>
       <c r="F60" s="3">
-        <v>834100</v>
+        <v>962600</v>
       </c>
       <c r="G60" s="3">
-        <v>635000</v>
+        <v>818100</v>
       </c>
       <c r="H60" s="3">
-        <v>221300</v>
+        <v>826600</v>
       </c>
       <c r="I60" s="3">
+        <v>629300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>219300</v>
+      </c>
+      <c r="K60" s="3">
         <v>178200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>125000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>123200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>124700</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>117100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>45700</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>45300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>11300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>22500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>35800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>84700</v>
+        <v>100200</v>
       </c>
       <c r="E62" s="3">
-        <v>170900</v>
+        <v>86600</v>
       </c>
       <c r="F62" s="3">
-        <v>171300</v>
+        <v>84000</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>169400</v>
       </c>
       <c r="H62" s="3">
-        <v>13700</v>
+        <v>169700</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K62" s="3">
         <v>7700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>11600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>20000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1056100</v>
+        <v>680400</v>
       </c>
       <c r="E66" s="3">
-        <v>996500</v>
+        <v>732700</v>
       </c>
       <c r="F66" s="3">
-        <v>1005400</v>
+        <v>1046600</v>
       </c>
       <c r="G66" s="3">
-        <v>692900</v>
+        <v>987500</v>
       </c>
       <c r="H66" s="3">
-        <v>235100</v>
+        <v>996300</v>
       </c>
       <c r="I66" s="3">
+        <v>686700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>232900</v>
+      </c>
+      <c r="K66" s="3">
         <v>197300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>159100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>179000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,19 +3327,25 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>230400</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>221200</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3021,25 +3357,31 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>638500</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>675000</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1733800</v>
+        <v>-1732000</v>
       </c>
       <c r="E72" s="3">
-        <v>-1869600</v>
+        <v>-1715300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1866100</v>
+        <v>-1718200</v>
       </c>
       <c r="G72" s="3">
-        <v>-1011400</v>
+        <v>-1852700</v>
       </c>
       <c r="H72" s="3">
-        <v>-820200</v>
+        <v>-1849300</v>
       </c>
       <c r="I72" s="3">
+        <v>-1002200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-812800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-741800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-562800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-512200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>535100</v>
+        <v>622300</v>
       </c>
       <c r="E76" s="3">
-        <v>378400</v>
+        <v>631500</v>
       </c>
       <c r="F76" s="3">
-        <v>369200</v>
+        <v>530300</v>
       </c>
       <c r="G76" s="3">
-        <v>745700</v>
+        <v>375000</v>
       </c>
       <c r="H76" s="3">
-        <v>948100</v>
+        <v>365900</v>
       </c>
       <c r="I76" s="3">
+        <v>738900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>939600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1005300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-370200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-304100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>135800</v>
+        <v>-16800</v>
       </c>
       <c r="E81" s="3">
-        <v>-3500</v>
+        <v>2900</v>
       </c>
       <c r="F81" s="3">
-        <v>-31200</v>
+        <v>134500</v>
       </c>
       <c r="G81" s="3">
-        <v>-205300</v>
+        <v>-3400</v>
       </c>
       <c r="H81" s="3">
-        <v>-78400</v>
+        <v>-30900</v>
       </c>
       <c r="I81" s="3">
+        <v>-203500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-179000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-84400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-228200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-75900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-171400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-20100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3825,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>12400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>600</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-80800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1200</v>
       </c>
-      <c r="F89" s="3">
-        <v>19100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-153400</v>
-      </c>
       <c r="H89" s="3">
-        <v>-18100</v>
+        <v>18900</v>
       </c>
       <c r="I89" s="3">
+        <v>-152100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-55300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-92500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-42800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-112700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-29800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-18800</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +4173,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-29500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
         <v>-25500</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7400</v>
+        <v>-10200</v>
       </c>
       <c r="E94" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-5300</v>
       </c>
-      <c r="F94" s="3">
-        <v>12800</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-31000</v>
-      </c>
       <c r="H94" s="3">
-        <v>100600</v>
+        <v>12600</v>
       </c>
       <c r="I94" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>99700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-348500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>11300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>51500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-203100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-22100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-25500</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4564,151 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>223200</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-227700</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>221200</v>
       </c>
       <c r="G100" s="3">
-        <v>257700</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>-23500</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>255400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="K100" s="3">
         <v>820100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>12700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>225500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>167000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>199900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>27000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-4400</v>
       </c>
-      <c r="H101" s="3">
-        <v>18400</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-800</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>212700</v>
+        <v>-80000</v>
       </c>
       <c r="E102" s="3">
-        <v>-4400</v>
+        <v>-224000</v>
       </c>
       <c r="F102" s="3">
-        <v>29800</v>
+        <v>210800</v>
       </c>
       <c r="G102" s="3">
-        <v>68900</v>
+        <v>-4300</v>
       </c>
       <c r="H102" s="3">
-        <v>77400</v>
+        <v>29500</v>
       </c>
       <c r="I102" s="3">
+        <v>68300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>76700</v>
+      </c>
+      <c r="K102" s="3">
         <v>417000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-69600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>234000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-147200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>150200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-18000</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
@@ -741,25 +741,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>481700</v>
+        <v>459200</v>
       </c>
       <c r="E8" s="3">
-        <v>351100</v>
+        <v>334700</v>
       </c>
       <c r="F8" s="3">
-        <v>355200</v>
+        <v>338600</v>
       </c>
       <c r="G8" s="3">
-        <v>343200</v>
+        <v>327100</v>
       </c>
       <c r="H8" s="3">
-        <v>464700</v>
+        <v>443000</v>
       </c>
       <c r="I8" s="3">
-        <v>14000</v>
+        <v>13300</v>
       </c>
       <c r="J8" s="3">
-        <v>225100</v>
+        <v>214600</v>
       </c>
       <c r="K8" s="3">
         <v>134000</v>
@@ -788,25 +788,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>281000</v>
+        <v>267900</v>
       </c>
       <c r="E9" s="3">
-        <v>229100</v>
+        <v>218400</v>
       </c>
       <c r="F9" s="3">
-        <v>235500</v>
+        <v>224400</v>
       </c>
       <c r="G9" s="3">
-        <v>209600</v>
+        <v>199800</v>
       </c>
       <c r="H9" s="3">
-        <v>319400</v>
+        <v>304500</v>
       </c>
       <c r="I9" s="3">
-        <v>91500</v>
+        <v>87200</v>
       </c>
       <c r="J9" s="3">
-        <v>175000</v>
+        <v>166800</v>
       </c>
       <c r="K9" s="3">
         <v>123400</v>
@@ -835,25 +835,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>200700</v>
+        <v>191300</v>
       </c>
       <c r="E10" s="3">
-        <v>122000</v>
+        <v>116300</v>
       </c>
       <c r="F10" s="3">
-        <v>119800</v>
+        <v>114200</v>
       </c>
       <c r="G10" s="3">
-        <v>133600</v>
+        <v>127300</v>
       </c>
       <c r="H10" s="3">
-        <v>145300</v>
+        <v>138500</v>
       </c>
       <c r="I10" s="3">
-        <v>-77500</v>
+        <v>-73900</v>
       </c>
       <c r="J10" s="3">
-        <v>50100</v>
+        <v>47800</v>
       </c>
       <c r="K10" s="3">
         <v>10600</v>
@@ -995,22 +995,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>35400</v>
+        <v>33700</v>
       </c>
       <c r="E14" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="F14" s="3">
-        <v>16300</v>
+        <v>15600</v>
       </c>
       <c r="G14" s="3">
-        <v>13800</v>
+        <v>13200</v>
       </c>
       <c r="H14" s="3">
-        <v>22600</v>
+        <v>21500</v>
       </c>
       <c r="I14" s="3">
-        <v>30600</v>
+        <v>29100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1042,25 +1042,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14200</v>
+        <v>13500</v>
       </c>
       <c r="E15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F15" s="3">
         <v>14000</v>
       </c>
-      <c r="F15" s="3">
-        <v>14700</v>
-      </c>
       <c r="G15" s="3">
-        <v>19900</v>
+        <v>18900</v>
       </c>
       <c r="H15" s="3">
-        <v>33400</v>
+        <v>31900</v>
       </c>
       <c r="I15" s="3">
-        <v>19100</v>
+        <v>18200</v>
       </c>
       <c r="J15" s="3">
-        <v>15800</v>
+        <v>15100</v>
       </c>
       <c r="K15" s="3">
         <v>13000</v>
@@ -1105,25 +1105,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>446400</v>
+        <v>425500</v>
       </c>
       <c r="E17" s="3">
-        <v>348800</v>
+        <v>332500</v>
       </c>
       <c r="F17" s="3">
-        <v>372900</v>
+        <v>355400</v>
       </c>
       <c r="G17" s="3">
-        <v>344200</v>
+        <v>328100</v>
       </c>
       <c r="H17" s="3">
-        <v>524800</v>
+        <v>500300</v>
       </c>
       <c r="I17" s="3">
-        <v>219100</v>
+        <v>208800</v>
       </c>
       <c r="J17" s="3">
-        <v>311400</v>
+        <v>296800</v>
       </c>
       <c r="K17" s="3">
         <v>235600</v>
@@ -1152,25 +1152,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>35300</v>
+        <v>33600</v>
       </c>
       <c r="E18" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F18" s="3">
-        <v>-17600</v>
+        <v>-16800</v>
       </c>
       <c r="G18" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="H18" s="3">
-        <v>-60100</v>
+        <v>-57300</v>
       </c>
       <c r="I18" s="3">
-        <v>-205100</v>
+        <v>-195500</v>
       </c>
       <c r="J18" s="3">
-        <v>-86300</v>
+        <v>-82300</v>
       </c>
       <c r="K18" s="3">
         <v>-101600</v>
@@ -1218,25 +1218,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-36000</v>
+        <v>-34300</v>
       </c>
       <c r="E20" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="F20" s="3">
-        <v>146800</v>
+        <v>139900</v>
       </c>
       <c r="G20" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H20" s="3">
-        <v>25900</v>
+        <v>24700</v>
       </c>
       <c r="I20" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J20" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="K20" s="3">
         <v>2500</v>
@@ -1265,25 +1265,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E21" s="3">
-        <v>23400</v>
+        <v>22300</v>
       </c>
       <c r="F21" s="3">
-        <v>123900</v>
+        <v>118100</v>
       </c>
       <c r="G21" s="3">
-        <v>-12400</v>
+        <v>-11900</v>
       </c>
       <c r="H21" s="3">
         <v>-700</v>
       </c>
       <c r="I21" s="3">
-        <v>-158200</v>
+        <v>-150800</v>
       </c>
       <c r="J21" s="3">
-        <v>-73600</v>
+        <v>-70200</v>
       </c>
       <c r="K21" s="3">
         <v>-98500</v>
@@ -1318,16 +1318,16 @@
         <v>1000</v>
       </c>
       <c r="F22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G22" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H22" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J22" s="3">
         <v>1100</v>
@@ -1359,25 +1359,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="E23" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="F23" s="3">
-        <v>128000</v>
+        <v>122000</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>-36800</v>
+        <v>-35100</v>
       </c>
       <c r="I23" s="3">
-        <v>-203600</v>
+        <v>-194100</v>
       </c>
       <c r="J23" s="3">
-        <v>-77700</v>
+        <v>-74000</v>
       </c>
       <c r="K23" s="3">
         <v>-100400</v>
@@ -1406,19 +1406,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14900</v>
+        <v>14200</v>
       </c>
       <c r="E24" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="F24" s="3">
-        <v>-6600</v>
+        <v>-6300</v>
       </c>
       <c r="G24" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="H24" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
@@ -1500,25 +1500,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-16800</v>
+        <v>-16000</v>
       </c>
       <c r="E26" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F26" s="3">
-        <v>134500</v>
+        <v>128200</v>
       </c>
       <c r="G26" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="H26" s="3">
-        <v>-30900</v>
+        <v>-29400</v>
       </c>
       <c r="I26" s="3">
-        <v>-203800</v>
+        <v>-194300</v>
       </c>
       <c r="J26" s="3">
-        <v>-77700</v>
+        <v>-74000</v>
       </c>
       <c r="K26" s="3">
         <v>-100400</v>
@@ -1547,25 +1547,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-16800</v>
+        <v>-16000</v>
       </c>
       <c r="E27" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F27" s="3">
-        <v>134500</v>
+        <v>128200</v>
       </c>
       <c r="G27" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="H27" s="3">
-        <v>-30900</v>
+        <v>-29400</v>
       </c>
       <c r="I27" s="3">
-        <v>-203500</v>
+        <v>-194000</v>
       </c>
       <c r="J27" s="3">
-        <v>-77700</v>
+        <v>-74000</v>
       </c>
       <c r="K27" s="3">
         <v>-179000</v>
@@ -1782,25 +1782,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>36000</v>
+        <v>34300</v>
       </c>
       <c r="E32" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="F32" s="3">
-        <v>-146800</v>
+        <v>-139900</v>
       </c>
       <c r="G32" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="H32" s="3">
-        <v>-25900</v>
+        <v>-24700</v>
       </c>
       <c r="I32" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="J32" s="3">
-        <v>-9700</v>
+        <v>-9300</v>
       </c>
       <c r="K32" s="3">
         <v>-2500</v>
@@ -1829,25 +1829,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-16800</v>
+        <v>-16000</v>
       </c>
       <c r="E33" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F33" s="3">
-        <v>134500</v>
+        <v>128200</v>
       </c>
       <c r="G33" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="H33" s="3">
-        <v>-30900</v>
+        <v>-29400</v>
       </c>
       <c r="I33" s="3">
-        <v>-203500</v>
+        <v>-194000</v>
       </c>
       <c r="J33" s="3">
-        <v>-77700</v>
+        <v>-74000</v>
       </c>
       <c r="K33" s="3">
         <v>-179000</v>
@@ -1923,25 +1923,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-16800</v>
+        <v>-16000</v>
       </c>
       <c r="E35" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F35" s="3">
-        <v>134500</v>
+        <v>128200</v>
       </c>
       <c r="G35" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="H35" s="3">
-        <v>-30900</v>
+        <v>-29400</v>
       </c>
       <c r="I35" s="3">
-        <v>-203500</v>
+        <v>-194000</v>
       </c>
       <c r="J35" s="3">
-        <v>-77700</v>
+        <v>-74000</v>
       </c>
       <c r="K35" s="3">
         <v>-179000</v>
@@ -2060,25 +2060,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>642100</v>
+        <v>612100</v>
       </c>
       <c r="E41" s="3">
-        <v>721600</v>
+        <v>687900</v>
       </c>
       <c r="F41" s="3">
-        <v>945900</v>
+        <v>901700</v>
       </c>
       <c r="G41" s="3">
-        <v>734800</v>
+        <v>700500</v>
       </c>
       <c r="H41" s="3">
-        <v>742300</v>
+        <v>707600</v>
       </c>
       <c r="I41" s="3">
-        <v>710600</v>
+        <v>677300</v>
       </c>
       <c r="J41" s="3">
-        <v>659200</v>
+        <v>628300</v>
       </c>
       <c r="K41" s="3">
         <v>587800</v>
@@ -2122,10 +2122,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>73000</v>
+        <v>69600</v>
       </c>
       <c r="J42" s="3">
-        <v>150400</v>
+        <v>143400</v>
       </c>
       <c r="K42" s="3">
         <v>303900</v>
@@ -2154,25 +2154,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>32300</v>
+        <v>30800</v>
       </c>
       <c r="E43" s="3">
-        <v>26700</v>
+        <v>25500</v>
       </c>
       <c r="F43" s="3">
-        <v>124300</v>
+        <v>118500</v>
       </c>
       <c r="G43" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="H43" s="3">
-        <v>8100</v>
+        <v>7700</v>
       </c>
       <c r="I43" s="3">
-        <v>78300</v>
+        <v>74600</v>
       </c>
       <c r="J43" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="K43" s="3">
         <v>1000</v>
@@ -2201,25 +2201,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>114100</v>
+        <v>108700</v>
       </c>
       <c r="E44" s="3">
-        <v>95900</v>
+        <v>91500</v>
       </c>
       <c r="F44" s="3">
-        <v>86600</v>
+        <v>82600</v>
       </c>
       <c r="G44" s="3">
-        <v>63000</v>
+        <v>60100</v>
       </c>
       <c r="H44" s="3">
-        <v>61900</v>
+        <v>59000</v>
       </c>
       <c r="I44" s="3">
-        <v>56300</v>
+        <v>53700</v>
       </c>
       <c r="J44" s="3">
-        <v>31100</v>
+        <v>29700</v>
       </c>
       <c r="K44" s="3">
         <v>34100</v>
@@ -2248,25 +2248,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>160200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>64200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>163700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>138900</v>
+      </c>
+      <c r="I45" s="3">
         <v>176100</v>
       </c>
-      <c r="E45" s="3">
-        <v>168100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>67300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>171700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>145700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>184700</v>
-      </c>
       <c r="J45" s="3">
-        <v>83900</v>
+        <v>80000</v>
       </c>
       <c r="K45" s="3">
         <v>75200</v>
@@ -2295,25 +2295,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>964600</v>
+        <v>919500</v>
       </c>
       <c r="E46" s="3">
-        <v>1012400</v>
+        <v>965000</v>
       </c>
       <c r="F46" s="3">
-        <v>1224200</v>
+        <v>1167000</v>
       </c>
       <c r="G46" s="3">
-        <v>980300</v>
+        <v>934500</v>
       </c>
       <c r="H46" s="3">
-        <v>958000</v>
+        <v>913200</v>
       </c>
       <c r="I46" s="3">
-        <v>1102900</v>
+        <v>1051300</v>
       </c>
       <c r="J46" s="3">
-        <v>927900</v>
+        <v>884500</v>
       </c>
       <c r="K46" s="3">
         <v>1002100</v>
@@ -2389,25 +2389,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>447700</v>
+        <v>426800</v>
       </c>
       <c r="E48" s="3">
-        <v>452200</v>
+        <v>431000</v>
       </c>
       <c r="F48" s="3">
-        <v>444300</v>
+        <v>423600</v>
       </c>
       <c r="G48" s="3">
-        <v>265500</v>
+        <v>253100</v>
       </c>
       <c r="H48" s="3">
-        <v>282000</v>
+        <v>268800</v>
       </c>
       <c r="I48" s="3">
-        <v>283100</v>
+        <v>269800</v>
       </c>
       <c r="J48" s="3">
-        <v>180800</v>
+        <v>172400</v>
       </c>
       <c r="K48" s="3">
         <v>156800</v>
@@ -2577,25 +2577,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>120900</v>
+        <v>115200</v>
       </c>
       <c r="E52" s="3">
-        <v>130100</v>
+        <v>124000</v>
       </c>
       <c r="F52" s="3">
-        <v>129400</v>
+        <v>123400</v>
       </c>
       <c r="G52" s="3">
-        <v>116700</v>
+        <v>111200</v>
       </c>
       <c r="H52" s="3">
-        <v>122200</v>
+        <v>116500</v>
       </c>
       <c r="I52" s="3">
-        <v>39600</v>
+        <v>37800</v>
       </c>
       <c r="J52" s="3">
-        <v>63700</v>
+        <v>60700</v>
       </c>
       <c r="K52" s="3">
         <v>43700</v>
@@ -2671,25 +2671,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1533200</v>
+        <v>1461500</v>
       </c>
       <c r="E54" s="3">
-        <v>1594700</v>
+        <v>1520100</v>
       </c>
       <c r="F54" s="3">
-        <v>1798000</v>
+        <v>1713900</v>
       </c>
       <c r="G54" s="3">
-        <v>1362500</v>
+        <v>1298800</v>
       </c>
       <c r="H54" s="3">
-        <v>1362200</v>
+        <v>1298500</v>
       </c>
       <c r="I54" s="3">
-        <v>1425600</v>
+        <v>1358900</v>
       </c>
       <c r="J54" s="3">
-        <v>1172500</v>
+        <v>1117600</v>
       </c>
       <c r="K54" s="3">
         <v>1202600</v>
@@ -2756,25 +2756,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>76600</v>
+        <v>73000</v>
       </c>
       <c r="E57" s="3">
-        <v>68500</v>
+        <v>65300</v>
       </c>
       <c r="F57" s="3">
-        <v>42900</v>
+        <v>40900</v>
       </c>
       <c r="G57" s="3">
-        <v>43600</v>
+        <v>41500</v>
       </c>
       <c r="H57" s="3">
-        <v>65500</v>
+        <v>62500</v>
       </c>
       <c r="I57" s="3">
-        <v>147000</v>
+        <v>140100</v>
       </c>
       <c r="J57" s="3">
-        <v>51300</v>
+        <v>48900</v>
       </c>
       <c r="K57" s="3">
         <v>38200</v>
@@ -2809,19 +2809,19 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>428100</v>
+        <v>408100</v>
       </c>
       <c r="G58" s="3">
-        <v>432800</v>
+        <v>412600</v>
       </c>
       <c r="H58" s="3">
-        <v>433700</v>
+        <v>413400</v>
       </c>
       <c r="I58" s="3">
-        <v>53800</v>
+        <v>51300</v>
       </c>
       <c r="J58" s="3">
-        <v>39000</v>
+        <v>37100</v>
       </c>
       <c r="K58" s="3">
         <v>51800</v>
@@ -2850,25 +2850,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>378900</v>
+        <v>361200</v>
       </c>
       <c r="E59" s="3">
-        <v>460400</v>
+        <v>438900</v>
       </c>
       <c r="F59" s="3">
-        <v>491600</v>
+        <v>468600</v>
       </c>
       <c r="G59" s="3">
-        <v>341800</v>
+        <v>325800</v>
       </c>
       <c r="H59" s="3">
-        <v>327300</v>
+        <v>312000</v>
       </c>
       <c r="I59" s="3">
-        <v>428500</v>
+        <v>408500</v>
       </c>
       <c r="J59" s="3">
-        <v>129000</v>
+        <v>123000</v>
       </c>
       <c r="K59" s="3">
         <v>88200</v>
@@ -2897,25 +2897,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>455500</v>
+        <v>434200</v>
       </c>
       <c r="E60" s="3">
-        <v>528900</v>
+        <v>504200</v>
       </c>
       <c r="F60" s="3">
-        <v>962600</v>
+        <v>917600</v>
       </c>
       <c r="G60" s="3">
-        <v>818100</v>
+        <v>779900</v>
       </c>
       <c r="H60" s="3">
-        <v>826600</v>
+        <v>787900</v>
       </c>
       <c r="I60" s="3">
-        <v>629300</v>
+        <v>599900</v>
       </c>
       <c r="J60" s="3">
-        <v>219300</v>
+        <v>209100</v>
       </c>
       <c r="K60" s="3">
         <v>178200</v>
@@ -2944,10 +2944,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>124700</v>
+        <v>118900</v>
       </c>
       <c r="E61" s="3">
-        <v>117100</v>
+        <v>111600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>45300</v>
+        <v>43200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2991,25 +2991,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100200</v>
+        <v>95500</v>
       </c>
       <c r="E62" s="3">
-        <v>86600</v>
+        <v>82600</v>
       </c>
       <c r="F62" s="3">
-        <v>84000</v>
+        <v>80000</v>
       </c>
       <c r="G62" s="3">
-        <v>169400</v>
+        <v>161400</v>
       </c>
       <c r="H62" s="3">
-        <v>169700</v>
+        <v>161800</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>13600</v>
+        <v>12900</v>
       </c>
       <c r="K62" s="3">
         <v>7700</v>
@@ -3179,25 +3179,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>680400</v>
+        <v>648600</v>
       </c>
       <c r="E66" s="3">
-        <v>732700</v>
+        <v>698400</v>
       </c>
       <c r="F66" s="3">
-        <v>1046600</v>
+        <v>997600</v>
       </c>
       <c r="G66" s="3">
-        <v>987500</v>
+        <v>941300</v>
       </c>
       <c r="H66" s="3">
-        <v>996300</v>
+        <v>949700</v>
       </c>
       <c r="I66" s="3">
-        <v>686700</v>
+        <v>654500</v>
       </c>
       <c r="J66" s="3">
-        <v>232900</v>
+        <v>222000</v>
       </c>
       <c r="K66" s="3">
         <v>197300</v>
@@ -3339,13 +3339,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>230400</v>
+        <v>219700</v>
       </c>
       <c r="E70" s="3">
-        <v>230400</v>
+        <v>219700</v>
       </c>
       <c r="F70" s="3">
-        <v>221200</v>
+        <v>210800</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3433,25 +3433,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1732000</v>
+        <v>-1651000</v>
       </c>
       <c r="E72" s="3">
-        <v>-1715300</v>
+        <v>-1635100</v>
       </c>
       <c r="F72" s="3">
-        <v>-1718200</v>
+        <v>-1637800</v>
       </c>
       <c r="G72" s="3">
-        <v>-1852700</v>
+        <v>-1766100</v>
       </c>
       <c r="H72" s="3">
-        <v>-1849300</v>
+        <v>-1762800</v>
       </c>
       <c r="I72" s="3">
-        <v>-1002200</v>
+        <v>-955400</v>
       </c>
       <c r="J72" s="3">
-        <v>-812800</v>
+        <v>-774800</v>
       </c>
       <c r="K72" s="3">
         <v>-741800</v>
@@ -3621,25 +3621,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>622300</v>
+        <v>593200</v>
       </c>
       <c r="E76" s="3">
-        <v>631500</v>
+        <v>602000</v>
       </c>
       <c r="F76" s="3">
-        <v>530300</v>
+        <v>505500</v>
       </c>
       <c r="G76" s="3">
-        <v>375000</v>
+        <v>357500</v>
       </c>
       <c r="H76" s="3">
-        <v>365900</v>
+        <v>348800</v>
       </c>
       <c r="I76" s="3">
-        <v>738900</v>
+        <v>704400</v>
       </c>
       <c r="J76" s="3">
-        <v>939600</v>
+        <v>895600</v>
       </c>
       <c r="K76" s="3">
         <v>1005300</v>
@@ -3767,25 +3767,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-16800</v>
+        <v>-16000</v>
       </c>
       <c r="E81" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F81" s="3">
-        <v>134500</v>
+        <v>128200</v>
       </c>
       <c r="G81" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="H81" s="3">
-        <v>-30900</v>
+        <v>-29400</v>
       </c>
       <c r="I81" s="3">
-        <v>-203500</v>
+        <v>-194000</v>
       </c>
       <c r="J81" s="3">
-        <v>-77700</v>
+        <v>-74000</v>
       </c>
       <c r="K81" s="3">
         <v>-179000</v>
@@ -4115,25 +4115,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-80800</v>
+        <v>-77000</v>
       </c>
       <c r="E89" s="3">
-        <v>15700</v>
+        <v>15000</v>
       </c>
       <c r="F89" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="G89" s="3">
         <v>1200</v>
       </c>
       <c r="H89" s="3">
-        <v>18900</v>
+        <v>18000</v>
       </c>
       <c r="I89" s="3">
-        <v>-152100</v>
+        <v>-144900</v>
       </c>
       <c r="J89" s="3">
-        <v>-17900</v>
+        <v>-17100</v>
       </c>
       <c r="K89" s="3">
         <v>-55300</v>
@@ -4322,25 +4322,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10200</v>
+        <v>-9700</v>
       </c>
       <c r="E94" s="3">
-        <v>-10200</v>
+        <v>-9800</v>
       </c>
       <c r="F94" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="G94" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="H94" s="3">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="I94" s="3">
-        <v>-30700</v>
+        <v>-29300</v>
       </c>
       <c r="J94" s="3">
-        <v>99700</v>
+        <v>95000</v>
       </c>
       <c r="K94" s="3">
         <v>-348500</v>
@@ -4579,10 +4579,10 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-227700</v>
+        <v>-217100</v>
       </c>
       <c r="F100" s="3">
-        <v>221200</v>
+        <v>210800</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -4591,10 +4591,10 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>255400</v>
+        <v>243400</v>
       </c>
       <c r="J100" s="3">
-        <v>-23300</v>
+        <v>-22200</v>
       </c>
       <c r="K100" s="3">
         <v>820100</v>
@@ -4623,25 +4623,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="E101" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="F101" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="G101" s="3">
         <v>-200</v>
       </c>
       <c r="H101" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="I101" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="J101" s="3">
-        <v>18300</v>
+        <v>17400</v>
       </c>
       <c r="K101" s="3">
         <v>700</v>
@@ -4670,25 +4670,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-80000</v>
+        <v>-76200</v>
       </c>
       <c r="E102" s="3">
-        <v>-224000</v>
+        <v>-213500</v>
       </c>
       <c r="F102" s="3">
-        <v>210800</v>
+        <v>201000</v>
       </c>
       <c r="G102" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="H102" s="3">
-        <v>29500</v>
+        <v>28100</v>
       </c>
       <c r="I102" s="3">
-        <v>68300</v>
+        <v>65100</v>
       </c>
       <c r="J102" s="3">
-        <v>76700</v>
+        <v>73100</v>
       </c>
       <c r="K102" s="3">
         <v>417000</v>

--- a/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>LKNCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,244 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>459200</v>
+        <v>530700</v>
       </c>
       <c r="E8" s="3">
-        <v>334700</v>
+        <v>559300</v>
       </c>
       <c r="F8" s="3">
-        <v>338600</v>
+        <v>473800</v>
       </c>
       <c r="G8" s="3">
-        <v>327100</v>
+        <v>345300</v>
       </c>
       <c r="H8" s="3">
-        <v>443000</v>
+        <v>1144000</v>
       </c>
       <c r="I8" s="3">
+        <v>337500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>457100</v>
+      </c>
+      <c r="K8" s="3">
         <v>13300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>214600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>134000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>70500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>73400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>37700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>18500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2000</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>267900</v>
+        <v>331000</v>
       </c>
       <c r="E9" s="3">
-        <v>218400</v>
+        <v>317500</v>
       </c>
       <c r="F9" s="3">
-        <v>224400</v>
+        <v>276400</v>
       </c>
       <c r="G9" s="3">
-        <v>199800</v>
+        <v>225400</v>
       </c>
       <c r="H9" s="3">
-        <v>304500</v>
+        <v>751900</v>
       </c>
       <c r="I9" s="3">
+        <v>206200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>314200</v>
+      </c>
+      <c r="K9" s="3">
         <v>87200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>166800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>123400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>82300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>91300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>50800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>26700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4500</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>191300</v>
+        <v>199700</v>
       </c>
       <c r="E10" s="3">
-        <v>116300</v>
+        <v>241800</v>
       </c>
       <c r="F10" s="3">
-        <v>114200</v>
+        <v>197400</v>
       </c>
       <c r="G10" s="3">
-        <v>127300</v>
+        <v>120000</v>
       </c>
       <c r="H10" s="3">
-        <v>138500</v>
+        <v>392100</v>
       </c>
       <c r="I10" s="3">
+        <v>131400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>142900</v>
+      </c>
+      <c r="K10" s="3">
         <v>-73900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>47800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>10600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-11700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-17900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-13100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-8200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,35 +1022,41 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>33700</v>
+        <v>1200</v>
       </c>
       <c r="E14" s="3">
-        <v>5200</v>
+        <v>-16500</v>
       </c>
       <c r="F14" s="3">
-        <v>15600</v>
+        <v>34800</v>
       </c>
       <c r="G14" s="3">
-        <v>13200</v>
+        <v>5400</v>
       </c>
       <c r="H14" s="3">
-        <v>21500</v>
+        <v>51800</v>
       </c>
       <c r="I14" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K14" s="3">
         <v>29100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,64 +1066,76 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="E15" s="3">
-        <v>13300</v>
+        <v>15000</v>
       </c>
       <c r="F15" s="3">
         <v>14000</v>
       </c>
       <c r="G15" s="3">
-        <v>18900</v>
+        <v>13700</v>
       </c>
       <c r="H15" s="3">
-        <v>31900</v>
+        <v>66800</v>
       </c>
       <c r="I15" s="3">
+        <v>19500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K15" s="3">
         <v>18200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>15100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>13000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>12400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>9300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>4500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>2300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>600</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>425500</v>
+        <v>485700</v>
       </c>
       <c r="E17" s="3">
-        <v>332500</v>
+        <v>457500</v>
       </c>
       <c r="F17" s="3">
-        <v>355400</v>
+        <v>439100</v>
       </c>
       <c r="G17" s="3">
-        <v>328100</v>
+        <v>343000</v>
       </c>
       <c r="H17" s="3">
-        <v>500300</v>
+        <v>1221400</v>
       </c>
       <c r="I17" s="3">
+        <v>338500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>516200</v>
+      </c>
+      <c r="K17" s="3">
         <v>208800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>296800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>235600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>148200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>175000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>113700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>70700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>21000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>33600</v>
+        <v>45000</v>
       </c>
       <c r="E18" s="3">
-        <v>2200</v>
+        <v>101900</v>
       </c>
       <c r="F18" s="3">
-        <v>-16800</v>
+        <v>34700</v>
       </c>
       <c r="G18" s="3">
-        <v>-900</v>
+        <v>2300</v>
       </c>
       <c r="H18" s="3">
-        <v>-57300</v>
+        <v>-77400</v>
       </c>
       <c r="I18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-195500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-82300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-101600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-77700</v>
       </c>
       <c r="M18" s="3">
         <v>-101600</v>
       </c>
       <c r="N18" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-101600</v>
+      </c>
+      <c r="P18" s="3">
         <v>-76000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-52200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,131 +1277,145 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-34300</v>
+        <v>4900</v>
       </c>
       <c r="E20" s="3">
-        <v>6700</v>
+        <v>4900</v>
       </c>
       <c r="F20" s="3">
-        <v>139900</v>
+        <v>-35400</v>
       </c>
       <c r="G20" s="3">
-        <v>2000</v>
+        <v>6900</v>
       </c>
       <c r="H20" s="3">
-        <v>24700</v>
+        <v>156500</v>
       </c>
       <c r="I20" s="3">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="J20" s="3">
-        <v>9300</v>
+        <v>25500</v>
       </c>
       <c r="K20" s="3">
         <v>2500</v>
       </c>
       <c r="L20" s="3">
+        <v>9300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>107700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
-        <v>22300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>118100</v>
-      </c>
       <c r="G21" s="3">
-        <v>-11900</v>
+        <v>23000</v>
       </c>
       <c r="H21" s="3">
+        <v>93500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-150800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-70200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-98500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-67800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L22" s="3">
         <v>1100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1200</v>
       </c>
       <c r="M22" s="3">
         <v>1300</v>
@@ -1345,92 +1424,104 @@
         <v>1200</v>
       </c>
       <c r="O22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1800</v>
+        <v>49900</v>
       </c>
       <c r="E23" s="3">
-        <v>8000</v>
+        <v>105500</v>
       </c>
       <c r="F23" s="3">
-        <v>122000</v>
+        <v>-1900</v>
       </c>
       <c r="G23" s="3">
+        <v>8300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>73900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-35100</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-194100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-74000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-81300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-105500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-75900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-50700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14200</v>
+        <v>42100</v>
       </c>
       <c r="E24" s="3">
-        <v>5200</v>
+        <v>29600</v>
       </c>
       <c r="F24" s="3">
-        <v>-6300</v>
+        <v>14600</v>
       </c>
       <c r="G24" s="3">
-        <v>3000</v>
+        <v>5400</v>
       </c>
       <c r="H24" s="3">
-        <v>-5700</v>
+        <v>-9200</v>
       </c>
       <c r="I24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-16000</v>
+        <v>7800</v>
       </c>
       <c r="E26" s="3">
+        <v>75900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="G26" s="3">
         <v>2800</v>
       </c>
-      <c r="F26" s="3">
-        <v>128200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H26" s="3">
-        <v>-29400</v>
+        <v>83100</v>
       </c>
       <c r="I26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-194300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-74000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-81300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-105500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-75900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-50700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-16000</v>
+        <v>7800</v>
       </c>
       <c r="E27" s="3">
+        <v>75900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="G27" s="3">
         <v>2800</v>
       </c>
-      <c r="F27" s="3">
-        <v>128200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H27" s="3">
-        <v>-29400</v>
+        <v>83100</v>
       </c>
       <c r="I27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-194000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-74000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-179000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-84400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-228200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-75900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-171400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>34300</v>
+        <v>-4900</v>
       </c>
       <c r="E32" s="3">
-        <v>-6700</v>
+        <v>-4900</v>
       </c>
       <c r="F32" s="3">
-        <v>-139900</v>
+        <v>35400</v>
       </c>
       <c r="G32" s="3">
-        <v>-2000</v>
+        <v>-6900</v>
       </c>
       <c r="H32" s="3">
-        <v>-24700</v>
+        <v>-156500</v>
       </c>
       <c r="I32" s="3">
-        <v>-2500</v>
+        <v>-2100</v>
       </c>
       <c r="J32" s="3">
-        <v>-9300</v>
+        <v>-25500</v>
       </c>
       <c r="K32" s="3">
         <v>-2500</v>
       </c>
       <c r="L32" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="N32" s="3">
         <v>2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-16000</v>
+        <v>7800</v>
       </c>
       <c r="E33" s="3">
+        <v>75900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="G33" s="3">
         <v>2800</v>
       </c>
-      <c r="F33" s="3">
-        <v>128200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H33" s="3">
-        <v>-29400</v>
+        <v>83100</v>
       </c>
       <c r="I33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-194000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-74000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-179000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-84400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-228200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-75900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-171400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-16000</v>
+        <v>7800</v>
       </c>
       <c r="E35" s="3">
+        <v>75900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="G35" s="3">
         <v>2800</v>
       </c>
-      <c r="F35" s="3">
-        <v>128200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H35" s="3">
-        <v>-29400</v>
+        <v>83100</v>
       </c>
       <c r="I35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-194000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-74000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-179000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-84400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-228200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-75900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-171400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>612100</v>
+        <v>507600</v>
       </c>
       <c r="E41" s="3">
-        <v>687900</v>
+        <v>565000</v>
       </c>
       <c r="F41" s="3">
-        <v>901700</v>
+        <v>631500</v>
       </c>
       <c r="G41" s="3">
-        <v>700500</v>
+        <v>709700</v>
       </c>
       <c r="H41" s="3">
-        <v>707600</v>
+        <v>930300</v>
       </c>
       <c r="I41" s="3">
+        <v>722700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>730000</v>
+      </c>
+      <c r="K41" s="3">
         <v>677300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>628300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>587800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>170800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>257300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2112,232 +2291,262 @@
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>69600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>143400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>303900</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>20500</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>30800</v>
+        <v>30300</v>
       </c>
       <c r="E43" s="3">
-        <v>25500</v>
+        <v>31500</v>
       </c>
       <c r="F43" s="3">
-        <v>118500</v>
+        <v>31800</v>
       </c>
       <c r="G43" s="3">
-        <v>10300</v>
+        <v>26300</v>
       </c>
       <c r="H43" s="3">
-        <v>7700</v>
+        <v>122300</v>
       </c>
       <c r="I43" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K43" s="3">
         <v>74600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>36600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>53800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>108700</v>
+        <v>173300</v>
       </c>
       <c r="E44" s="3">
-        <v>91500</v>
+        <v>100800</v>
       </c>
       <c r="F44" s="3">
-        <v>82600</v>
+        <v>112200</v>
       </c>
       <c r="G44" s="3">
-        <v>60100</v>
+        <v>94400</v>
       </c>
       <c r="H44" s="3">
-        <v>59000</v>
+        <v>85200</v>
       </c>
       <c r="I44" s="3">
+        <v>62000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K44" s="3">
         <v>53700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>29700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>34100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>27800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>23700</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>167900</v>
+        <v>155900</v>
       </c>
       <c r="E45" s="3">
-        <v>160200</v>
+        <v>177500</v>
       </c>
       <c r="F45" s="3">
-        <v>64200</v>
+        <v>173200</v>
       </c>
       <c r="G45" s="3">
-        <v>163700</v>
+        <v>165300</v>
       </c>
       <c r="H45" s="3">
-        <v>138900</v>
+        <v>66200</v>
       </c>
       <c r="I45" s="3">
+        <v>168900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>143300</v>
+      </c>
+      <c r="K45" s="3">
         <v>176100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>80000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>75200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>27500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>27900</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>919500</v>
+        <v>867000</v>
       </c>
       <c r="E46" s="3">
-        <v>965000</v>
+        <v>874900</v>
       </c>
       <c r="F46" s="3">
-        <v>1167000</v>
+        <v>948700</v>
       </c>
       <c r="G46" s="3">
-        <v>934500</v>
+        <v>995600</v>
       </c>
       <c r="H46" s="3">
-        <v>913200</v>
+        <v>1204000</v>
       </c>
       <c r="I46" s="3">
+        <v>964200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>942200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1051300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>884500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1002100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>262700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>383100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,55 +2592,67 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>426800</v>
+        <v>556000</v>
       </c>
       <c r="E48" s="3">
-        <v>431000</v>
+        <v>487800</v>
       </c>
       <c r="F48" s="3">
-        <v>423600</v>
+        <v>440300</v>
       </c>
       <c r="G48" s="3">
-        <v>253100</v>
+        <v>444700</v>
       </c>
       <c r="H48" s="3">
-        <v>268800</v>
+        <v>437000</v>
       </c>
       <c r="I48" s="3">
+        <v>261100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>277300</v>
+      </c>
+      <c r="K48" s="3">
         <v>269800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>172400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>156800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>142400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>142800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>115200</v>
+        <v>82100</v>
       </c>
       <c r="E52" s="3">
-        <v>124000</v>
+        <v>95100</v>
       </c>
       <c r="F52" s="3">
-        <v>123400</v>
+        <v>118900</v>
       </c>
       <c r="G52" s="3">
-        <v>111200</v>
+        <v>128000</v>
       </c>
       <c r="H52" s="3">
-        <v>116500</v>
+        <v>127300</v>
       </c>
       <c r="I52" s="3">
+        <v>114800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>120200</v>
+      </c>
+      <c r="K52" s="3">
         <v>37800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>60700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>43700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>22400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>23900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1461500</v>
+        <v>1505200</v>
       </c>
       <c r="E54" s="3">
-        <v>1520100</v>
+        <v>1457700</v>
       </c>
       <c r="F54" s="3">
-        <v>1713900</v>
+        <v>1507900</v>
       </c>
       <c r="G54" s="3">
-        <v>1298800</v>
+        <v>1568300</v>
       </c>
       <c r="H54" s="3">
-        <v>1298500</v>
+        <v>1768300</v>
       </c>
       <c r="I54" s="3">
+        <v>1340000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1339700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1358900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1117600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1202600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>427400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>549800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +3009,63 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>73000</v>
+        <v>63400</v>
       </c>
       <c r="E57" s="3">
-        <v>65300</v>
+        <v>57800</v>
       </c>
       <c r="F57" s="3">
-        <v>40900</v>
+        <v>75300</v>
       </c>
       <c r="G57" s="3">
-        <v>41500</v>
+        <v>67400</v>
       </c>
       <c r="H57" s="3">
-        <v>62500</v>
+        <v>42200</v>
       </c>
       <c r="I57" s="3">
+        <v>42800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>64400</v>
+      </c>
+      <c r="K57" s="3">
         <v>140100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>48900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>38200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>52600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>66200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2809,231 +3076,261 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>408100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>412600</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>413400</v>
+        <v>421000</v>
       </c>
       <c r="I58" s="3">
+        <v>425700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>426600</v>
+      </c>
+      <c r="K58" s="3">
         <v>51300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>37100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>51800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>47500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>29900</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>361200</v>
+        <v>342900</v>
       </c>
       <c r="E59" s="3">
-        <v>438900</v>
+        <v>351800</v>
       </c>
       <c r="F59" s="3">
-        <v>468600</v>
+        <v>372600</v>
       </c>
       <c r="G59" s="3">
-        <v>325800</v>
+        <v>452800</v>
       </c>
       <c r="H59" s="3">
-        <v>312000</v>
+        <v>483500</v>
       </c>
       <c r="I59" s="3">
+        <v>336100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>321900</v>
+      </c>
+      <c r="K59" s="3">
         <v>408500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>123000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>88200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>24900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>27100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>434200</v>
+        <v>406300</v>
       </c>
       <c r="E60" s="3">
-        <v>504200</v>
+        <v>409600</v>
       </c>
       <c r="F60" s="3">
-        <v>917600</v>
+        <v>448000</v>
       </c>
       <c r="G60" s="3">
-        <v>779900</v>
+        <v>520200</v>
       </c>
       <c r="H60" s="3">
-        <v>787900</v>
+        <v>946700</v>
       </c>
       <c r="I60" s="3">
+        <v>804600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>812900</v>
+      </c>
+      <c r="K60" s="3">
         <v>599900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>209100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>178200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>125000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>123200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>118900</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>111600</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>122700</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>115200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>43200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>11300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>22500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>35800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>95500</v>
+        <v>147100</v>
       </c>
       <c r="E62" s="3">
+        <v>119300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>98500</v>
+      </c>
+      <c r="G62" s="3">
+        <v>85200</v>
+      </c>
+      <c r="H62" s="3">
         <v>82600</v>
       </c>
-      <c r="F62" s="3">
-        <v>80000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>161400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>161800</v>
-      </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>166600</v>
       </c>
       <c r="J62" s="3">
+        <v>166900</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>12900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>7700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>11600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>20000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>648600</v>
+        <v>553400</v>
       </c>
       <c r="E66" s="3">
-        <v>698400</v>
+        <v>528900</v>
       </c>
       <c r="F66" s="3">
-        <v>997600</v>
+        <v>669200</v>
       </c>
       <c r="G66" s="3">
-        <v>941300</v>
+        <v>720600</v>
       </c>
       <c r="H66" s="3">
-        <v>949700</v>
+        <v>1029300</v>
       </c>
       <c r="I66" s="3">
+        <v>971200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>979800</v>
+      </c>
+      <c r="K66" s="3">
         <v>654500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>222000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>197300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>159100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>179000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,25 +3662,31 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>219700</v>
+        <v>226600</v>
       </c>
       <c r="E70" s="3">
-        <v>219700</v>
+        <v>226600</v>
       </c>
       <c r="F70" s="3">
-        <v>210800</v>
+        <v>226600</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>226600</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>217500</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3363,25 +3698,31 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>638500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>675000</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1651000</v>
+        <v>-1635200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1635100</v>
+        <v>-1643000</v>
       </c>
       <c r="F72" s="3">
-        <v>-1637800</v>
+        <v>-1703500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1766100</v>
+        <v>-1687000</v>
       </c>
       <c r="H72" s="3">
-        <v>-1762800</v>
+        <v>-1689800</v>
       </c>
       <c r="I72" s="3">
+        <v>-1822200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-1818800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-955400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-774800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-741800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-562800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-512200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>593200</v>
+        <v>725200</v>
       </c>
       <c r="E76" s="3">
-        <v>602000</v>
+        <v>702200</v>
       </c>
       <c r="F76" s="3">
-        <v>505500</v>
+        <v>612100</v>
       </c>
       <c r="G76" s="3">
-        <v>357500</v>
+        <v>621100</v>
       </c>
       <c r="H76" s="3">
-        <v>348800</v>
+        <v>521500</v>
       </c>
       <c r="I76" s="3">
+        <v>368800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>359900</v>
+      </c>
+      <c r="K76" s="3">
         <v>704400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>895600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1005300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-370200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-304100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-16000</v>
+        <v>7800</v>
       </c>
       <c r="E81" s="3">
+        <v>75900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="G81" s="3">
         <v>2800</v>
       </c>
-      <c r="F81" s="3">
-        <v>128200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H81" s="3">
-        <v>-29400</v>
+        <v>83100</v>
       </c>
       <c r="I81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-194000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-74000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-179000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-84400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-228200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-75900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-171400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3853,29 +4250,35 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>12400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
         <v>600</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-77000</v>
+        <v>6900</v>
       </c>
       <c r="E89" s="3">
-        <v>15000</v>
+        <v>59900</v>
       </c>
       <c r="F89" s="3">
-        <v>-2000</v>
+        <v>-79400</v>
       </c>
       <c r="G89" s="3">
+        <v>15500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>17700</v>
+      </c>
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="H89" s="3">
-        <v>18000</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-144900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-17100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-55300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-92500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-42800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-112700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-29800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4201,29 +4642,35 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-29500</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9700</v>
+        <v>-64800</v>
       </c>
       <c r="E94" s="3">
-        <v>-9800</v>
+        <v>-29800</v>
       </c>
       <c r="F94" s="3">
-        <v>-7000</v>
+        <v>-10000</v>
       </c>
       <c r="G94" s="3">
-        <v>-5000</v>
+        <v>-10100</v>
       </c>
       <c r="H94" s="3">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-29300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>95000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-348500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>11300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>51500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-203100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-22100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4579,136 +5070,154 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-217100</v>
+        <v>-102900</v>
       </c>
       <c r="F100" s="3">
-        <v>210800</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-224000</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>217500</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>243400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-22200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>820100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>12700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>225500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>167000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>199900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>27000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10400</v>
+        <v>-1800</v>
       </c>
       <c r="E101" s="3">
-        <v>-1600</v>
+        <v>3800</v>
       </c>
       <c r="F101" s="3">
-        <v>-900</v>
+        <v>10800</v>
       </c>
       <c r="G101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>17400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>2200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-800</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-76200</v>
+        <v>-59600</v>
       </c>
       <c r="E102" s="3">
-        <v>-213500</v>
+        <v>-69000</v>
       </c>
       <c r="F102" s="3">
-        <v>201000</v>
+        <v>-78700</v>
       </c>
       <c r="G102" s="3">
-        <v>-4100</v>
+        <v>-220300</v>
       </c>
       <c r="H102" s="3">
-        <v>28100</v>
+        <v>232100</v>
       </c>
       <c r="I102" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K102" s="3">
         <v>65100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>73100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>417000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-69600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>234000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-147200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>150200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>LKNCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>530700</v>
+        <v>630700</v>
       </c>
       <c r="E8" s="3">
-        <v>559300</v>
+        <v>525200</v>
       </c>
       <c r="F8" s="3">
-        <v>473800</v>
+        <v>553600</v>
       </c>
       <c r="G8" s="3">
-        <v>345300</v>
+        <v>468900</v>
       </c>
       <c r="H8" s="3">
-        <v>1144000</v>
+        <v>341800</v>
       </c>
       <c r="I8" s="3">
-        <v>337500</v>
+        <v>345800</v>
       </c>
       <c r="J8" s="3">
+        <v>334100</v>
+      </c>
+      <c r="K8" s="3">
         <v>457100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>214600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>134000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>70500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>73400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>37700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2000</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>331000</v>
+        <v>376200</v>
       </c>
       <c r="E9" s="3">
-        <v>317500</v>
+        <v>327600</v>
       </c>
       <c r="F9" s="3">
-        <v>276400</v>
+        <v>314300</v>
       </c>
       <c r="G9" s="3">
-        <v>225400</v>
+        <v>273600</v>
       </c>
       <c r="H9" s="3">
-        <v>751900</v>
+        <v>223100</v>
       </c>
       <c r="I9" s="3">
-        <v>206200</v>
+        <v>229200</v>
       </c>
       <c r="J9" s="3">
+        <v>204000</v>
+      </c>
+      <c r="K9" s="3">
         <v>314200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>87200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>166800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>123400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>82300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>91300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>50800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>26700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4500</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>199700</v>
+        <v>254500</v>
       </c>
       <c r="E10" s="3">
-        <v>241800</v>
+        <v>197700</v>
       </c>
       <c r="F10" s="3">
-        <v>197400</v>
+        <v>239300</v>
       </c>
       <c r="G10" s="3">
-        <v>120000</v>
+        <v>195300</v>
       </c>
       <c r="H10" s="3">
-        <v>392100</v>
+        <v>118800</v>
       </c>
       <c r="I10" s="3">
-        <v>131400</v>
+        <v>116600</v>
       </c>
       <c r="J10" s="3">
+        <v>130000</v>
+      </c>
+      <c r="K10" s="3">
         <v>142900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-73900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-11700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-17900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-8200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-2500</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,38 +1045,41 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E14" s="3">
-        <v>-16500</v>
+        <v>1100</v>
       </c>
       <c r="F14" s="3">
-        <v>34800</v>
+        <v>-16300</v>
       </c>
       <c r="G14" s="3">
-        <v>5400</v>
+        <v>34500</v>
       </c>
       <c r="H14" s="3">
-        <v>51800</v>
+        <v>5300</v>
       </c>
       <c r="I14" s="3">
-        <v>13600</v>
+        <v>15900</v>
       </c>
       <c r="J14" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K14" s="3">
         <v>22200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>29100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1072,8 +1092,8 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1081,61 +1101,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>13800</v>
+      </c>
+      <c r="H15" s="3">
         <v>13600</v>
       </c>
-      <c r="E15" s="3">
-        <v>15000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>14000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>13700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>66800</v>
-      </c>
       <c r="I15" s="3">
-        <v>19500</v>
+        <v>14300</v>
       </c>
       <c r="J15" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K15" s="3">
         <v>32900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>18200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>15100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>13000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>9300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>600</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>485700</v>
+        <v>534300</v>
       </c>
       <c r="E17" s="3">
-        <v>457500</v>
+        <v>480700</v>
       </c>
       <c r="F17" s="3">
-        <v>439100</v>
+        <v>452800</v>
       </c>
       <c r="G17" s="3">
-        <v>343000</v>
+        <v>434600</v>
       </c>
       <c r="H17" s="3">
-        <v>1221400</v>
+        <v>339500</v>
       </c>
       <c r="I17" s="3">
-        <v>338500</v>
+        <v>363000</v>
       </c>
       <c r="J17" s="3">
+        <v>335000</v>
+      </c>
+      <c r="K17" s="3">
         <v>516200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>208800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>296800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>235600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>148200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>175000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>113700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>70700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21000</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>45000</v>
+        <v>96400</v>
       </c>
       <c r="E18" s="3">
-        <v>101900</v>
+        <v>44500</v>
       </c>
       <c r="F18" s="3">
-        <v>34700</v>
+        <v>100800</v>
       </c>
       <c r="G18" s="3">
+        <v>34300</v>
+      </c>
+      <c r="H18" s="3">
         <v>2300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-77400</v>
-      </c>
       <c r="I18" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-59100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-195500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-82300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-101600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-77700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-101600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-52200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-19000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E20" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="F20" s="3">
-        <v>-35400</v>
+        <v>4800</v>
       </c>
       <c r="G20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="H20" s="3">
         <v>6900</v>
       </c>
-      <c r="H20" s="3">
-        <v>156500</v>
-      </c>
       <c r="I20" s="3">
+        <v>142900</v>
+      </c>
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>25500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>48500</v>
+        <v>116700</v>
       </c>
       <c r="E21" s="3">
-        <v>107700</v>
+        <v>48000</v>
       </c>
       <c r="F21" s="3">
+        <v>106600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
-        <v>23000</v>
-      </c>
       <c r="H21" s="3">
-        <v>93500</v>
+        <v>22700</v>
       </c>
       <c r="I21" s="3">
-        <v>-12200</v>
+        <v>120600</v>
       </c>
       <c r="J21" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-150800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-70200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-98500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-67800</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>-19500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,137 +1434,143 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>1200</v>
       </c>
       <c r="G22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
-        <v>5100</v>
-      </c>
       <c r="I22" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="J22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K22" s="3">
         <v>2600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>49900</v>
+        <v>101300</v>
       </c>
       <c r="E23" s="3">
-        <v>105500</v>
+        <v>49400</v>
       </c>
       <c r="F23" s="3">
-        <v>-1900</v>
+        <v>104500</v>
       </c>
       <c r="G23" s="3">
-        <v>8300</v>
+        <v>-1800</v>
       </c>
       <c r="H23" s="3">
-        <v>73900</v>
+        <v>8200</v>
       </c>
       <c r="I23" s="3">
+        <v>124600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-36200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-194100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-74000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-81300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-105500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-50700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-20100</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>42100</v>
+        <v>21000</v>
       </c>
       <c r="E24" s="3">
-        <v>29600</v>
+        <v>41600</v>
       </c>
       <c r="F24" s="3">
-        <v>14600</v>
+        <v>29300</v>
       </c>
       <c r="G24" s="3">
-        <v>5400</v>
+        <v>14500</v>
       </c>
       <c r="H24" s="3">
-        <v>-9200</v>
+        <v>5300</v>
       </c>
       <c r="I24" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J24" s="3">
         <v>3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E26" s="3">
         <v>7800</v>
       </c>
-      <c r="E26" s="3">
-        <v>75900</v>
-      </c>
       <c r="F26" s="3">
-        <v>-16500</v>
+        <v>75100</v>
       </c>
       <c r="G26" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="H26" s="3">
         <v>2800</v>
       </c>
-      <c r="H26" s="3">
-        <v>83100</v>
-      </c>
       <c r="I26" s="3">
-        <v>-3400</v>
+        <v>131000</v>
       </c>
       <c r="J26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-30400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-194300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-74000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-81300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-105500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-50700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20100</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E27" s="3">
         <v>7800</v>
       </c>
-      <c r="E27" s="3">
-        <v>75900</v>
-      </c>
       <c r="F27" s="3">
-        <v>-16500</v>
+        <v>75100</v>
       </c>
       <c r="G27" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="H27" s="3">
         <v>2800</v>
       </c>
-      <c r="H27" s="3">
-        <v>83100</v>
-      </c>
       <c r="I27" s="3">
-        <v>-3400</v>
+        <v>131000</v>
       </c>
       <c r="J27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-30400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-194000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-74000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-179000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-84400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-228200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-171400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20100</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="E32" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="F32" s="3">
-        <v>35400</v>
+        <v>-4800</v>
       </c>
       <c r="G32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-6900</v>
       </c>
-      <c r="H32" s="3">
-        <v>-156500</v>
-      </c>
       <c r="I32" s="3">
+        <v>-142900</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-25500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E33" s="3">
         <v>7800</v>
       </c>
-      <c r="E33" s="3">
-        <v>75900</v>
-      </c>
       <c r="F33" s="3">
-        <v>-16500</v>
+        <v>75100</v>
       </c>
       <c r="G33" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="H33" s="3">
         <v>2800</v>
       </c>
-      <c r="H33" s="3">
-        <v>83100</v>
-      </c>
       <c r="I33" s="3">
-        <v>-3400</v>
+        <v>131000</v>
       </c>
       <c r="J33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-30400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-194000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-74000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-179000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-84400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-228200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-171400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20100</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E35" s="3">
         <v>7800</v>
       </c>
-      <c r="E35" s="3">
-        <v>75900</v>
-      </c>
       <c r="F35" s="3">
-        <v>-16500</v>
+        <v>75100</v>
       </c>
       <c r="G35" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="H35" s="3">
         <v>2800</v>
       </c>
-      <c r="H35" s="3">
-        <v>83100</v>
-      </c>
       <c r="I35" s="3">
-        <v>-3400</v>
+        <v>131000</v>
       </c>
       <c r="J35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-30400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-194000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-74000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-179000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-84400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-228200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-171400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20100</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,50 +2313,51 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>507600</v>
+        <v>581700</v>
       </c>
       <c r="E41" s="3">
-        <v>565000</v>
+        <v>502400</v>
       </c>
       <c r="F41" s="3">
-        <v>631500</v>
+        <v>559200</v>
       </c>
       <c r="G41" s="3">
-        <v>709700</v>
+        <v>625000</v>
       </c>
       <c r="H41" s="3">
-        <v>930300</v>
+        <v>702400</v>
       </c>
       <c r="I41" s="3">
-        <v>722700</v>
+        <v>920800</v>
       </c>
       <c r="J41" s="3">
+        <v>715300</v>
+      </c>
+      <c r="K41" s="3">
         <v>730000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>677300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>628300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>587800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>170800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>257300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,13 +2367,16 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>35500</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -2297,8 +2387,8 @@
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2307,23 +2397,23 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>69600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>143400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>303900</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>20500</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,50 +2423,53 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>30300</v>
+        <v>34600</v>
       </c>
       <c r="E43" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>31200</v>
+      </c>
+      <c r="G43" s="3">
         <v>31500</v>
       </c>
-      <c r="F43" s="3">
-        <v>31800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>26300</v>
-      </c>
       <c r="H43" s="3">
-        <v>122300</v>
+        <v>26000</v>
       </c>
       <c r="I43" s="3">
-        <v>10600</v>
+        <v>29900</v>
       </c>
       <c r="J43" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K43" s="3">
         <v>8000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>74600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>36600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>53800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,50 +2479,53 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>173300</v>
+        <v>192600</v>
       </c>
       <c r="E44" s="3">
-        <v>100800</v>
+        <v>171500</v>
       </c>
       <c r="F44" s="3">
-        <v>112200</v>
+        <v>99800</v>
       </c>
       <c r="G44" s="3">
-        <v>94400</v>
+        <v>111000</v>
       </c>
       <c r="H44" s="3">
-        <v>85200</v>
+        <v>93400</v>
       </c>
       <c r="I44" s="3">
-        <v>62000</v>
+        <v>84300</v>
       </c>
       <c r="J44" s="3">
+        <v>61400</v>
+      </c>
+      <c r="K44" s="3">
         <v>60800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>53700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>29700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>34100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>27800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>23700</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,50 +2535,53 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>155900</v>
+        <v>151800</v>
       </c>
       <c r="E45" s="3">
-        <v>177500</v>
+        <v>154300</v>
       </c>
       <c r="F45" s="3">
-        <v>173200</v>
+        <v>175700</v>
       </c>
       <c r="G45" s="3">
-        <v>165300</v>
+        <v>171400</v>
       </c>
       <c r="H45" s="3">
-        <v>66200</v>
+        <v>163600</v>
       </c>
       <c r="I45" s="3">
-        <v>168900</v>
+        <v>156700</v>
       </c>
       <c r="J45" s="3">
+        <v>167100</v>
+      </c>
+      <c r="K45" s="3">
         <v>143300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>176100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>80000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>75200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>27500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27900</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,50 +2591,53 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>867000</v>
+        <v>996300</v>
       </c>
       <c r="E46" s="3">
-        <v>874900</v>
+        <v>858200</v>
       </c>
       <c r="F46" s="3">
-        <v>948700</v>
+        <v>866000</v>
       </c>
       <c r="G46" s="3">
-        <v>995600</v>
+        <v>939000</v>
       </c>
       <c r="H46" s="3">
-        <v>1204000</v>
+        <v>985500</v>
       </c>
       <c r="I46" s="3">
-        <v>964200</v>
+        <v>1191700</v>
       </c>
       <c r="J46" s="3">
+        <v>954300</v>
+      </c>
+      <c r="K46" s="3">
         <v>942200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1051300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>884500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1002100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>262700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>383100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,50 +2703,53 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>556000</v>
+        <v>609600</v>
       </c>
       <c r="E48" s="3">
-        <v>487800</v>
+        <v>550300</v>
       </c>
       <c r="F48" s="3">
-        <v>440300</v>
+        <v>482800</v>
       </c>
       <c r="G48" s="3">
-        <v>444700</v>
+        <v>435800</v>
       </c>
       <c r="H48" s="3">
-        <v>437000</v>
+        <v>440200</v>
       </c>
       <c r="I48" s="3">
-        <v>261100</v>
+        <v>432500</v>
       </c>
       <c r="J48" s="3">
+        <v>258400</v>
+      </c>
+      <c r="K48" s="3">
         <v>277300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>269800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>172400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>156800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>142400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>142800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,50 +2927,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>82100</v>
+        <v>84700</v>
       </c>
       <c r="E52" s="3">
-        <v>95100</v>
+        <v>81300</v>
       </c>
       <c r="F52" s="3">
-        <v>118900</v>
+        <v>94100</v>
       </c>
       <c r="G52" s="3">
-        <v>128000</v>
+        <v>117600</v>
       </c>
       <c r="H52" s="3">
-        <v>127300</v>
+        <v>126700</v>
       </c>
       <c r="I52" s="3">
-        <v>114800</v>
+        <v>126000</v>
       </c>
       <c r="J52" s="3">
+        <v>113600</v>
+      </c>
+      <c r="K52" s="3">
         <v>120200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>37800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>60700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>43700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>22400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>23900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,50 +3039,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1505200</v>
+        <v>1690500</v>
       </c>
       <c r="E54" s="3">
-        <v>1457700</v>
+        <v>1489800</v>
       </c>
       <c r="F54" s="3">
-        <v>1507900</v>
+        <v>1442800</v>
       </c>
       <c r="G54" s="3">
-        <v>1568300</v>
+        <v>1492400</v>
       </c>
       <c r="H54" s="3">
-        <v>1768300</v>
+        <v>1552300</v>
       </c>
       <c r="I54" s="3">
-        <v>1340000</v>
+        <v>1750200</v>
       </c>
       <c r="J54" s="3">
+        <v>1326300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1339700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1358900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1117600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1202600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>427400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>549800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,50 +3141,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>63400</v>
+        <v>95600</v>
       </c>
       <c r="E57" s="3">
-        <v>57800</v>
+        <v>62700</v>
       </c>
       <c r="F57" s="3">
-        <v>75300</v>
+        <v>57200</v>
       </c>
       <c r="G57" s="3">
-        <v>67400</v>
+        <v>74600</v>
       </c>
       <c r="H57" s="3">
-        <v>42200</v>
+        <v>66700</v>
       </c>
       <c r="I57" s="3">
-        <v>42800</v>
+        <v>41700</v>
       </c>
       <c r="J57" s="3">
+        <v>42400</v>
+      </c>
+      <c r="K57" s="3">
         <v>64400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>140100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>48900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>52600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>66200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,13 +3195,16 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3082,32 +3216,32 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>421000</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>425700</v>
+        <v>416700</v>
       </c>
       <c r="J58" s="3">
+        <v>421300</v>
+      </c>
+      <c r="K58" s="3">
         <v>426600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>51300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>37100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>51800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>47500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>29900</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3117,50 +3251,53 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>342900</v>
+        <v>398800</v>
       </c>
       <c r="E59" s="3">
-        <v>351800</v>
+        <v>339400</v>
       </c>
       <c r="F59" s="3">
-        <v>372600</v>
+        <v>348200</v>
       </c>
       <c r="G59" s="3">
-        <v>452800</v>
+        <v>368800</v>
       </c>
       <c r="H59" s="3">
-        <v>483500</v>
+        <v>448200</v>
       </c>
       <c r="I59" s="3">
-        <v>336100</v>
+        <v>478600</v>
       </c>
       <c r="J59" s="3">
+        <v>332700</v>
+      </c>
+      <c r="K59" s="3">
         <v>321900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>408500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>123000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>88200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>27100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,50 +3307,53 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>406300</v>
+        <v>494400</v>
       </c>
       <c r="E60" s="3">
-        <v>409600</v>
+        <v>402100</v>
       </c>
       <c r="F60" s="3">
-        <v>448000</v>
+        <v>405400</v>
       </c>
       <c r="G60" s="3">
-        <v>520200</v>
+        <v>443400</v>
       </c>
       <c r="H60" s="3">
-        <v>946700</v>
+        <v>514900</v>
       </c>
       <c r="I60" s="3">
-        <v>804600</v>
+        <v>937000</v>
       </c>
       <c r="J60" s="3">
+        <v>796400</v>
+      </c>
+      <c r="K60" s="3">
         <v>812900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>599900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>209100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>178200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>125000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>123200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3235,13 +3378,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>122700</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>115200</v>
+        <v>121400</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>114000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3250,23 +3393,23 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>43200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>11300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>35800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3276,50 +3419,53 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>147100</v>
+        <v>166300</v>
       </c>
       <c r="E62" s="3">
-        <v>119300</v>
+        <v>145600</v>
       </c>
       <c r="F62" s="3">
-        <v>98500</v>
+        <v>118100</v>
       </c>
       <c r="G62" s="3">
-        <v>85200</v>
+        <v>97500</v>
       </c>
       <c r="H62" s="3">
-        <v>82600</v>
+        <v>84300</v>
       </c>
       <c r="I62" s="3">
-        <v>166600</v>
+        <v>81700</v>
       </c>
       <c r="J62" s="3">
+        <v>164900</v>
+      </c>
+      <c r="K62" s="3">
         <v>166900</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>12900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,50 +3643,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>553400</v>
+        <v>660700</v>
       </c>
       <c r="E66" s="3">
-        <v>528900</v>
+        <v>547700</v>
       </c>
       <c r="F66" s="3">
-        <v>669200</v>
+        <v>523500</v>
       </c>
       <c r="G66" s="3">
-        <v>720600</v>
+        <v>662300</v>
       </c>
       <c r="H66" s="3">
-        <v>1029300</v>
+        <v>713200</v>
       </c>
       <c r="I66" s="3">
-        <v>971200</v>
+        <v>1018700</v>
       </c>
       <c r="J66" s="3">
+        <v>961300</v>
+      </c>
+      <c r="K66" s="3">
         <v>979800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>654500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>222000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>197300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>159100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>179000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,28 +3833,31 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>226600</v>
+        <v>224300</v>
       </c>
       <c r="E70" s="3">
-        <v>226600</v>
+        <v>224300</v>
       </c>
       <c r="F70" s="3">
-        <v>226600</v>
+        <v>224300</v>
       </c>
       <c r="G70" s="3">
-        <v>226600</v>
+        <v>224300</v>
       </c>
       <c r="H70" s="3">
-        <v>217500</v>
+        <v>224300</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>215300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3704,14 +3872,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>638500</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>675000</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,50 +3945,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1635200</v>
+        <v>-1538200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1643000</v>
+        <v>-1618400</v>
       </c>
       <c r="F72" s="3">
-        <v>-1703500</v>
+        <v>-1626200</v>
       </c>
       <c r="G72" s="3">
-        <v>-1687000</v>
+        <v>-1686000</v>
       </c>
       <c r="H72" s="3">
-        <v>-1689800</v>
+        <v>-1669700</v>
       </c>
       <c r="I72" s="3">
-        <v>-1822200</v>
+        <v>-1672500</v>
       </c>
       <c r="J72" s="3">
+        <v>-1803500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1818800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-955400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-774800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-741800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-562800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-512200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,50 +4169,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>725200</v>
+        <v>805400</v>
       </c>
       <c r="E76" s="3">
-        <v>702200</v>
+        <v>717800</v>
       </c>
       <c r="F76" s="3">
-        <v>612100</v>
+        <v>695000</v>
       </c>
       <c r="G76" s="3">
-        <v>621100</v>
+        <v>605800</v>
       </c>
       <c r="H76" s="3">
-        <v>521500</v>
+        <v>614700</v>
       </c>
       <c r="I76" s="3">
-        <v>368800</v>
+        <v>516200</v>
       </c>
       <c r="J76" s="3">
+        <v>365000</v>
+      </c>
+      <c r="K76" s="3">
         <v>359900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>704400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>895600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1005300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-370200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-304100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E81" s="3">
         <v>7800</v>
       </c>
-      <c r="E81" s="3">
-        <v>75900</v>
-      </c>
       <c r="F81" s="3">
-        <v>-16500</v>
+        <v>75100</v>
       </c>
       <c r="G81" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="H81" s="3">
         <v>2800</v>
       </c>
-      <c r="H81" s="3">
-        <v>83100</v>
-      </c>
       <c r="I81" s="3">
-        <v>-3400</v>
+        <v>131000</v>
       </c>
       <c r="J81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-30400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-194000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-74000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-179000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-84400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-228200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-171400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20100</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4256,29 +4455,32 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>12400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3">
         <v>600</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>152500</v>
+      </c>
+      <c r="E89" s="3">
         <v>6900</v>
       </c>
-      <c r="E89" s="3">
-        <v>59900</v>
-      </c>
       <c r="F89" s="3">
-        <v>-79400</v>
+        <v>59300</v>
       </c>
       <c r="G89" s="3">
-        <v>15500</v>
+        <v>-78600</v>
       </c>
       <c r="H89" s="3">
-        <v>17700</v>
+        <v>15300</v>
       </c>
       <c r="I89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>18600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-144900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-55300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-92500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-42800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-112700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-29800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-18800</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,16 +4836,17 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1370600</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-200400</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4648,29 +4869,32 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3">
         <v>-29500</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3">
         <v>-25500</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-64800</v>
+        <v>-72900</v>
       </c>
       <c r="E94" s="3">
-        <v>-29800</v>
+        <v>-64100</v>
       </c>
       <c r="F94" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="H94" s="3">
         <v>-10000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-5200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>12400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>95000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-348500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>11300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>51500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-203100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-22100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25500</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,154 +5316,163 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-102900</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-101900</v>
       </c>
       <c r="G100" s="3">
-        <v>-224000</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>217500</v>
+        <v>-221700</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>215300</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>243400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-22200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>820100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>12700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>225500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>167000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>199900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>27000</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3800</v>
       </c>
-      <c r="F101" s="3">
-        <v>10800</v>
-      </c>
       <c r="G101" s="3">
+        <v>10700</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1700</v>
       </c>
-      <c r="H101" s="3">
-        <v>-3200</v>
-      </c>
       <c r="I101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>17400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-800</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-59600</v>
+        <v>79300</v>
       </c>
       <c r="E102" s="3">
-        <v>-69000</v>
+        <v>-59000</v>
       </c>
       <c r="F102" s="3">
-        <v>-78700</v>
+        <v>-68300</v>
       </c>
       <c r="G102" s="3">
-        <v>-220300</v>
+        <v>-77900</v>
       </c>
       <c r="H102" s="3">
-        <v>232100</v>
+        <v>-218000</v>
       </c>
       <c r="I102" s="3">
-        <v>-4300</v>
+        <v>205200</v>
       </c>
       <c r="J102" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K102" s="3">
         <v>29000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>65100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>73100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>417000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-69600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>234000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-147200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>150200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-18000</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>LKNCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>630700</v>
+        <v>854400</v>
       </c>
       <c r="E8" s="3">
-        <v>525200</v>
+        <v>611300</v>
       </c>
       <c r="F8" s="3">
-        <v>553600</v>
+        <v>509100</v>
       </c>
       <c r="G8" s="3">
-        <v>468900</v>
+        <v>536600</v>
       </c>
       <c r="H8" s="3">
-        <v>341800</v>
+        <v>454500</v>
       </c>
       <c r="I8" s="3">
-        <v>345800</v>
+        <v>331300</v>
       </c>
       <c r="J8" s="3">
+        <v>335200</v>
+      </c>
+      <c r="K8" s="3">
         <v>334100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>457100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>214600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>134000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>70500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>73400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>37700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2000</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>376200</v>
+        <v>497400</v>
       </c>
       <c r="E9" s="3">
-        <v>327600</v>
+        <v>364600</v>
       </c>
       <c r="F9" s="3">
-        <v>314300</v>
+        <v>317500</v>
       </c>
       <c r="G9" s="3">
-        <v>273600</v>
+        <v>304600</v>
       </c>
       <c r="H9" s="3">
-        <v>223100</v>
+        <v>265200</v>
       </c>
       <c r="I9" s="3">
-        <v>229200</v>
+        <v>216200</v>
       </c>
       <c r="J9" s="3">
+        <v>222200</v>
+      </c>
+      <c r="K9" s="3">
         <v>204000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>314200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>87200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>166800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>123400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>82300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>91300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>50800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>26700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4500</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>254500</v>
+        <v>357100</v>
       </c>
       <c r="E10" s="3">
-        <v>197700</v>
+        <v>246700</v>
       </c>
       <c r="F10" s="3">
-        <v>239300</v>
+        <v>191600</v>
       </c>
       <c r="G10" s="3">
-        <v>195300</v>
+        <v>232000</v>
       </c>
       <c r="H10" s="3">
-        <v>118800</v>
+        <v>189300</v>
       </c>
       <c r="I10" s="3">
-        <v>116600</v>
+        <v>115100</v>
       </c>
       <c r="J10" s="3">
+        <v>113000</v>
+      </c>
+      <c r="K10" s="3">
         <v>130000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>142900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-73900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>47800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-11700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-13100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-8200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-2500</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,41 +1065,44 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
-        <v>-16300</v>
-      </c>
       <c r="G14" s="3">
-        <v>34500</v>
+        <v>-15800</v>
       </c>
       <c r="H14" s="3">
-        <v>5300</v>
+        <v>33400</v>
       </c>
       <c r="I14" s="3">
-        <v>15900</v>
+        <v>5100</v>
       </c>
       <c r="J14" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K14" s="3">
         <v>13400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>22200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>29100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1095,8 +1115,8 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1104,64 +1124,70 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>15400</v>
+        <v>17600</v>
       </c>
       <c r="E15" s="3">
-        <v>13500</v>
+        <v>14900</v>
       </c>
       <c r="F15" s="3">
-        <v>14800</v>
+        <v>13100</v>
       </c>
       <c r="G15" s="3">
+        <v>14400</v>
+      </c>
+      <c r="H15" s="3">
+        <v>13400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>13200</v>
+      </c>
+      <c r="J15" s="3">
         <v>13800</v>
       </c>
-      <c r="H15" s="3">
-        <v>13600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>14300</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>19300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>32900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>18200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>15100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>13000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>9300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>600</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>534300</v>
+        <v>692800</v>
       </c>
       <c r="E17" s="3">
-        <v>480700</v>
+        <v>517800</v>
       </c>
       <c r="F17" s="3">
-        <v>452800</v>
+        <v>465900</v>
       </c>
       <c r="G17" s="3">
-        <v>434600</v>
+        <v>438900</v>
       </c>
       <c r="H17" s="3">
-        <v>339500</v>
+        <v>421200</v>
       </c>
       <c r="I17" s="3">
-        <v>363000</v>
+        <v>329100</v>
       </c>
       <c r="J17" s="3">
+        <v>351800</v>
+      </c>
+      <c r="K17" s="3">
         <v>335000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>516200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>208800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>296800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>235600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>148200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>175000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>113700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>70700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21000</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>96400</v>
+        <v>161600</v>
       </c>
       <c r="E18" s="3">
-        <v>44500</v>
+        <v>93500</v>
       </c>
       <c r="F18" s="3">
-        <v>100800</v>
+        <v>43200</v>
       </c>
       <c r="G18" s="3">
-        <v>34300</v>
+        <v>97700</v>
       </c>
       <c r="H18" s="3">
-        <v>2300</v>
+        <v>33300</v>
       </c>
       <c r="I18" s="3">
-        <v>-17200</v>
+        <v>2200</v>
       </c>
       <c r="J18" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-59100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-195500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-82300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-101600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-77700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-101600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-76000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-52200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-19000</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4800</v>
+        <v>7100</v>
       </c>
       <c r="E20" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="F20" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G20" s="3">
-        <v>-35000</v>
+        <v>4700</v>
       </c>
       <c r="H20" s="3">
-        <v>6900</v>
+        <v>-33900</v>
       </c>
       <c r="I20" s="3">
-        <v>142900</v>
+        <v>6600</v>
       </c>
       <c r="J20" s="3">
+        <v>138500</v>
+      </c>
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>25500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>116700</v>
+        <v>171400</v>
       </c>
       <c r="E21" s="3">
-        <v>48000</v>
+        <v>113100</v>
       </c>
       <c r="F21" s="3">
-        <v>106600</v>
+        <v>46600</v>
       </c>
       <c r="G21" s="3">
+        <v>103400</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
-        <v>22700</v>
-      </c>
       <c r="I21" s="3">
-        <v>120600</v>
+        <v>22000</v>
       </c>
       <c r="J21" s="3">
+        <v>116900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-12100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-150800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-70200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-98500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-67800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>-19500</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,143 +1477,149 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="Q22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1200</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>168700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>98100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>47900</v>
+      </c>
+      <c r="G23" s="3">
         <v>101300</v>
       </c>
-      <c r="E23" s="3">
-        <v>49400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>104500</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
-        <v>8200</v>
-      </c>
       <c r="I23" s="3">
-        <v>124600</v>
+        <v>7900</v>
       </c>
       <c r="J23" s="3">
+        <v>120700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-36200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-194100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-74000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-81300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-105500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-75900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-50700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-20100</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>21000</v>
+        <v>31100</v>
       </c>
       <c r="E24" s="3">
-        <v>41600</v>
+        <v>20300</v>
       </c>
       <c r="F24" s="3">
-        <v>29300</v>
+        <v>40300</v>
       </c>
       <c r="G24" s="3">
-        <v>14500</v>
+        <v>28400</v>
       </c>
       <c r="H24" s="3">
-        <v>5300</v>
+        <v>14000</v>
       </c>
       <c r="I24" s="3">
-        <v>-6400</v>
+        <v>5200</v>
       </c>
       <c r="J24" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>80300</v>
+        <v>137600</v>
       </c>
       <c r="E26" s="3">
-        <v>7800</v>
+        <v>77800</v>
       </c>
       <c r="F26" s="3">
-        <v>75100</v>
+        <v>7500</v>
       </c>
       <c r="G26" s="3">
-        <v>-16300</v>
+        <v>72800</v>
       </c>
       <c r="H26" s="3">
-        <v>2800</v>
+        <v>-15800</v>
       </c>
       <c r="I26" s="3">
-        <v>131000</v>
+        <v>2700</v>
       </c>
       <c r="J26" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-30400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-194300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-74000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-81300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-105500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-75900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-50700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-20100</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>80300</v>
+        <v>137600</v>
       </c>
       <c r="E27" s="3">
-        <v>7800</v>
+        <v>77800</v>
       </c>
       <c r="F27" s="3">
-        <v>75100</v>
+        <v>7500</v>
       </c>
       <c r="G27" s="3">
-        <v>-16300</v>
+        <v>72800</v>
       </c>
       <c r="H27" s="3">
-        <v>2800</v>
+        <v>-15800</v>
       </c>
       <c r="I27" s="3">
-        <v>131000</v>
+        <v>2700</v>
       </c>
       <c r="J27" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-30400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-194000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-74000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-179000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-84400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-228200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-75900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-171400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-20100</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4800</v>
+        <v>-7100</v>
       </c>
       <c r="E32" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="F32" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="G32" s="3">
-        <v>35000</v>
+        <v>-4700</v>
       </c>
       <c r="H32" s="3">
-        <v>-6900</v>
+        <v>33900</v>
       </c>
       <c r="I32" s="3">
-        <v>-142900</v>
+        <v>-6600</v>
       </c>
       <c r="J32" s="3">
+        <v>-138500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-25500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>80300</v>
+        <v>137600</v>
       </c>
       <c r="E33" s="3">
-        <v>7800</v>
+        <v>77800</v>
       </c>
       <c r="F33" s="3">
-        <v>75100</v>
+        <v>7500</v>
       </c>
       <c r="G33" s="3">
-        <v>-16300</v>
+        <v>72800</v>
       </c>
       <c r="H33" s="3">
-        <v>2800</v>
+        <v>-15800</v>
       </c>
       <c r="I33" s="3">
-        <v>131000</v>
+        <v>2700</v>
       </c>
       <c r="J33" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-30400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-194000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-74000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-179000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-84400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-228200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-75900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-171400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-20100</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>80300</v>
+        <v>137600</v>
       </c>
       <c r="E35" s="3">
-        <v>7800</v>
+        <v>77800</v>
       </c>
       <c r="F35" s="3">
-        <v>75100</v>
+        <v>7500</v>
       </c>
       <c r="G35" s="3">
-        <v>-16300</v>
+        <v>72800</v>
       </c>
       <c r="H35" s="3">
-        <v>2800</v>
+        <v>-15800</v>
       </c>
       <c r="I35" s="3">
-        <v>131000</v>
+        <v>2700</v>
       </c>
       <c r="J35" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-30400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-194000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-74000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-179000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-84400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-228200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-75900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-171400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-20100</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,53 +2400,54 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>581700</v>
+        <v>643700</v>
       </c>
       <c r="E41" s="3">
-        <v>502400</v>
+        <v>563800</v>
       </c>
       <c r="F41" s="3">
-        <v>559200</v>
+        <v>487000</v>
       </c>
       <c r="G41" s="3">
-        <v>625000</v>
+        <v>542100</v>
       </c>
       <c r="H41" s="3">
-        <v>702400</v>
+        <v>605800</v>
       </c>
       <c r="I41" s="3">
-        <v>920800</v>
+        <v>680800</v>
       </c>
       <c r="J41" s="3">
+        <v>892500</v>
+      </c>
+      <c r="K41" s="3">
         <v>715300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>730000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>677300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>628300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>587800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>170800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>257300</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,16 +2457,19 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35500</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+        <v>54200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>34400</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -2390,8 +2480,8 @@
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -2400,23 +2490,23 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>69600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>143400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>303900</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>20500</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2426,53 +2516,56 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>34600</v>
+        <v>39500</v>
       </c>
       <c r="E43" s="3">
-        <v>30000</v>
+        <v>33600</v>
       </c>
       <c r="F43" s="3">
-        <v>31200</v>
+        <v>29000</v>
       </c>
       <c r="G43" s="3">
-        <v>31500</v>
+        <v>30300</v>
       </c>
       <c r="H43" s="3">
-        <v>26000</v>
+        <v>30500</v>
       </c>
       <c r="I43" s="3">
-        <v>29900</v>
+        <v>25200</v>
       </c>
       <c r="J43" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K43" s="3">
         <v>10500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>74600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>36600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>53800</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2482,53 +2575,56 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>192600</v>
+        <v>200000</v>
       </c>
       <c r="E44" s="3">
-        <v>171500</v>
+        <v>186700</v>
       </c>
       <c r="F44" s="3">
-        <v>99800</v>
+        <v>166200</v>
       </c>
       <c r="G44" s="3">
-        <v>111000</v>
+        <v>96700</v>
       </c>
       <c r="H44" s="3">
-        <v>93400</v>
+        <v>107600</v>
       </c>
       <c r="I44" s="3">
-        <v>84300</v>
+        <v>90500</v>
       </c>
       <c r="J44" s="3">
+        <v>81800</v>
+      </c>
+      <c r="K44" s="3">
         <v>61400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>60800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>53700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>29700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>34100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>27800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>23700</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,53 +2634,56 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>151800</v>
+        <v>143900</v>
       </c>
       <c r="E45" s="3">
-        <v>154300</v>
+        <v>147200</v>
       </c>
       <c r="F45" s="3">
-        <v>175700</v>
+        <v>149600</v>
       </c>
       <c r="G45" s="3">
-        <v>171400</v>
+        <v>170300</v>
       </c>
       <c r="H45" s="3">
-        <v>163600</v>
+        <v>166100</v>
       </c>
       <c r="I45" s="3">
-        <v>156700</v>
+        <v>158600</v>
       </c>
       <c r="J45" s="3">
+        <v>151900</v>
+      </c>
+      <c r="K45" s="3">
         <v>167100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>143300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>176100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>80000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>75200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>27900</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,53 +2693,56 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>996300</v>
+        <v>1081300</v>
       </c>
       <c r="E46" s="3">
-        <v>858200</v>
+        <v>965600</v>
       </c>
       <c r="F46" s="3">
-        <v>866000</v>
+        <v>831800</v>
       </c>
       <c r="G46" s="3">
-        <v>939000</v>
+        <v>839300</v>
       </c>
       <c r="H46" s="3">
-        <v>985500</v>
+        <v>910100</v>
       </c>
       <c r="I46" s="3">
-        <v>1191700</v>
+        <v>955200</v>
       </c>
       <c r="J46" s="3">
+        <v>1155100</v>
+      </c>
+      <c r="K46" s="3">
         <v>954300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>942200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1051300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>884500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1002100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>262700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>383100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,31 +2752,34 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>20700</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2706,53 +2811,56 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>609600</v>
+        <v>735000</v>
       </c>
       <c r="E48" s="3">
-        <v>550300</v>
+        <v>590800</v>
       </c>
       <c r="F48" s="3">
-        <v>482800</v>
+        <v>533400</v>
       </c>
       <c r="G48" s="3">
-        <v>435800</v>
+        <v>467900</v>
       </c>
       <c r="H48" s="3">
-        <v>440200</v>
+        <v>422400</v>
       </c>
       <c r="I48" s="3">
-        <v>432500</v>
+        <v>426600</v>
       </c>
       <c r="J48" s="3">
+        <v>419200</v>
+      </c>
+      <c r="K48" s="3">
         <v>258400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>277300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>269800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>172400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>156800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>142400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>142800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,53 +3047,56 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>84700</v>
+        <v>94700</v>
       </c>
       <c r="E52" s="3">
-        <v>81300</v>
+        <v>82100</v>
       </c>
       <c r="F52" s="3">
-        <v>94100</v>
+        <v>78800</v>
       </c>
       <c r="G52" s="3">
-        <v>117600</v>
+        <v>91200</v>
       </c>
       <c r="H52" s="3">
-        <v>126700</v>
+        <v>114000</v>
       </c>
       <c r="I52" s="3">
-        <v>126000</v>
+        <v>122800</v>
       </c>
       <c r="J52" s="3">
+        <v>122100</v>
+      </c>
+      <c r="K52" s="3">
         <v>113600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>120200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>37800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>60700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>43700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>22400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>23900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3165,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1690500</v>
+        <v>1931700</v>
       </c>
       <c r="E54" s="3">
-        <v>1489800</v>
+        <v>1638500</v>
       </c>
       <c r="F54" s="3">
-        <v>1442800</v>
+        <v>1444000</v>
       </c>
       <c r="G54" s="3">
-        <v>1492400</v>
+        <v>1398500</v>
       </c>
       <c r="H54" s="3">
-        <v>1552300</v>
+        <v>1446600</v>
       </c>
       <c r="I54" s="3">
-        <v>1750200</v>
+        <v>1504600</v>
       </c>
       <c r="J54" s="3">
+        <v>1696400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1326300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1339700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1358900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1117600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1202600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>427400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>549800</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,53 +3272,54 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>95600</v>
+        <v>93100</v>
       </c>
       <c r="E57" s="3">
-        <v>62700</v>
+        <v>92600</v>
       </c>
       <c r="F57" s="3">
-        <v>57200</v>
+        <v>60800</v>
       </c>
       <c r="G57" s="3">
-        <v>74600</v>
+        <v>55400</v>
       </c>
       <c r="H57" s="3">
-        <v>66700</v>
+        <v>72300</v>
       </c>
       <c r="I57" s="3">
-        <v>41700</v>
+        <v>64700</v>
       </c>
       <c r="J57" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K57" s="3">
         <v>42400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>64400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>140100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>48900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>38200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>52600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>66200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,16 +3329,19 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3219,32 +3353,32 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>416700</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>403900</v>
+      </c>
+      <c r="K58" s="3">
         <v>421300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>426600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>51300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>37100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>51800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>47500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>29900</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3254,53 +3388,56 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>398800</v>
+        <v>476100</v>
       </c>
       <c r="E59" s="3">
-        <v>339400</v>
+        <v>386600</v>
       </c>
       <c r="F59" s="3">
-        <v>348200</v>
+        <v>328900</v>
       </c>
       <c r="G59" s="3">
-        <v>368800</v>
+        <v>337500</v>
       </c>
       <c r="H59" s="3">
-        <v>448200</v>
+        <v>357500</v>
       </c>
       <c r="I59" s="3">
-        <v>478600</v>
+        <v>434400</v>
       </c>
       <c r="J59" s="3">
+        <v>463800</v>
+      </c>
+      <c r="K59" s="3">
         <v>332700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>321900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>408500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>123000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>88200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>24900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>27100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,53 +3447,56 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>494400</v>
+        <v>569300</v>
       </c>
       <c r="E60" s="3">
-        <v>402100</v>
+        <v>479200</v>
       </c>
       <c r="F60" s="3">
-        <v>405400</v>
+        <v>389800</v>
       </c>
       <c r="G60" s="3">
-        <v>443400</v>
+        <v>393000</v>
       </c>
       <c r="H60" s="3">
-        <v>514900</v>
+        <v>429800</v>
       </c>
       <c r="I60" s="3">
-        <v>937000</v>
+        <v>499100</v>
       </c>
       <c r="J60" s="3">
+        <v>908200</v>
+      </c>
+      <c r="K60" s="3">
         <v>796400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>812900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>599900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>209100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>178200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>125000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>123200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3381,13 +3524,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>121400</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>114000</v>
+        <v>117700</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>110500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3396,23 +3539,23 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>43200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>11300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>35800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3422,53 +3565,56 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>166300</v>
+        <v>217600</v>
       </c>
       <c r="E62" s="3">
-        <v>145600</v>
+        <v>161200</v>
       </c>
       <c r="F62" s="3">
-        <v>118100</v>
+        <v>141100</v>
       </c>
       <c r="G62" s="3">
-        <v>97500</v>
+        <v>114400</v>
       </c>
       <c r="H62" s="3">
-        <v>84300</v>
+        <v>94500</v>
       </c>
       <c r="I62" s="3">
-        <v>81700</v>
+        <v>81800</v>
       </c>
       <c r="J62" s="3">
+        <v>79200</v>
+      </c>
+      <c r="K62" s="3">
         <v>164900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>166900</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>12900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3801,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>660700</v>
+        <v>786900</v>
       </c>
       <c r="E66" s="3">
-        <v>547700</v>
+        <v>640400</v>
       </c>
       <c r="F66" s="3">
-        <v>523500</v>
+        <v>530900</v>
       </c>
       <c r="G66" s="3">
-        <v>662300</v>
+        <v>507400</v>
       </c>
       <c r="H66" s="3">
-        <v>713200</v>
+        <v>641900</v>
       </c>
       <c r="I66" s="3">
-        <v>1018700</v>
+        <v>691300</v>
       </c>
       <c r="J66" s="3">
+        <v>987400</v>
+      </c>
+      <c r="K66" s="3">
         <v>961300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>979800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>654500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>222000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>197300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>159100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>179000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,31 +4001,34 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>224300</v>
+        <v>217400</v>
       </c>
       <c r="E70" s="3">
-        <v>224300</v>
+        <v>217400</v>
       </c>
       <c r="F70" s="3">
-        <v>224300</v>
+        <v>217400</v>
       </c>
       <c r="G70" s="3">
-        <v>224300</v>
+        <v>217400</v>
       </c>
       <c r="H70" s="3">
-        <v>224300</v>
+        <v>217400</v>
       </c>
       <c r="I70" s="3">
-        <v>215300</v>
+        <v>217400</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>208700</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3875,14 +4043,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>638500</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>675000</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,53 +4119,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1538200</v>
+        <v>-1353300</v>
       </c>
       <c r="E72" s="3">
+        <v>-1490900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-1568700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-1576200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-1634200</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1618400</v>
       </c>
-      <c r="F72" s="3">
-        <v>-1626200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1686000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1669700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1672500</v>
-      </c>
       <c r="J72" s="3">
+        <v>-1621100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1803500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1818800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-955400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-774800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-741800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-562800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-512200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,53 +4355,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>805400</v>
+        <v>927400</v>
       </c>
       <c r="E76" s="3">
-        <v>717800</v>
+        <v>780600</v>
       </c>
       <c r="F76" s="3">
-        <v>695000</v>
+        <v>695700</v>
       </c>
       <c r="G76" s="3">
-        <v>605800</v>
+        <v>673700</v>
       </c>
       <c r="H76" s="3">
-        <v>614700</v>
+        <v>587200</v>
       </c>
       <c r="I76" s="3">
-        <v>516200</v>
+        <v>595800</v>
       </c>
       <c r="J76" s="3">
+        <v>500300</v>
+      </c>
+      <c r="K76" s="3">
         <v>365000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>359900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>704400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>895600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1005300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-370200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-304100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>80300</v>
+        <v>137600</v>
       </c>
       <c r="E81" s="3">
-        <v>7800</v>
+        <v>77800</v>
       </c>
       <c r="F81" s="3">
-        <v>75100</v>
+        <v>7500</v>
       </c>
       <c r="G81" s="3">
-        <v>-16300</v>
+        <v>72800</v>
       </c>
       <c r="H81" s="3">
-        <v>2800</v>
+        <v>-15800</v>
       </c>
       <c r="I81" s="3">
-        <v>131000</v>
+        <v>2700</v>
       </c>
       <c r="J81" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-30400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-194000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-74000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-179000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-84400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-228200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-75900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-171400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-20100</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4458,29 +4657,32 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>12400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3">
         <v>600</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>152500</v>
+        <v>199000</v>
       </c>
       <c r="E89" s="3">
-        <v>6900</v>
+        <v>147800</v>
       </c>
       <c r="F89" s="3">
-        <v>59300</v>
+        <v>6700</v>
       </c>
       <c r="G89" s="3">
-        <v>-78600</v>
+        <v>57400</v>
       </c>
       <c r="H89" s="3">
-        <v>15300</v>
+        <v>-76200</v>
       </c>
       <c r="I89" s="3">
+        <v>14800</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-144900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-55300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-92500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-42800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-112700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-29800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-18800</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,16 +5057,17 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1370600</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-200400</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4872,29 +5093,32 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
         <v>-29500</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3">
         <v>-25500</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-72900</v>
+        <v>-120800</v>
       </c>
       <c r="E94" s="3">
-        <v>-64100</v>
+        <v>-70700</v>
       </c>
       <c r="F94" s="3">
-        <v>-29500</v>
+        <v>-62100</v>
       </c>
       <c r="G94" s="3">
-        <v>-9900</v>
+        <v>-28600</v>
       </c>
       <c r="H94" s="3">
-        <v>-10000</v>
+        <v>-9600</v>
       </c>
       <c r="I94" s="3">
-        <v>-7100</v>
+        <v>-9700</v>
       </c>
       <c r="J94" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>12400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>95000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-348500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>11300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>51500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-203100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-22100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25500</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5319,160 +5565,169 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-101900</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-98700</v>
       </c>
       <c r="H100" s="3">
-        <v>-221700</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>215300</v>
+        <v>-214900</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>208700</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>243400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-22200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>820100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>12700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>225500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>167000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>199900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>27000</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1800</v>
       </c>
-      <c r="F101" s="3">
-        <v>3800</v>
-      </c>
       <c r="G101" s="3">
-        <v>10700</v>
+        <v>3700</v>
       </c>
       <c r="H101" s="3">
-        <v>-1700</v>
+        <v>10300</v>
       </c>
       <c r="I101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>17400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-800</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>79300</v>
+        <v>79500</v>
       </c>
       <c r="E102" s="3">
-        <v>-59000</v>
+        <v>76900</v>
       </c>
       <c r="F102" s="3">
-        <v>-68300</v>
+        <v>-57200</v>
       </c>
       <c r="G102" s="3">
-        <v>-77900</v>
+        <v>-66200</v>
       </c>
       <c r="H102" s="3">
-        <v>-218000</v>
+        <v>-75500</v>
       </c>
       <c r="I102" s="3">
-        <v>205200</v>
+        <v>-211300</v>
       </c>
       <c r="J102" s="3">
+        <v>198900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>29000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>65100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>73100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>417000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-69600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>234000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-147200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>150200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-18000</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKNCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>LKNCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>854400</v>
+        <v>994200</v>
       </c>
       <c r="E8" s="3">
-        <v>611300</v>
+        <v>856300</v>
       </c>
       <c r="F8" s="3">
-        <v>509100</v>
+        <v>612600</v>
       </c>
       <c r="G8" s="3">
-        <v>536600</v>
+        <v>510200</v>
       </c>
       <c r="H8" s="3">
-        <v>454500</v>
+        <v>537800</v>
       </c>
       <c r="I8" s="3">
-        <v>331300</v>
+        <v>455500</v>
       </c>
       <c r="J8" s="3">
+        <v>332000</v>
+      </c>
+      <c r="K8" s="3">
         <v>335200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>334100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>457100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>214600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>134000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>70500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>73400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>37700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2000</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>497400</v>
+        <v>634100</v>
       </c>
       <c r="E9" s="3">
-        <v>364600</v>
+        <v>498500</v>
       </c>
       <c r="F9" s="3">
-        <v>317500</v>
+        <v>365400</v>
       </c>
       <c r="G9" s="3">
-        <v>304600</v>
+        <v>318200</v>
       </c>
       <c r="H9" s="3">
-        <v>265200</v>
+        <v>305300</v>
       </c>
       <c r="I9" s="3">
-        <v>216200</v>
+        <v>265700</v>
       </c>
       <c r="J9" s="3">
+        <v>216700</v>
+      </c>
+      <c r="K9" s="3">
         <v>222200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>204000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>314200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>87200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>166800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>123400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>82300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>91300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>50800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>26700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4500</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>357100</v>
+        <v>360100</v>
       </c>
       <c r="E10" s="3">
-        <v>246700</v>
+        <v>357800</v>
       </c>
       <c r="F10" s="3">
-        <v>191600</v>
+        <v>247200</v>
       </c>
       <c r="G10" s="3">
-        <v>232000</v>
+        <v>192000</v>
       </c>
       <c r="H10" s="3">
-        <v>189300</v>
+        <v>232500</v>
       </c>
       <c r="I10" s="3">
-        <v>115100</v>
+        <v>189800</v>
       </c>
       <c r="J10" s="3">
+        <v>115400</v>
+      </c>
+      <c r="K10" s="3">
         <v>113000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>130000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>142900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-73900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>47800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-17900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-13100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-8200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-2500</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,44 +1085,47 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E14" s="3">
         <v>1300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
-        <v>-15800</v>
-      </c>
       <c r="H14" s="3">
-        <v>33400</v>
+        <v>-15900</v>
       </c>
       <c r="I14" s="3">
-        <v>5100</v>
+        <v>71700</v>
       </c>
       <c r="J14" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K14" s="3">
         <v>15400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>22200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>29100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1118,8 +1138,8 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1127,67 +1147,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E15" s="3">
         <v>17600</v>
       </c>
-      <c r="E15" s="3">
-        <v>14900</v>
-      </c>
       <c r="F15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G15" s="3">
         <v>13100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>14400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>13400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>13200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>13800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>32900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>18200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>15100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>13000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>9300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>600</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>692800</v>
+        <v>874100</v>
       </c>
       <c r="E17" s="3">
-        <v>517800</v>
+        <v>694400</v>
       </c>
       <c r="F17" s="3">
-        <v>465900</v>
+        <v>519000</v>
       </c>
       <c r="G17" s="3">
-        <v>438900</v>
+        <v>467000</v>
       </c>
       <c r="H17" s="3">
-        <v>421200</v>
+        <v>439800</v>
       </c>
       <c r="I17" s="3">
-        <v>329100</v>
+        <v>460300</v>
       </c>
       <c r="J17" s="3">
+        <v>330200</v>
+      </c>
+      <c r="K17" s="3">
         <v>351800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>335000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>516200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>208800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>296800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>235600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>148200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>175000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>113700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>70700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21000</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>161600</v>
+        <v>120100</v>
       </c>
       <c r="E18" s="3">
-        <v>93500</v>
+        <v>161900</v>
       </c>
       <c r="F18" s="3">
+        <v>93700</v>
+      </c>
+      <c r="G18" s="3">
         <v>43200</v>
       </c>
-      <c r="G18" s="3">
-        <v>97700</v>
-      </c>
       <c r="H18" s="3">
-        <v>33300</v>
+        <v>97900</v>
       </c>
       <c r="I18" s="3">
-        <v>2200</v>
+        <v>-4900</v>
       </c>
       <c r="J18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-16600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-59100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-195500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-82300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-101600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-77700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-101600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-76000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-52200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-19000</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,16 +1380,17 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="3">
         <v>7100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4700</v>
       </c>
       <c r="F20" s="3">
         <v>4700</v>
@@ -1365,108 +1399,114 @@
         <v>4700</v>
       </c>
       <c r="H20" s="3">
-        <v>-33900</v>
+        <v>4700</v>
       </c>
       <c r="I20" s="3">
-        <v>6600</v>
+        <v>4200</v>
       </c>
       <c r="J20" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K20" s="3">
         <v>138500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>25500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>171400</v>
+        <v>129500</v>
       </c>
       <c r="E21" s="3">
-        <v>113100</v>
+        <v>171700</v>
       </c>
       <c r="F21" s="3">
-        <v>46600</v>
+        <v>113300</v>
       </c>
       <c r="G21" s="3">
-        <v>103400</v>
+        <v>46700</v>
       </c>
       <c r="H21" s="3">
+        <v>103600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
-        <v>22000</v>
-      </c>
       <c r="J21" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K21" s="3">
         <v>116900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-150800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-70200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-98500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-67800</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>-19500</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,149 +1520,155 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
+        <v>900</v>
+      </c>
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="I22" s="3">
-        <v>900</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
-        <v>2600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R22" s="3">
         <v>1300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="S22" s="3">
         <v>1200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1200</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>168700</v>
+        <v>125000</v>
       </c>
       <c r="E23" s="3">
-        <v>98100</v>
+        <v>169100</v>
       </c>
       <c r="F23" s="3">
-        <v>47900</v>
+        <v>98400</v>
       </c>
       <c r="G23" s="3">
-        <v>101300</v>
+        <v>48000</v>
       </c>
       <c r="H23" s="3">
+        <v>101500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>120700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-36200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-194100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-74000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-81300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-105500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-75900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-50700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-20100</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>31100</v>
+        <v>-11400</v>
       </c>
       <c r="E24" s="3">
-        <v>20300</v>
+        <v>31200</v>
       </c>
       <c r="F24" s="3">
-        <v>40300</v>
+        <v>20400</v>
       </c>
       <c r="G24" s="3">
-        <v>28400</v>
+        <v>40400</v>
       </c>
       <c r="H24" s="3">
-        <v>14000</v>
+        <v>28500</v>
       </c>
       <c r="I24" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J24" s="3">
         <v>5200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>137600</v>
+        <v>136400</v>
       </c>
       <c r="E26" s="3">
-        <v>77800</v>
+        <v>137900</v>
       </c>
       <c r="F26" s="3">
+        <v>78000</v>
+      </c>
+      <c r="G26" s="3">
         <v>7500</v>
       </c>
-      <c r="G26" s="3">
-        <v>72800</v>
-      </c>
       <c r="H26" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-15800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>126900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-30400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-194300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-74000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-81300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-105500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-75900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-50700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-20100</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>137600</v>
+        <v>136400</v>
       </c>
       <c r="E27" s="3">
-        <v>77800</v>
+        <v>137900</v>
       </c>
       <c r="F27" s="3">
+        <v>78000</v>
+      </c>
+      <c r="G27" s="3">
         <v>7500</v>
       </c>
-      <c r="G27" s="3">
-        <v>72800</v>
-      </c>
       <c r="H27" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-15800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>126900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-30400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-194000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-74000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-179000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-84400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-228200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-75900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-171400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-20100</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,16 +2122,19 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-4700</v>
       </c>
       <c r="F32" s="3">
         <v>-4700</v>
@@ -2073,108 +2143,114 @@
         <v>-4700</v>
       </c>
       <c r="H32" s="3">
-        <v>33900</v>
+        <v>-4700</v>
       </c>
       <c r="I32" s="3">
-        <v>-6600</v>
+        <v>-4200</v>
       </c>
       <c r="J32" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-138500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-25500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>137600</v>
+        <v>136400</v>
       </c>
       <c r="E33" s="3">
-        <v>77800</v>
+        <v>137900</v>
       </c>
       <c r="F33" s="3">
+        <v>78000</v>
+      </c>
+      <c r="G33" s="3">
         <v>7500</v>
       </c>
-      <c r="G33" s="3">
-        <v>72800</v>
-      </c>
       <c r="H33" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-15800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>126900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-30400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-194000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-74000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-179000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-84400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-228200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-75900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-171400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-20100</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>137600</v>
+        <v>136400</v>
       </c>
       <c r="E35" s="3">
-        <v>77800</v>
+        <v>137900</v>
       </c>
       <c r="F35" s="3">
+        <v>78000</v>
+      </c>
+      <c r="G35" s="3">
         <v>7500</v>
       </c>
-      <c r="G35" s="3">
-        <v>72800</v>
-      </c>
       <c r="H35" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-15800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>126900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-30400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-194000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-74000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-179000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-84400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-228200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-75900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-171400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-20100</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,56 +2487,57 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>643700</v>
+        <v>557500</v>
       </c>
       <c r="E41" s="3">
-        <v>563800</v>
+        <v>645100</v>
       </c>
       <c r="F41" s="3">
-        <v>487000</v>
+        <v>565000</v>
       </c>
       <c r="G41" s="3">
-        <v>542100</v>
+        <v>488000</v>
       </c>
       <c r="H41" s="3">
-        <v>605800</v>
+        <v>543200</v>
       </c>
       <c r="I41" s="3">
-        <v>680800</v>
+        <v>607100</v>
       </c>
       <c r="J41" s="3">
+        <v>682300</v>
+      </c>
+      <c r="K41" s="3">
         <v>892500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>715300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>730000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>677300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>628300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>587800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>170800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>257300</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2460,19 +2547,22 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>54200</v>
+        <v>199600</v>
       </c>
       <c r="E42" s="3">
-        <v>34400</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>54300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>34500</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -2483,8 +2573,8 @@
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2493,23 +2583,23 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>69600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>143400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>303900</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>20500</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2519,56 +2609,59 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>39500</v>
+        <v>49900</v>
       </c>
       <c r="E43" s="3">
-        <v>33600</v>
+        <v>39600</v>
       </c>
       <c r="F43" s="3">
+        <v>33700</v>
+      </c>
+      <c r="G43" s="3">
+        <v>29100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>30300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>30600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K43" s="3">
         <v>29000</v>
       </c>
-      <c r="G43" s="3">
-        <v>30300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>30500</v>
-      </c>
-      <c r="I43" s="3">
-        <v>25200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>29000</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>74600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>36600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>53800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,56 +2671,59 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200000</v>
+        <v>216900</v>
       </c>
       <c r="E44" s="3">
-        <v>186700</v>
+        <v>200500</v>
       </c>
       <c r="F44" s="3">
-        <v>166200</v>
+        <v>187100</v>
       </c>
       <c r="G44" s="3">
-        <v>96700</v>
+        <v>166600</v>
       </c>
       <c r="H44" s="3">
-        <v>107600</v>
+        <v>96900</v>
       </c>
       <c r="I44" s="3">
-        <v>90500</v>
+        <v>107900</v>
       </c>
       <c r="J44" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K44" s="3">
         <v>81800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>61400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>60800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>53700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>29700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>34100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>27800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>23700</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2637,56 +2733,59 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>143900</v>
+        <v>176000</v>
       </c>
       <c r="E45" s="3">
-        <v>147200</v>
+        <v>144200</v>
       </c>
       <c r="F45" s="3">
-        <v>149600</v>
+        <v>147500</v>
       </c>
       <c r="G45" s="3">
-        <v>170300</v>
+        <v>149900</v>
       </c>
       <c r="H45" s="3">
-        <v>166100</v>
+        <v>170700</v>
       </c>
       <c r="I45" s="3">
-        <v>158600</v>
+        <v>166500</v>
       </c>
       <c r="J45" s="3">
+        <v>158900</v>
+      </c>
+      <c r="K45" s="3">
         <v>151900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>167100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>143300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>176100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>80000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>75200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>27500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>27900</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2696,56 +2795,59 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1081300</v>
+        <v>1200000</v>
       </c>
       <c r="E46" s="3">
-        <v>965600</v>
+        <v>1083700</v>
       </c>
       <c r="F46" s="3">
-        <v>831800</v>
+        <v>967700</v>
       </c>
       <c r="G46" s="3">
-        <v>839300</v>
+        <v>833600</v>
       </c>
       <c r="H46" s="3">
-        <v>910100</v>
+        <v>841200</v>
       </c>
       <c r="I46" s="3">
-        <v>955200</v>
+        <v>912100</v>
       </c>
       <c r="J46" s="3">
+        <v>957200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1155100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>954300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>942200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1051300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>884500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1002100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>262700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>383100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2755,16 +2857,19 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>20700</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+      <c r="E47" s="3">
+        <v>20700</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -2781,8 +2886,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2814,56 +2919,59 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>735000</v>
+        <v>994900</v>
       </c>
       <c r="E48" s="3">
-        <v>590800</v>
+        <v>736600</v>
       </c>
       <c r="F48" s="3">
-        <v>533400</v>
+        <v>592100</v>
       </c>
       <c r="G48" s="3">
-        <v>467900</v>
+        <v>534600</v>
       </c>
       <c r="H48" s="3">
-        <v>422400</v>
+        <v>468900</v>
       </c>
       <c r="I48" s="3">
-        <v>426600</v>
+        <v>423400</v>
       </c>
       <c r="J48" s="3">
+        <v>427600</v>
+      </c>
+      <c r="K48" s="3">
         <v>419200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>258400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>277300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>269800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>172400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>156800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>142400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>142800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,56 +3167,59 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>94700</v>
+        <v>155400</v>
       </c>
       <c r="E52" s="3">
-        <v>82100</v>
+        <v>94900</v>
       </c>
       <c r="F52" s="3">
-        <v>78800</v>
+        <v>82200</v>
       </c>
       <c r="G52" s="3">
-        <v>91200</v>
+        <v>79000</v>
       </c>
       <c r="H52" s="3">
-        <v>114000</v>
+        <v>91400</v>
       </c>
       <c r="I52" s="3">
-        <v>122800</v>
+        <v>114300</v>
       </c>
       <c r="J52" s="3">
+        <v>123000</v>
+      </c>
+      <c r="K52" s="3">
         <v>122100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>113600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>120200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>37800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>60700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>43700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>22400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>23900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,56 +3291,59 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1931700</v>
+        <v>2371000</v>
       </c>
       <c r="E54" s="3">
-        <v>1638500</v>
+        <v>1935900</v>
       </c>
       <c r="F54" s="3">
-        <v>1444000</v>
+        <v>1642100</v>
       </c>
       <c r="G54" s="3">
-        <v>1398500</v>
+        <v>1447100</v>
       </c>
       <c r="H54" s="3">
-        <v>1446600</v>
+        <v>1401500</v>
       </c>
       <c r="I54" s="3">
-        <v>1504600</v>
+        <v>1449700</v>
       </c>
       <c r="J54" s="3">
+        <v>1507800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1696400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1326300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1339700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1358900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1117600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1202600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>427400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>549800</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,56 +3403,57 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>93100</v>
+        <v>139000</v>
       </c>
       <c r="E57" s="3">
-        <v>92600</v>
+        <v>93400</v>
       </c>
       <c r="F57" s="3">
-        <v>60800</v>
+        <v>92800</v>
       </c>
       <c r="G57" s="3">
-        <v>55400</v>
+        <v>60900</v>
       </c>
       <c r="H57" s="3">
-        <v>72300</v>
+        <v>55500</v>
       </c>
       <c r="I57" s="3">
-        <v>64700</v>
+        <v>72400</v>
       </c>
       <c r="J57" s="3">
+        <v>64800</v>
+      </c>
+      <c r="K57" s="3">
         <v>40500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>42400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>64400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>140100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>48900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>38200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>52600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>66200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3343,8 +3477,8 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3356,32 +3490,32 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>403900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>421300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>426600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>51300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>37100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>51800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>47500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>29900</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3391,56 +3525,59 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>476100</v>
+        <v>618000</v>
       </c>
       <c r="E59" s="3">
-        <v>386600</v>
+        <v>477200</v>
       </c>
       <c r="F59" s="3">
-        <v>328900</v>
+        <v>387400</v>
       </c>
       <c r="G59" s="3">
-        <v>337500</v>
+        <v>329700</v>
       </c>
       <c r="H59" s="3">
-        <v>357500</v>
+        <v>338300</v>
       </c>
       <c r="I59" s="3">
-        <v>434400</v>
+        <v>358300</v>
       </c>
       <c r="J59" s="3">
+        <v>435300</v>
+      </c>
+      <c r="K59" s="3">
         <v>463800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>332700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>321900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>408500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>123000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>88200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>24900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>27100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3450,56 +3587,59 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>569300</v>
+        <v>757000</v>
       </c>
       <c r="E60" s="3">
-        <v>479200</v>
+        <v>570500</v>
       </c>
       <c r="F60" s="3">
-        <v>389800</v>
+        <v>480300</v>
       </c>
       <c r="G60" s="3">
-        <v>393000</v>
+        <v>390600</v>
       </c>
       <c r="H60" s="3">
-        <v>429800</v>
+        <v>393800</v>
       </c>
       <c r="I60" s="3">
-        <v>499100</v>
+        <v>430700</v>
       </c>
       <c r="J60" s="3">
+        <v>500100</v>
+      </c>
+      <c r="K60" s="3">
         <v>908200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>796400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>812900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>599900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>209100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>178200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>125000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>123200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3527,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>117700</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>110500</v>
+        <v>117900</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>110700</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3542,23 +3685,23 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>43200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>11300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>35800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3568,56 +3711,59 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>217600</v>
+        <v>321500</v>
       </c>
       <c r="E62" s="3">
-        <v>161200</v>
+        <v>218100</v>
       </c>
       <c r="F62" s="3">
-        <v>141100</v>
+        <v>161600</v>
       </c>
       <c r="G62" s="3">
-        <v>114400</v>
+        <v>141400</v>
       </c>
       <c r="H62" s="3">
-        <v>94500</v>
+        <v>114700</v>
       </c>
       <c r="I62" s="3">
-        <v>81800</v>
+        <v>94700</v>
       </c>
       <c r="J62" s="3">
+        <v>81900</v>
+      </c>
+      <c r="K62" s="3">
         <v>79200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>164900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>166900</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>12900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>20000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,56 +3959,59 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>786900</v>
+        <v>1078500</v>
       </c>
       <c r="E66" s="3">
-        <v>640400</v>
+        <v>788600</v>
       </c>
       <c r="F66" s="3">
-        <v>530900</v>
+        <v>641800</v>
       </c>
       <c r="G66" s="3">
-        <v>507400</v>
+        <v>532000</v>
       </c>
       <c r="H66" s="3">
-        <v>641900</v>
+        <v>508500</v>
       </c>
       <c r="I66" s="3">
-        <v>691300</v>
+        <v>643300</v>
       </c>
       <c r="J66" s="3">
+        <v>692800</v>
+      </c>
+      <c r="K66" s="3">
         <v>987400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>961300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>979800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>654500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>222000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>197300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>159100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>179000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,35 +4169,38 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>217400</v>
+        <v>217900</v>
       </c>
       <c r="E70" s="3">
-        <v>217400</v>
+        <v>217900</v>
       </c>
       <c r="F70" s="3">
-        <v>217400</v>
+        <v>217900</v>
       </c>
       <c r="G70" s="3">
-        <v>217400</v>
+        <v>217900</v>
       </c>
       <c r="H70" s="3">
-        <v>217400</v>
+        <v>217900</v>
       </c>
       <c r="I70" s="3">
-        <v>217400</v>
+        <v>217900</v>
       </c>
       <c r="J70" s="3">
+        <v>217900</v>
+      </c>
+      <c r="K70" s="3">
         <v>208700</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -4046,14 +4214,14 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>638500</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>675000</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,56 +4293,59 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1353300</v>
+        <v>-1219800</v>
       </c>
       <c r="E72" s="3">
-        <v>-1490900</v>
+        <v>-1356200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1568700</v>
+        <v>-1494100</v>
       </c>
       <c r="G72" s="3">
-        <v>-1576200</v>
+        <v>-1572100</v>
       </c>
       <c r="H72" s="3">
-        <v>-1634200</v>
+        <v>-1579600</v>
       </c>
       <c r="I72" s="3">
-        <v>-1618400</v>
+        <v>-1637800</v>
       </c>
       <c r="J72" s="3">
+        <v>-1621900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1621100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1803500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1818800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-955400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-774800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-741800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-562800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-512200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,56 +4541,59 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>927400</v>
+        <v>1074600</v>
       </c>
       <c r="E76" s="3">
-        <v>780600</v>
+        <v>929400</v>
       </c>
       <c r="F76" s="3">
-        <v>695700</v>
+        <v>782300</v>
       </c>
       <c r="G76" s="3">
-        <v>673700</v>
+        <v>697200</v>
       </c>
       <c r="H76" s="3">
-        <v>587200</v>
+        <v>675100</v>
       </c>
       <c r="I76" s="3">
-        <v>595800</v>
+        <v>588500</v>
       </c>
       <c r="J76" s="3">
+        <v>597100</v>
+      </c>
+      <c r="K76" s="3">
         <v>500300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>365000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>359900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>704400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>895600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1005300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-370200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-304100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>137600</v>
+        <v>136400</v>
       </c>
       <c r="E81" s="3">
-        <v>77800</v>
+        <v>137900</v>
       </c>
       <c r="F81" s="3">
+        <v>78000</v>
+      </c>
+      <c r="G81" s="3">
         <v>7500</v>
       </c>
-      <c r="G81" s="3">
-        <v>72800</v>
-      </c>
       <c r="H81" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-15800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>126900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-30400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-194000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-74000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-179000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-84400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-228200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-75900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-171400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-20100</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4660,29 +4859,32 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
         <v>12400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3">
         <v>600</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>199000</v>
+        <v>180900</v>
       </c>
       <c r="E89" s="3">
-        <v>147800</v>
+        <v>199400</v>
       </c>
       <c r="F89" s="3">
+        <v>148100</v>
+      </c>
+      <c r="G89" s="3">
         <v>6700</v>
       </c>
-      <c r="G89" s="3">
-        <v>57400</v>
-      </c>
       <c r="H89" s="3">
-        <v>-76200</v>
+        <v>57600</v>
       </c>
       <c r="I89" s="3">
-        <v>14800</v>
+        <v>-76400</v>
       </c>
       <c r="J89" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-144900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-17100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-55300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-92500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-42800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-112700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-29800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-18800</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5096,29 +5317,32 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-29500</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3">
         <v>-25500</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-120800</v>
+        <v>-259700</v>
       </c>
       <c r="E94" s="3">
-        <v>-70700</v>
+        <v>-121100</v>
       </c>
       <c r="F94" s="3">
-        <v>-62100</v>
+        <v>-70900</v>
       </c>
       <c r="G94" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-28600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>12400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>95000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-348500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>11300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>51500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-203100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-22100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-25500</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,13 +5796,16 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5568,166 +5814,175 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-98700</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-99000</v>
       </c>
       <c r="I100" s="3">
-        <v>-214900</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>-215300</v>
+      </c>
+      <c r="K100" s="3">
         <v>208700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>243400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-22200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>820100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>12700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>225500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>167000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>199900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>27000</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3700</v>
       </c>
-      <c r="H101" s="3">
-        <v>10300</v>
-      </c>
       <c r="I101" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>17400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-800</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>79500</v>
+        <v>-79000</v>
       </c>
       <c r="E102" s="3">
-        <v>76900</v>
+        <v>79700</v>
       </c>
       <c r="F102" s="3">
-        <v>-57200</v>
+        <v>77100</v>
       </c>
       <c r="G102" s="3">
-        <v>-66200</v>
+        <v>-57300</v>
       </c>
       <c r="H102" s="3">
-        <v>-75500</v>
+        <v>-66300</v>
       </c>
       <c r="I102" s="3">
-        <v>-211300</v>
+        <v>-75600</v>
       </c>
       <c r="J102" s="3">
+        <v>-211800</v>
+      </c>
+      <c r="K102" s="3">
         <v>198900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>29000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>65100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>73100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>417000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-69600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>234000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-147200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>150200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-18000</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
